--- a/spreadsheet/avd_checklist.ja.xlsx
+++ b/spreadsheet/avd_checklist.ja.xlsx
@@ -3500,7 +3500,7 @@
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Azure 共有イメージ ギャラリーを評価します。</t>
+          <t>Azure コンピューティング ギャラリーを評価します。</t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="D117" s="22" t="inlineStr">
         <is>
-          <t>カスタム イメージを使用して AVD ホスト プール VM を展開する場合は、大規模な障害が発生した場合でも、それらの成果物がすべてのリージョンで使用できるようにすることが重要です。Azure 共有イメージ ギャラリー サービスを使用すると、ホスト プールがデプロイされているすべてのリージョンに、冗長ストレージと複数のコピーでイメージをレプリケートできます。</t>
+          <t>カスタム イメージを使用して AVD ホスト プール VM を展開する場合は、大規模な障害が発生した場合でも、それらの成果物がすべてのリージョンで使用できるようにすることが重要です。Azure コンピューティング ギャラリー サービスを使用すると、ホスト プールがデプロイされているすべてのリージョンに、冗長ストレージと複数のコピーでイメージをレプリケートできます。</t>
         </is>
       </c>
       <c r="E117" s="22" t="inlineStr">

--- a/spreadsheet/avd_checklist.ja.xlsx
+++ b/spreadsheet/avd_checklist.ja.xlsx
@@ -2521,7 +2521,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -6621,850 +6621,2418 @@
       <c r="P118" s="26" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1" s="13">
-      <c r="A119" s="22" t="n"/>
-      <c r="B119" s="22" t="n"/>
-      <c r="C119" s="22" t="n"/>
+      <c r="A119" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B119" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C119" s="22" t="inlineStr">
+        <is>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+        </is>
+      </c>
       <c r="D119" s="22" t="n"/>
-      <c r="E119" s="22" t="n"/>
+      <c r="E119" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G119" s="22" t="n"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
-      <c r="L119" s="26" t="n"/>
+      <c r="L119" s="26" t="inlineStr">
+        <is>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+        </is>
+      </c>
       <c r="M119" s="26" t="n"/>
       <c r="N119" s="26" t="n"/>
       <c r="O119" s="26" t="n"/>
       <c r="P119" s="26" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1" s="13">
-      <c r="A120" s="22" t="n"/>
-      <c r="B120" s="22" t="n"/>
-      <c r="C120" s="22" t="n"/>
+      <c r="A120" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B120" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C120" s="22" t="inlineStr">
+        <is>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+        </is>
+      </c>
       <c r="D120" s="22" t="n"/>
-      <c r="E120" s="22" t="n"/>
+      <c r="E120" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G120" s="22" t="n"/>
-      <c r="H120" s="16" t="n"/>
+      <c r="H120" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
       <c r="I120" s="16" t="n"/>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
-      <c r="L120" s="26" t="n"/>
+      <c r="L120" s="26" t="inlineStr">
+        <is>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+        </is>
+      </c>
       <c r="M120" s="26" t="n"/>
       <c r="N120" s="26" t="n"/>
       <c r="O120" s="26" t="n"/>
       <c r="P120" s="26" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1" s="13">
-      <c r="A121" s="22" t="n"/>
-      <c r="B121" s="22" t="n"/>
-      <c r="C121" s="22" t="n"/>
+      <c r="A121" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B121" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C121" s="22" t="inlineStr">
+        <is>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+        </is>
+      </c>
       <c r="D121" s="22" t="n"/>
-      <c r="E121" s="22" t="n"/>
+      <c r="E121" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G121" s="22" t="n"/>
-      <c r="H121" s="16" t="n"/>
-      <c r="I121" s="16" t="n"/>
+      <c r="H121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
-      <c r="L121" s="26" t="n"/>
+      <c r="L121" s="26" t="inlineStr">
+        <is>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+        </is>
+      </c>
       <c r="M121" s="26" t="n"/>
       <c r="N121" s="26" t="n"/>
       <c r="O121" s="26" t="n"/>
       <c r="P121" s="26" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1" s="13">
-      <c r="A122" s="22" t="n"/>
-      <c r="B122" s="22" t="n"/>
-      <c r="C122" s="22" t="n"/>
+      <c r="A122" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B122" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C122" s="22" t="inlineStr">
+        <is>
+          <t>Is the landing zone documented?</t>
+        </is>
+      </c>
       <c r="D122" s="22" t="n"/>
-      <c r="E122" s="22" t="n"/>
+      <c r="E122" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="n"/>
       <c r="I122" s="16" t="n"/>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
-      <c r="L122" s="26" t="n"/>
+      <c r="L122" s="26" t="inlineStr">
+        <is>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+        </is>
+      </c>
       <c r="M122" s="26" t="n"/>
       <c r="N122" s="26" t="n"/>
       <c r="O122" s="26" t="n"/>
       <c r="P122" s="26" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1" s="13">
-      <c r="A123" s="22" t="n"/>
-      <c r="B123" s="22" t="n"/>
-      <c r="C123" s="22" t="n"/>
+      <c r="A123" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B123" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C123" s="22" t="inlineStr">
+        <is>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+        </is>
+      </c>
       <c r="D123" s="22" t="n"/>
-      <c r="E123" s="22" t="n"/>
+      <c r="E123" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="n"/>
-      <c r="I123" s="16" t="n"/>
+      <c r="H123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
-      <c r="L123" s="26" t="n"/>
+      <c r="L123" s="26" t="inlineStr">
+        <is>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+        </is>
+      </c>
       <c r="M123" s="26" t="n"/>
       <c r="N123" s="26" t="n"/>
       <c r="O123" s="26" t="n"/>
       <c r="P123" s="26" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1" s="13">
-      <c r="A124" s="22" t="n"/>
-      <c r="B124" s="22" t="n"/>
-      <c r="C124" s="22" t="n"/>
+      <c r="A124" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B124" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C124" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+        </is>
+      </c>
       <c r="D124" s="22" t="n"/>
-      <c r="E124" s="22" t="n"/>
+      <c r="E124" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G124" s="22" t="n"/>
-      <c r="H124" s="16" t="n"/>
-      <c r="I124" s="16" t="n"/>
+      <c r="H124" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I124" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
-      <c r="L124" s="26" t="n"/>
+      <c r="L124" s="26" t="inlineStr">
+        <is>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+        </is>
+      </c>
       <c r="M124" s="26" t="n"/>
       <c r="N124" s="26" t="n"/>
       <c r="O124" s="26" t="n"/>
       <c r="P124" s="26" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1" s="13">
-      <c r="A125" s="22" t="n"/>
-      <c r="B125" s="22" t="n"/>
-      <c r="C125" s="22" t="n"/>
+      <c r="A125" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B125" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C125" s="22" t="inlineStr">
+        <is>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+        </is>
+      </c>
       <c r="D125" s="22" t="n"/>
-      <c r="E125" s="22" t="n"/>
+      <c r="E125" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G125" s="22" t="n"/>
-      <c r="H125" s="16" t="n"/>
-      <c r="I125" s="16" t="n"/>
+      <c r="H125" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I125" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
-      <c r="L125" s="26" t="n"/>
+      <c r="L125" s="26" t="inlineStr">
+        <is>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+        </is>
+      </c>
       <c r="M125" s="26" t="n"/>
       <c r="N125" s="26" t="n"/>
       <c r="O125" s="26" t="n"/>
       <c r="P125" s="26" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1" s="13">
-      <c r="A126" s="22" t="n"/>
-      <c r="B126" s="22" t="n"/>
-      <c r="C126" s="22" t="n"/>
+      <c r="A126" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B126" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C126" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+        </is>
+      </c>
       <c r="D126" s="22" t="n"/>
-      <c r="E126" s="22" t="n"/>
+      <c r="E126" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G126" s="22" t="n"/>
-      <c r="H126" s="16" t="n"/>
+      <c r="H126" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
-      <c r="L126" s="26" t="n"/>
+      <c r="L126" s="26" t="inlineStr">
+        <is>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+        </is>
+      </c>
       <c r="M126" s="26" t="n"/>
       <c r="N126" s="26" t="n"/>
       <c r="O126" s="26" t="n"/>
       <c r="P126" s="26" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1" s="13">
-      <c r="A127" s="22" t="n"/>
-      <c r="B127" s="22" t="n"/>
-      <c r="C127" s="22" t="n"/>
+      <c r="A127" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B127" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C127" s="22" t="inlineStr">
+        <is>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
+        </is>
+      </c>
       <c r="D127" s="22" t="n"/>
-      <c r="E127" s="22" t="n"/>
+      <c r="E127" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G127" s="22" t="n"/>
-      <c r="H127" s="16" t="n"/>
+      <c r="H127" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
-      <c r="L127" s="26" t="n"/>
+      <c r="L127" s="26" t="inlineStr">
+        <is>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+        </is>
+      </c>
       <c r="M127" s="26" t="n"/>
       <c r="N127" s="26" t="n"/>
       <c r="O127" s="26" t="n"/>
       <c r="P127" s="26" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1" s="13">
-      <c r="A128" s="22" t="n"/>
-      <c r="B128" s="22" t="n"/>
-      <c r="C128" s="22" t="n"/>
+      <c r="A128" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B128" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C128" s="22" t="inlineStr">
+        <is>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+        </is>
+      </c>
       <c r="D128" s="22" t="n"/>
-      <c r="E128" s="22" t="n"/>
+      <c r="E128" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G128" s="22" t="n"/>
-      <c r="H128" s="16" t="n"/>
+      <c r="H128" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
-      <c r="L128" s="26" t="n"/>
+      <c r="L128" s="26" t="inlineStr">
+        <is>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+        </is>
+      </c>
       <c r="M128" s="26" t="n"/>
       <c r="N128" s="26" t="n"/>
       <c r="O128" s="26" t="n"/>
       <c r="P128" s="26" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1" s="13">
-      <c r="A129" s="22" t="n"/>
-      <c r="B129" s="22" t="n"/>
-      <c r="C129" s="22" t="n"/>
+      <c r="A129" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B129" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C129" s="22" t="inlineStr">
+        <is>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+        </is>
+      </c>
       <c r="D129" s="22" t="n"/>
-      <c r="E129" s="22" t="n"/>
+      <c r="E129" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G129" s="22" t="n"/>
-      <c r="H129" s="16" t="n"/>
+      <c r="H129" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
-      <c r="L129" s="26" t="n"/>
+      <c r="L129" s="26" t="inlineStr">
+        <is>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+        </is>
+      </c>
       <c r="M129" s="26" t="n"/>
       <c r="N129" s="26" t="n"/>
       <c r="O129" s="26" t="n"/>
       <c r="P129" s="26" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1" s="13">
-      <c r="A130" s="22" t="n"/>
-      <c r="B130" s="22" t="n"/>
-      <c r="C130" s="22" t="n"/>
+      <c r="A130" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B130" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C130" s="22" t="inlineStr">
+        <is>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+        </is>
+      </c>
       <c r="D130" s="22" t="n"/>
-      <c r="E130" s="22" t="n"/>
+      <c r="E130" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G130" s="22" t="n"/>
-      <c r="H130" s="16" t="n"/>
+      <c r="H130" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+        </is>
+      </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
-      <c r="L130" s="26" t="n"/>
+      <c r="L130" s="26" t="inlineStr">
+        <is>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+        </is>
+      </c>
       <c r="M130" s="26" t="n"/>
       <c r="N130" s="26" t="n"/>
       <c r="O130" s="26" t="n"/>
       <c r="P130" s="26" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1" s="13">
-      <c r="A131" s="22" t="n"/>
-      <c r="B131" s="22" t="n"/>
-      <c r="C131" s="22" t="n"/>
+      <c r="A131" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B131" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C131" s="22" t="inlineStr">
+        <is>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+        </is>
+      </c>
       <c r="D131" s="22" t="n"/>
-      <c r="E131" s="22" t="n"/>
+      <c r="E131" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G131" s="22" t="n"/>
-      <c r="H131" s="16" t="n"/>
+      <c r="H131" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+        </is>
+      </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
-      <c r="L131" s="26" t="n"/>
+      <c r="L131" s="26" t="inlineStr">
+        <is>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+        </is>
+      </c>
       <c r="M131" s="26" t="n"/>
       <c r="N131" s="26" t="n"/>
       <c r="O131" s="26" t="n"/>
       <c r="P131" s="26" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1" s="13">
-      <c r="A132" s="22" t="n"/>
-      <c r="B132" s="22" t="n"/>
-      <c r="C132" s="22" t="n"/>
+      <c r="A132" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B132" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C132" s="22" t="inlineStr">
+        <is>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+        </is>
+      </c>
       <c r="D132" s="22" t="n"/>
-      <c r="E132" s="22" t="n"/>
+      <c r="E132" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="16" t="n"/>
+      <c r="H132" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
-      <c r="L132" s="26" t="n"/>
+      <c r="L132" s="26" t="inlineStr">
+        <is>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+        </is>
+      </c>
       <c r="M132" s="26" t="n"/>
       <c r="N132" s="26" t="n"/>
       <c r="O132" s="26" t="n"/>
       <c r="P132" s="26" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1" s="13">
-      <c r="A133" s="22" t="n"/>
-      <c r="B133" s="22" t="n"/>
-      <c r="C133" s="22" t="n"/>
+      <c r="A133" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B133" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C133" s="22" t="inlineStr">
+        <is>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+        </is>
+      </c>
       <c r="D133" s="22" t="n"/>
-      <c r="E133" s="22" t="n"/>
+      <c r="E133" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="16" t="n"/>
+      <c r="H133" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
-      <c r="L133" s="26" t="n"/>
+      <c r="L133" s="26" t="inlineStr">
+        <is>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+        </is>
+      </c>
       <c r="M133" s="26" t="n"/>
       <c r="N133" s="26" t="n"/>
       <c r="O133" s="26" t="n"/>
       <c r="P133" s="26" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1" s="13">
-      <c r="A134" s="22" t="n"/>
-      <c r="B134" s="22" t="n"/>
-      <c r="C134" s="22" t="n"/>
+      <c r="A134" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B134" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C134" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
+        </is>
+      </c>
       <c r="D134" s="22" t="n"/>
-      <c r="E134" s="22" t="n"/>
+      <c r="E134" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G134" s="22" t="n"/>
-      <c r="H134" s="16" t="n"/>
+      <c r="H134" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+        </is>
+      </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
-      <c r="L134" s="26" t="n"/>
+      <c r="L134" s="26" t="inlineStr">
+        <is>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+        </is>
+      </c>
       <c r="M134" s="26" t="n"/>
       <c r="N134" s="26" t="n"/>
       <c r="O134" s="26" t="n"/>
       <c r="P134" s="26" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1" s="13">
-      <c r="A135" s="22" t="n"/>
-      <c r="B135" s="22" t="n"/>
-      <c r="C135" s="22" t="n"/>
+      <c r="A135" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B135" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C135" s="22" t="inlineStr">
+        <is>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+        </is>
+      </c>
       <c r="D135" s="22" t="n"/>
-      <c r="E135" s="22" t="n"/>
+      <c r="E135" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G135" s="22" t="n"/>
-      <c r="H135" s="16" t="n"/>
+      <c r="H135" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+        </is>
+      </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
-      <c r="L135" s="26" t="n"/>
+      <c r="L135" s="26" t="inlineStr">
+        <is>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+        </is>
+      </c>
       <c r="M135" s="26" t="n"/>
       <c r="N135" s="26" t="n"/>
       <c r="O135" s="26" t="n"/>
       <c r="P135" s="26" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1" s="13">
-      <c r="A136" s="22" t="n"/>
-      <c r="B136" s="22" t="n"/>
-      <c r="C136" s="22" t="n"/>
+      <c r="A136" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B136" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C136" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+        </is>
+      </c>
       <c r="D136" s="22" t="n"/>
-      <c r="E136" s="22" t="n"/>
+      <c r="E136" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G136" s="22" t="n"/>
-      <c r="H136" s="16" t="n"/>
+      <c r="H136" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+        </is>
+      </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
-      <c r="L136" s="26" t="n"/>
+      <c r="L136" s="26" t="inlineStr">
+        <is>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+        </is>
+      </c>
       <c r="M136" s="26" t="n"/>
       <c r="N136" s="26" t="n"/>
       <c r="O136" s="26" t="n"/>
       <c r="P136" s="26" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1" s="13">
-      <c r="A137" s="22" t="n"/>
-      <c r="B137" s="22" t="n"/>
-      <c r="C137" s="22" t="n"/>
+      <c r="A137" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B137" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C137" s="22" t="inlineStr">
+        <is>
+          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+        </is>
+      </c>
       <c r="D137" s="22" t="n"/>
-      <c r="E137" s="22" t="n"/>
+      <c r="E137" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="16" t="n"/>
+      <c r="H137" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+        </is>
+      </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
-      <c r="L137" s="26" t="n"/>
+      <c r="L137" s="26" t="inlineStr">
+        <is>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+        </is>
+      </c>
       <c r="M137" s="26" t="n"/>
       <c r="N137" s="26" t="n"/>
       <c r="O137" s="26" t="n"/>
       <c r="P137" s="26" t="n"/>
     </row>
     <row r="138" ht="16.5" customHeight="1" s="13">
-      <c r="A138" s="22" t="n"/>
-      <c r="B138" s="22" t="n"/>
-      <c r="C138" s="22" t="n"/>
+      <c r="A138" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B138" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C138" s="22" t="inlineStr">
+        <is>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+        </is>
+      </c>
       <c r="D138" s="22" t="n"/>
-      <c r="E138" s="22" t="n"/>
+      <c r="E138" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G138" s="22" t="n"/>
-      <c r="H138" s="16" t="n"/>
+      <c r="H138" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+        </is>
+      </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
-      <c r="L138" s="26" t="n"/>
+      <c r="L138" s="26" t="inlineStr">
+        <is>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+        </is>
+      </c>
       <c r="M138" s="26" t="n"/>
       <c r="N138" s="26" t="n"/>
       <c r="O138" s="26" t="n"/>
       <c r="P138" s="26" t="n"/>
     </row>
     <row r="139" ht="16.5" customHeight="1" s="13">
-      <c r="A139" s="22" t="n"/>
-      <c r="B139" s="22" t="n"/>
-      <c r="C139" s="22" t="n"/>
+      <c r="A139" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B139" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C139" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+        </is>
+      </c>
       <c r="D139" s="22" t="n"/>
-      <c r="E139" s="22" t="n"/>
+      <c r="E139" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G139" s="22" t="n"/>
-      <c r="H139" s="16" t="n"/>
+      <c r="H139" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+        </is>
+      </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
-      <c r="L139" s="26" t="n"/>
+      <c r="L139" s="26" t="inlineStr">
+        <is>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+        </is>
+      </c>
       <c r="M139" s="26" t="n"/>
       <c r="N139" s="26" t="n"/>
       <c r="O139" s="26" t="n"/>
       <c r="P139" s="26" t="n"/>
     </row>
     <row r="140" ht="16.5" customHeight="1" s="13">
-      <c r="A140" s="22" t="n"/>
-      <c r="B140" s="22" t="n"/>
-      <c r="C140" s="22" t="n"/>
+      <c r="A140" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B140" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C140" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
+        </is>
+      </c>
       <c r="D140" s="22" t="n"/>
-      <c r="E140" s="22" t="n"/>
+      <c r="E140" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G140" s="22" t="n"/>
-      <c r="H140" s="16" t="n"/>
+      <c r="H140" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
-      <c r="L140" s="26" t="n"/>
+      <c r="L140" s="26" t="inlineStr">
+        <is>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+        </is>
+      </c>
       <c r="M140" s="26" t="n"/>
       <c r="N140" s="26" t="n"/>
       <c r="O140" s="26" t="n"/>
       <c r="P140" s="26" t="n"/>
     </row>
     <row r="141" ht="16.5" customHeight="1" s="13">
-      <c r="A141" s="22" t="n"/>
-      <c r="B141" s="22" t="n"/>
-      <c r="C141" s="22" t="n"/>
+      <c r="A141" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B141" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C141" s="22" t="inlineStr">
+        <is>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+        </is>
+      </c>
       <c r="D141" s="22" t="n"/>
-      <c r="E141" s="22" t="n"/>
+      <c r="E141" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G141" s="22" t="n"/>
-      <c r="H141" s="16" t="n"/>
+      <c r="H141" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+        </is>
+      </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
-      <c r="L141" s="26" t="n"/>
+      <c r="L141" s="26" t="inlineStr">
+        <is>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+        </is>
+      </c>
       <c r="M141" s="26" t="n"/>
       <c r="N141" s="26" t="n"/>
       <c r="O141" s="26" t="n"/>
       <c r="P141" s="26" t="n"/>
     </row>
     <row r="142" ht="16.5" customHeight="1" s="13">
-      <c r="A142" s="22" t="n"/>
-      <c r="B142" s="22" t="n"/>
-      <c r="C142" s="22" t="n"/>
+      <c r="A142" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B142" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C142" s="22" t="inlineStr">
+        <is>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+        </is>
+      </c>
       <c r="D142" s="22" t="n"/>
-      <c r="E142" s="22" t="n"/>
+      <c r="E142" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G142" s="22" t="n"/>
-      <c r="H142" s="16" t="n"/>
+      <c r="H142" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
-      <c r="L142" s="26" t="n"/>
+      <c r="L142" s="26" t="inlineStr">
+        <is>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+        </is>
+      </c>
       <c r="M142" s="26" t="n"/>
       <c r="N142" s="26" t="n"/>
       <c r="O142" s="26" t="n"/>
       <c r="P142" s="26" t="n"/>
     </row>
     <row r="143" ht="16.5" customHeight="1" s="13">
-      <c r="A143" s="22" t="n"/>
-      <c r="B143" s="22" t="n"/>
-      <c r="C143" s="22" t="n"/>
+      <c r="A143" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B143" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C143" s="22" t="inlineStr">
+        <is>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+        </is>
+      </c>
       <c r="D143" s="22" t="n"/>
-      <c r="E143" s="22" t="n"/>
+      <c r="E143" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G143" s="22" t="n"/>
-      <c r="H143" s="16" t="n"/>
+      <c r="H143" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
-      <c r="L143" s="26" t="n"/>
+      <c r="L143" s="26" t="inlineStr">
+        <is>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+        </is>
+      </c>
       <c r="M143" s="26" t="n"/>
       <c r="N143" s="26" t="n"/>
       <c r="O143" s="26" t="n"/>
       <c r="P143" s="26" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1" s="13">
-      <c r="A144" s="22" t="n"/>
-      <c r="B144" s="22" t="n"/>
-      <c r="C144" s="22" t="n"/>
+      <c r="A144" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B144" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C144" s="22" t="inlineStr">
+        <is>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+        </is>
+      </c>
       <c r="D144" s="22" t="n"/>
-      <c r="E144" s="22" t="n"/>
+      <c r="E144" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G144" s="22" t="n"/>
-      <c r="H144" s="16" t="n"/>
+      <c r="H144" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
-      <c r="L144" s="26" t="n"/>
+      <c r="L144" s="26" t="inlineStr">
+        <is>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+        </is>
+      </c>
       <c r="M144" s="26" t="n"/>
       <c r="N144" s="26" t="n"/>
       <c r="O144" s="26" t="n"/>
       <c r="P144" s="26" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1" s="13">
-      <c r="A145" s="22" t="n"/>
-      <c r="B145" s="22" t="n"/>
-      <c r="C145" s="22" t="n"/>
+      <c r="A145" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B145" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C145" s="22" t="inlineStr">
+        <is>
+          <t>Establish an automated process for key and certificate rotation.</t>
+        </is>
+      </c>
       <c r="D145" s="22" t="n"/>
-      <c r="E145" s="22" t="n"/>
+      <c r="E145" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G145" s="22" t="n"/>
-      <c r="H145" s="16" t="n"/>
+      <c r="H145" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
-      <c r="L145" s="26" t="n"/>
+      <c r="L145" s="26" t="inlineStr">
+        <is>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+        </is>
+      </c>
       <c r="M145" s="26" t="n"/>
       <c r="N145" s="26" t="n"/>
       <c r="O145" s="26" t="n"/>
       <c r="P145" s="26" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1" s="13">
-      <c r="A146" s="22" t="n"/>
-      <c r="B146" s="22" t="n"/>
-      <c r="C146" s="22" t="n"/>
+      <c r="A146" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B146" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C146" s="22" t="inlineStr">
+        <is>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+        </is>
+      </c>
       <c r="D146" s="22" t="n"/>
-      <c r="E146" s="22" t="n"/>
+      <c r="E146" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G146" s="22" t="n"/>
-      <c r="H146" s="16" t="n"/>
+      <c r="H146" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
-      <c r="L146" s="26" t="n"/>
+      <c r="L146" s="26" t="inlineStr">
+        <is>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+        </is>
+      </c>
       <c r="M146" s="26" t="n"/>
       <c r="N146" s="26" t="n"/>
       <c r="O146" s="26" t="n"/>
       <c r="P146" s="26" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1" s="13">
-      <c r="A147" s="22" t="n"/>
-      <c r="B147" s="22" t="n"/>
-      <c r="C147" s="22" t="n"/>
+      <c r="A147" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B147" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C147" s="22" t="inlineStr">
+        <is>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+        </is>
+      </c>
       <c r="D147" s="22" t="n"/>
-      <c r="E147" s="22" t="n"/>
+      <c r="E147" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G147" s="22" t="n"/>
-      <c r="H147" s="16" t="n"/>
+      <c r="H147" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+        </is>
+      </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
-      <c r="L147" s="26" t="n"/>
+      <c r="L147" s="26" t="inlineStr">
+        <is>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+        </is>
+      </c>
       <c r="M147" s="26" t="n"/>
       <c r="N147" s="26" t="n"/>
       <c r="O147" s="26" t="n"/>
       <c r="P147" s="26" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1" s="13">
-      <c r="A148" s="22" t="n"/>
-      <c r="B148" s="22" t="n"/>
-      <c r="C148" s="22" t="n"/>
+      <c r="A148" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B148" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C148" s="22" t="inlineStr">
+        <is>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+        </is>
+      </c>
       <c r="D148" s="22" t="n"/>
-      <c r="E148" s="22" t="n"/>
+      <c r="E148" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G148" s="22" t="n"/>
-      <c r="H148" s="16" t="n"/>
+      <c r="H148" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
-      <c r="L148" s="26" t="n"/>
+      <c r="L148" s="26" t="inlineStr">
+        <is>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+        </is>
+      </c>
       <c r="M148" s="26" t="n"/>
       <c r="N148" s="26" t="n"/>
       <c r="O148" s="26" t="n"/>
       <c r="P148" s="26" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1" s="13">
-      <c r="A149" s="22" t="n"/>
-      <c r="B149" s="22" t="n"/>
-      <c r="C149" s="22" t="n"/>
+      <c r="A149" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B149" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C149" s="22" t="inlineStr">
+        <is>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+        </is>
+      </c>
       <c r="D149" s="22" t="n"/>
-      <c r="E149" s="22" t="n"/>
+      <c r="E149" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G149" s="22" t="n"/>
-      <c r="H149" s="16" t="n"/>
+      <c r="H149" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+        </is>
+      </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
-      <c r="L149" s="26" t="n"/>
+      <c r="L149" s="26" t="inlineStr">
+        <is>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+        </is>
+      </c>
       <c r="M149" s="26" t="n"/>
       <c r="N149" s="26" t="n"/>
       <c r="O149" s="26" t="n"/>
       <c r="P149" s="26" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1" s="13">
-      <c r="A150" s="22" t="n"/>
-      <c r="B150" s="22" t="n"/>
-      <c r="C150" s="22" t="n"/>
+      <c r="A150" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B150" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C150" s="22" t="inlineStr">
+        <is>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
+        </is>
+      </c>
       <c r="D150" s="22" t="n"/>
-      <c r="E150" s="22" t="n"/>
+      <c r="E150" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G150" s="22" t="n"/>
-      <c r="H150" s="16" t="n"/>
+      <c r="H150" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
-      <c r="L150" s="26" t="n"/>
+      <c r="L150" s="26" t="inlineStr">
+        <is>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+        </is>
+      </c>
       <c r="M150" s="26" t="n"/>
       <c r="N150" s="26" t="n"/>
       <c r="O150" s="26" t="n"/>
       <c r="P150" s="26" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1" s="13">
-      <c r="A151" s="22" t="n"/>
-      <c r="B151" s="22" t="n"/>
-      <c r="C151" s="22" t="n"/>
+      <c r="A151" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B151" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C151" s="22" t="inlineStr">
+        <is>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+        </is>
+      </c>
       <c r="D151" s="22" t="n"/>
-      <c r="E151" s="22" t="n"/>
+      <c r="E151" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G151" s="22" t="n"/>
-      <c r="H151" s="16" t="n"/>
+      <c r="H151" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
-      <c r="L151" s="26" t="n"/>
+      <c r="L151" s="26" t="inlineStr">
+        <is>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+        </is>
+      </c>
       <c r="M151" s="26" t="n"/>
       <c r="N151" s="26" t="n"/>
       <c r="O151" s="26" t="n"/>
       <c r="P151" s="26" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1" s="13">
-      <c r="A152" s="22" t="n"/>
-      <c r="B152" s="22" t="n"/>
-      <c r="C152" s="22" t="n"/>
+      <c r="A152" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B152" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C152" s="22" t="inlineStr">
+        <is>
+          <t>Leverage Azure Policy</t>
+        </is>
+      </c>
       <c r="D152" s="22" t="n"/>
-      <c r="E152" s="22" t="n"/>
+      <c r="E152" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G152" s="22" t="n"/>
-      <c r="H152" s="16" t="n"/>
+      <c r="H152" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
-      <c r="L152" s="26" t="n"/>
+      <c r="L152" s="26" t="inlineStr">
+        <is>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+        </is>
+      </c>
       <c r="M152" s="26" t="n"/>
       <c r="N152" s="26" t="n"/>
       <c r="O152" s="26" t="n"/>
       <c r="P152" s="26" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1" s="13">
-      <c r="A153" s="22" t="n"/>
-      <c r="B153" s="22" t="n"/>
-      <c r="C153" s="22" t="n"/>
+      <c r="A153" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B153" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C153" s="22" t="inlineStr">
+        <is>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+        </is>
+      </c>
       <c r="D153" s="22" t="n"/>
-      <c r="E153" s="22" t="n"/>
+      <c r="E153" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G153" s="22" t="n"/>
-      <c r="H153" s="16" t="n"/>
+      <c r="H153" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+        </is>
+      </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
-      <c r="L153" s="26" t="n"/>
+      <c r="L153" s="26" t="inlineStr">
+        <is>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+        </is>
+      </c>
       <c r="M153" s="26" t="n"/>
       <c r="N153" s="26" t="n"/>
       <c r="O153" s="26" t="n"/>
       <c r="P153" s="26" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1" s="13">
-      <c r="A154" s="22" t="n"/>
-      <c r="B154" s="22" t="n"/>
-      <c r="C154" s="22" t="n"/>
+      <c r="A154" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B154" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C154" s="22" t="inlineStr">
+        <is>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+        </is>
+      </c>
       <c r="D154" s="22" t="n"/>
-      <c r="E154" s="22" t="n"/>
+      <c r="E154" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G154" s="22" t="n"/>
-      <c r="H154" s="16" t="n"/>
+      <c r="H154" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
-      <c r="L154" s="26" t="n"/>
+      <c r="L154" s="26" t="inlineStr">
+        <is>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+        </is>
+      </c>
       <c r="M154" s="26" t="n"/>
       <c r="N154" s="26" t="n"/>
       <c r="O154" s="26" t="n"/>
       <c r="P154" s="26" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1" s="13">
-      <c r="A155" s="22" t="n"/>
-      <c r="B155" s="22" t="n"/>
-      <c r="C155" s="22" t="n"/>
+      <c r="A155" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B155" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C155" s="22" t="inlineStr">
+        <is>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+        </is>
+      </c>
       <c r="D155" s="22" t="n"/>
-      <c r="E155" s="22" t="n"/>
+      <c r="E155" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G155" s="22" t="n"/>
-      <c r="H155" s="16" t="n"/>
+      <c r="H155" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
-      <c r="L155" s="26" t="n"/>
+      <c r="L155" s="26" t="inlineStr">
+        <is>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+        </is>
+      </c>
       <c r="M155" s="26" t="n"/>
       <c r="N155" s="26" t="n"/>
       <c r="O155" s="26" t="n"/>
       <c r="P155" s="26" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1" s="13">
-      <c r="A156" s="22" t="n"/>
-      <c r="B156" s="22" t="n"/>
-      <c r="C156" s="22" t="n"/>
+      <c r="A156" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B156" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C156" s="22" t="inlineStr">
+        <is>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+        </is>
+      </c>
       <c r="D156" s="22" t="n"/>
-      <c r="E156" s="22" t="n"/>
+      <c r="E156" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G156" s="22" t="n"/>
-      <c r="H156" s="16" t="n"/>
+      <c r="H156" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
-      <c r="L156" s="26" t="n"/>
+      <c r="L156" s="26" t="inlineStr">
+        <is>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+        </is>
+      </c>
       <c r="M156" s="26" t="n"/>
       <c r="N156" s="26" t="n"/>
       <c r="O156" s="26" t="n"/>
       <c r="P156" s="26" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1" s="13">
-      <c r="A157" s="22" t="n"/>
-      <c r="B157" s="22" t="n"/>
-      <c r="C157" s="22" t="n"/>
+      <c r="A157" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B157" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C157" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+        </is>
+      </c>
       <c r="D157" s="22" t="n"/>
-      <c r="E157" s="22" t="n"/>
+      <c r="E157" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G157" s="22" t="n"/>
-      <c r="H157" s="16" t="n"/>
+      <c r="H157" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
-      <c r="L157" s="26" t="n"/>
+      <c r="L157" s="26" t="inlineStr">
+        <is>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
+        </is>
+      </c>
       <c r="M157" s="26" t="n"/>
       <c r="N157" s="26" t="n"/>
       <c r="O157" s="26" t="n"/>
       <c r="P157" s="26" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1" s="13">
-      <c r="A158" s="22" t="n"/>
-      <c r="B158" s="22" t="n"/>
-      <c r="C158" s="22" t="n"/>
+      <c r="A158" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B158" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C158" s="22" t="inlineStr">
+        <is>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
+        </is>
+      </c>
       <c r="D158" s="22" t="n"/>
-      <c r="E158" s="22" t="n"/>
+      <c r="E158" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G158" s="22" t="n"/>
-      <c r="H158" s="16" t="n"/>
+      <c r="H158" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
-      <c r="L158" s="26" t="n"/>
+      <c r="L158" s="26" t="inlineStr">
+        <is>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+        </is>
+      </c>
       <c r="M158" s="26" t="n"/>
       <c r="N158" s="26" t="n"/>
       <c r="O158" s="26" t="n"/>
       <c r="P158" s="26" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1" s="13">
-      <c r="A159" s="22" t="n"/>
-      <c r="B159" s="22" t="n"/>
-      <c r="C159" s="22" t="n"/>
+      <c r="A159" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B159" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C159" s="22" t="inlineStr">
+        <is>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
       <c r="D159" s="22" t="n"/>
-      <c r="E159" s="22" t="n"/>
+      <c r="E159" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G159" s="22" t="n"/>
-      <c r="H159" s="16" t="n"/>
+      <c r="H159" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
-      <c r="L159" s="26" t="n"/>
+      <c r="L159" s="26" t="inlineStr">
+        <is>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+        </is>
+      </c>
       <c r="M159" s="26" t="n"/>
       <c r="N159" s="26" t="n"/>
       <c r="O159" s="26" t="n"/>
       <c r="P159" s="26" t="n"/>
     </row>
     <row r="160" ht="16.5" customHeight="1" s="13">
-      <c r="A160" s="22" t="n"/>
-      <c r="B160" s="22" t="n"/>
-      <c r="C160" s="22" t="n"/>
+      <c r="A160" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B160" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C160" s="22" t="inlineStr">
+        <is>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+        </is>
+      </c>
       <c r="D160" s="22" t="n"/>
-      <c r="E160" s="22" t="n"/>
+      <c r="E160" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G160" s="22" t="n"/>
-      <c r="H160" s="16" t="n"/>
+      <c r="H160" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
-      <c r="L160" s="26" t="n"/>
+      <c r="L160" s="26" t="inlineStr">
+        <is>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+        </is>
+      </c>
       <c r="M160" s="26" t="n"/>
       <c r="N160" s="26" t="n"/>
       <c r="O160" s="26" t="n"/>
       <c r="P160" s="26" t="n"/>
     </row>
     <row r="161" ht="16.5" customHeight="1" s="13">
-      <c r="A161" s="22" t="n"/>
-      <c r="B161" s="22" t="n"/>
-      <c r="C161" s="22" t="n"/>
+      <c r="A161" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B161" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C161" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+        </is>
+      </c>
       <c r="D161" s="22" t="n"/>
-      <c r="E161" s="22" t="n"/>
+      <c r="E161" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G161" s="22" t="n"/>
-      <c r="H161" s="16" t="n"/>
+      <c r="H161" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+        </is>
+      </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
-      <c r="L161" s="26" t="n"/>
+      <c r="L161" s="26" t="inlineStr">
+        <is>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+        </is>
+      </c>
       <c r="M161" s="26" t="n"/>
       <c r="N161" s="26" t="n"/>
       <c r="O161" s="26" t="n"/>
       <c r="P161" s="26" t="n"/>
     </row>
     <row r="162" ht="16.5" customHeight="1" s="13">
-      <c r="A162" s="22" t="n"/>
-      <c r="B162" s="22" t="n"/>
-      <c r="C162" s="22" t="n"/>
+      <c r="A162" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B162" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C162" s="22" t="inlineStr">
+        <is>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
       <c r="D162" s="22" t="n"/>
-      <c r="E162" s="22" t="n"/>
+      <c r="E162" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G162" s="22" t="n"/>
-      <c r="H162" s="16" t="n"/>
+      <c r="H162" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+        </is>
+      </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
-      <c r="L162" s="26" t="n"/>
+      <c r="L162" s="26" t="inlineStr">
+        <is>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+        </is>
+      </c>
       <c r="M162" s="26" t="n"/>
       <c r="N162" s="26" t="n"/>
       <c r="O162" s="26" t="n"/>
       <c r="P162" s="26" t="n"/>
     </row>
     <row r="163" ht="16.5" customHeight="1" s="13">
-      <c r="A163" s="22" t="n"/>
-      <c r="B163" s="22" t="n"/>
-      <c r="C163" s="22" t="n"/>
+      <c r="A163" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B163" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C163" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+        </is>
+      </c>
       <c r="D163" s="22" t="n"/>
-      <c r="E163" s="22" t="n"/>
+      <c r="E163" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G163" s="22" t="n"/>
-      <c r="H163" s="16" t="n"/>
+      <c r="H163" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+        </is>
+      </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
-      <c r="L163" s="26" t="n"/>
+      <c r="L163" s="26" t="inlineStr">
+        <is>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+        </is>
+      </c>
       <c r="M163" s="26" t="n"/>
       <c r="N163" s="26" t="n"/>
       <c r="O163" s="26" t="n"/>
       <c r="P163" s="26" t="n"/>
     </row>
     <row r="164" ht="16.5" customHeight="1" s="13">
-      <c r="A164" s="22" t="n"/>
-      <c r="B164" s="22" t="n"/>
-      <c r="C164" s="22" t="n"/>
+      <c r="A164" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B164" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C164" s="22" t="inlineStr">
+        <is>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+        </is>
+      </c>
       <c r="D164" s="22" t="n"/>
-      <c r="E164" s="22" t="n"/>
+      <c r="E164" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G164" s="22" t="n"/>
-      <c r="H164" s="16" t="n"/>
+      <c r="H164" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
-      <c r="L164" s="26" t="n"/>
+      <c r="L164" s="26" t="inlineStr">
+        <is>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+        </is>
+      </c>
       <c r="M164" s="26" t="n"/>
       <c r="N164" s="26" t="n"/>
       <c r="O164" s="26" t="n"/>
       <c r="P164" s="26" t="n"/>
     </row>
     <row r="165" ht="16.5" customHeight="1" s="13">
-      <c r="A165" s="22" t="n"/>
-      <c r="B165" s="22" t="n"/>
-      <c r="C165" s="22" t="n"/>
+      <c r="A165" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B165" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C165" s="22" t="inlineStr">
+        <is>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+        </is>
+      </c>
       <c r="D165" s="22" t="n"/>
-      <c r="E165" s="22" t="n"/>
+      <c r="E165" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G165" s="22" t="n"/>
-      <c r="H165" s="16" t="n"/>
+      <c r="H165" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
-      <c r="L165" s="26" t="n"/>
+      <c r="L165" s="26" t="inlineStr">
+        <is>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+        </is>
+      </c>
       <c r="M165" s="26" t="n"/>
       <c r="N165" s="26" t="n"/>
       <c r="O165" s="26" t="n"/>
       <c r="P165" s="26" t="n"/>
     </row>
     <row r="166" ht="16.5" customHeight="1" s="13">
-      <c r="A166" s="22" t="n"/>
-      <c r="B166" s="22" t="n"/>
-      <c r="C166" s="22" t="n"/>
+      <c r="A166" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B166" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C166" s="22" t="inlineStr">
+        <is>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D166" s="22" t="n"/>
-      <c r="E166" s="22" t="n"/>
+      <c r="E166" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G166" s="22" t="n"/>
-      <c r="H166" s="16" t="n"/>
+      <c r="H166" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
-      <c r="L166" s="26" t="n"/>
+      <c r="L166" s="26" t="inlineStr">
+        <is>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+        </is>
+      </c>
       <c r="M166" s="26" t="n"/>
       <c r="N166" s="26" t="n"/>
       <c r="O166" s="26" t="n"/>
       <c r="P166" s="26" t="n"/>
     </row>
     <row r="167" ht="16.5" customHeight="1" s="13">
-      <c r="A167" s="22" t="n"/>
-      <c r="B167" s="22" t="n"/>
-      <c r="C167" s="22" t="n"/>
+      <c r="A167" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B167" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C167" s="22" t="inlineStr">
+        <is>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+        </is>
+      </c>
       <c r="D167" s="22" t="n"/>
-      <c r="E167" s="22" t="n"/>
+      <c r="E167" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G167" s="22" t="n"/>
-      <c r="H167" s="16" t="n"/>
+      <c r="H167" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
-      <c r="L167" s="26" t="n"/>
+      <c r="L167" s="26" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M167" s="26" t="n"/>
       <c r="N167" s="26" t="n"/>
       <c r="O167" s="26" t="n"/>
       <c r="P167" s="26" t="n"/>
     </row>
     <row r="168" ht="16.5" customHeight="1" s="13">
-      <c r="A168" s="22" t="n"/>
-      <c r="B168" s="22" t="n"/>
-      <c r="C168" s="22" t="n"/>
+      <c r="A168" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B168" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C168" s="22" t="inlineStr">
+        <is>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+        </is>
+      </c>
       <c r="D168" s="22" t="n"/>
-      <c r="E168" s="22" t="n"/>
+      <c r="E168" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G168" s="22" t="n"/>
-      <c r="H168" s="16" t="n"/>
+      <c r="H168" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
-      <c r="L168" s="26" t="n"/>
+      <c r="L168" s="26" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M168" s="26" t="n"/>
       <c r="N168" s="26" t="n"/>
       <c r="O168" s="26" t="n"/>
       <c r="P168" s="26" t="n"/>
     </row>
     <row r="169" ht="16.5" customHeight="1" s="13">
-      <c r="A169" s="22" t="n"/>
-      <c r="B169" s="22" t="n"/>
-      <c r="C169" s="22" t="n"/>
+      <c r="A169" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B169" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C169" s="22" t="inlineStr">
+        <is>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+        </is>
+      </c>
       <c r="D169" s="22" t="n"/>
-      <c r="E169" s="22" t="n"/>
+      <c r="E169" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G169" s="22" t="n"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
-      <c r="L169" s="26" t="n"/>
+      <c r="L169" s="26" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M169" s="26" t="n"/>
       <c r="N169" s="26" t="n"/>
       <c r="O169" s="26" t="n"/>
       <c r="P169" s="26" t="n"/>
     </row>
     <row r="170" ht="16.5" customHeight="1" s="13">
-      <c r="A170" s="22" t="n"/>
-      <c r="B170" s="22" t="n"/>
-      <c r="C170" s="22" t="n"/>
+      <c r="A170" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B170" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C170" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D170" s="22" t="n"/>
-      <c r="E170" s="22" t="n"/>
+      <c r="E170" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G170" s="22" t="n"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
-      <c r="L170" s="26" t="n"/>
+      <c r="L170" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M170" s="26" t="n"/>
       <c r="N170" s="26" t="n"/>
       <c r="O170" s="26" t="n"/>
       <c r="P170" s="26" t="n"/>
     </row>
     <row r="171" ht="16.5" customHeight="1" s="13">
-      <c r="A171" s="22" t="n"/>
-      <c r="B171" s="22" t="n"/>
-      <c r="C171" s="22" t="n"/>
+      <c r="A171" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B171" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C171" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D171" s="22" t="n"/>
-      <c r="E171" s="22" t="n"/>
+      <c r="E171" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G171" s="22" t="n"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
-      <c r="L171" s="26" t="n"/>
+      <c r="L171" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M171" s="26" t="n"/>
       <c r="N171" s="26" t="n"/>
       <c r="O171" s="26" t="n"/>
@@ -9522,7 +11090,25 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="7">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/avd_checklist.ja.xlsx
+++ b/spreadsheet/avd_checklist.ja.xlsx
@@ -1095,22 +1095,22 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>どの Azure リージョンに AVD ホスト プールを展開するかを決定する</t>
+          <t>AVD を通じて公開されたアプリケーション/デスクトップの予想される高可用性 SLA を決定する</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t>AVDは非リージョンサービスであり、ホストプールはどのリージョンでも作成でき、最も近いフロントエンドからの自動リダイレクトが自動的に行われます。</t>
+          <t>AVD 制御プランでは、返金制度のあるサービス レベル アグリーメントは提供されません。Windows 仮想デスクトップ サービス URL の可用性を 99.9% 以上確保するよう努めています。サブスクリプション内のセッション ホスト仮想マシンの可用性は、仮想マシン SLA の対象となります。グローバルな高可用性要件を適切に満たすには、依存するリソース/サービスとインフラストラクチャの可用性も考慮する必要があります。</t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
@@ -1120,13 +1120,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
+          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
+          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1145,22 +1145,22 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>オンプレミス環境への接続にハイブリッド接続が必要かどうかを判断する</t>
+          <t>AVD ホストプールの geo ディザスタリカバリリージョンの評価</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t>オンプレミス環境に接続する必要がある場合は、現在の接続オプションを評価するか、必要な接続を計画します。</t>
+          <t>アクティブ-アクティブ」モデルは、異なるリージョンにある複数のホスト プールで実現できます。異なるリージョンの VM を含む単一のホスト プールは推奨されません。同じユーザーに対して複数のプールを使用する場合は、ユーザー プロファイルを同期/レプリケートする方法の問題を解決する必要があります。FSLogix Cloud Cache を使用することもできますが、慎重に確認して計画する必要があります。または、同期/レプリケートをまったく行わないことをお客様が決定できます。"アクティブ/パッシブ" は、Azure Site Recovery (ASR) または自動化されたメカニズムを使用したオンデマンド プール デプロイを使用して実現できます。</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
@@ -1170,13 +1170,13 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
+          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1195,38 +1195,38 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>ユーザーの場所と Azure AVD インフラストラクチャの間の待機時間を評価しましたか。</t>
+          <t>重要なアプリケーションを異なる AVD ホストプールに分離</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t>「Windows 仮想デスクトップ エクスペリエンス推定ツール」ツールを実行して、ホスト プールをデプロイするのに最適な Azure リージョンを選択します。待機時間が 150 ミリ秒を超えると、ユーザー エクスペリエンスが最適でない可能性があります。</t>
+          <t>Windows 仮想デスクトップ BCDR の計画と設計に取り組む前に、AVD を介して使用されるアプリケーションを最初に検討することが重要です。重要でないアプリから分離し、異なるディザスター リカバリーのアプローチと機能を備えた別のホスト プールを使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
+          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1245,38 +1245,38 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>AVD サービスのメタデータの場所を決定する</t>
+          <t>AVD ホストプール展開に最適な復元力オプションを計画する</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>AVDは、特定の地理的な場所でサービスを実行するためだけにメタデータを保存し、お客様の要件に基づいて、現在利用可能なもの、および適切かどうかを判断します。</t>
+          <t>?ホスト プール VM に適切な回復性レベルを選択しましたか (可用性セットと可用性ゾーン)??AS または AZ に伴う HA SLA とスケーラビリティの制限への影響を認識していますか? ?現在、可用性セットなしで Windows 仮想デスクトップ ARM テンプレートのデプロイごとに 399 台の VM をデプロイすることも、可用性セットごとに 200 台の VM をデプロイすることもできます。デプロイあたりの VM の数を増やすには、ARM テンプレートまたは Azure portal ホスト プールの登録で可用性セットをオフにします。AZのデプロイが可能になり、現時点では一度に1つのAZで、目的のAZごとにVMの一部を手動で作成する必要があります。</t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
+          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1295,38 +1295,38 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>選択したリージョンの特定の VM サイズに関する Azure クォータと可用性を確認する</t>
+          <t>AVD セッションホストをバックアップする要件を評価する</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t>特定の VM SKU (特に GPU または高スペック SKU が必要な場合) を確認し、最終的には Azure NetApp Files の可用性を確認します。</t>
+          <t>Azure Backup はホスト プール VM を保護するためにも使用できますが、ホスト プール VM をステートレスにする必要がある場合でも、この方法はサポートされます。このオプションは、個人用ホスト プールで検討できます。</t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
+          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1345,38 +1345,38 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>依存 関係</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>選択したリージョンのアベイラビリティーゾーン (AZ) の可用性を確認する</t>
+          <t>ゴールデン イメージのリージョン間の可用性を計画する</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>詳細については、BCDR セクションを参照してください。</t>
+          <t>カスタムイメージを使用して AVD ホストプール VM を展開する場合は、大規模な災害が発生した場合でも、それらのアーティファクトがすべてのリージョンで使用可能であることを確認することが重要です。Azure コンピューティング ギャラリー サービスを使用すると、ホスト プールがデプロイされているすべてのリージョンで、冗長ストレージと複数のコピーでイメージをレプリケートできます。</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1384,7 +1384,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
+          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1395,22 +1395,22 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>依存 関係</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>AVD に接続するユーザーの数と、どのリージョンから接続するかを評価する</t>
+          <t>インフラストラクチャとアプリケーションの依存関係を評価する</t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t>適切な計画と展開を行うには、最大ユーザー数と平均同時セッション数を評価することが重要です。</t>
+          <t>AVD インフラストラクチャのユーザがオンプレミスのリソースアクセスを必要とする場合、接続に必要なネットワークインフラストラクチャの高可用性も重要であり、考慮する必要があります。認証インフラストラクチャの回復性を評価および評価する必要があります。依存アプリケーションやその他のリソースの BCDR の側面は、セカンダリ DR の場所の可用性を確保するために考慮する必要があります。</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
@@ -1420,13 +1420,13 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
+          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1445,22 +1445,22 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>すべてのユーザーが同じアプリケーション・セット、異なるホスト・プール構成、OSイメージ(あるいはその両方)を持つかどうかを判断する</t>
+          <t>プロファイルコンテナとオフィスコンテナ内で保護する必要があるデータを評価します</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t>Mutipleホストプールは、さまざまなユーザーセットをサポートするために必要かもしれませんが、必要な数を見積もることをお勧めします。</t>
+          <t>FSLogix ユーザー プロファイル内のすべてのデータが、障害から保護する必要があるわけではありません。さらに、OneDrive やファイル サーバー/共有などの外部ストレージが使用されている場合、FSLogix プロファイルに残っているものは最小限であり、極端な状況では失われる可能性があります。また、プロファイル内のデータを他のストレージ (キャッシュ モードの Outlook 受信トレイなど) から再構築できる場合もあります。</t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1470,13 +1470,13 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
+          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1495,38 +1495,38 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>各ホストプールの外部依存関係を評価する</t>
+          <t>プロファイルコンテナとオフィスコンテナのバックアップ保護戦略を構築する</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>AVD プールの外部リソース (Active Directory、外部ファイル共有またはその他のストレージ、オンプレミスのサービスとリソース、VPN や Express Route などのネットワーク インフラストラクチャ コンポーネント、外部サービス、サード パーティのコンポーネントなど) に対する依存関係を評価して確認する必要があります。これらすべてのリソースについて、AVD ホスト プールからの待機時間を評価し、接続性を考慮する必要があります。さらに、BCDR に関する考慮事項をこれらの依存関係にも適用する必要があります。</t>
+          <t>重要なユーザーデータのデータ損失を防ぐことは重要であり、最初のステップは、どのデータを保存して保護する必要があるかを評価することです。OneDriveまたはその他の外部ストレージを使用している場合は、ユーザープロファイルやOfficeコンテナのデータを保存する必要がない場合があります。重要なユーザー データを保護するには、適切なメカニズムを検討する必要があります。Azure Backup サービスは、Azure Files Standard レベルと Premium レベルに格納されているときに、プロファイルとオフィス コンテナーのデータを保護するために使用できます。Azure NetApp Files Snapshots と Policies は、Azure NetApp Files (すべての層) に使用できます。</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1545,22 +1545,22 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>使用されているクライアント OS と AVD クライアントの種類を確認する</t>
+          <t>BCDRを目的としたプロファイルコンテナストレージレプリケーションの要件と回復性を評価する</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>各クライアントの制限を確認し、可能な場合は複数のオプションを比較します。</t>
+          <t>AVD では、FSLogix コンテナに存在するユーザーデータに複数のレプリケーションメカニズムと戦略を使用できます。プロファイル パターン #1: ネイティブの Azure ストレージ レプリケーション メカニズム (Azure Files Standard GRS レプリケーション、Azure NetApp Files クロスリージョン レプリケーション、VM ベースのファイル サーバー用の Azure Files Sync など)Azure Files にゾーン レプリケート ストレージ (ZRS) または geo レプリケート ストレージ (GRS) を使用することをお勧めします。ローカルのみの回復性を持つ LRS は、ゾーン/リージョンの保護が必要ない場合に使用できます。注: Azure ファイル共有標準は LRS/ZRS/GRS ですが、100 TB の大容量サポートが有効になっている場合は LRS/ZRS のみがサポートされます。?プロファイル パターン #2: FSLogix Cloud Cache は、異なる (最大 4 つの) ストレージ アカウント間でコンテナーをレプリケートするための自動メカニズムで構築されています。クラウドキャッシュは、次の場合にのみ使用する必要があります。ユーザー プロファイルまたは Office コンテナーのデータ可用性が必要 高可用性 SLA は重要であり、リージョンの障害に対する回復性が必要です。選択したストレージ オプションは、BCDR 要件を満たすことができません。たとえば、Azure ファイル共有 Premium レベル、または大きなファイルのサポートが有効になっている Azure ファイル共有標準では、GRS は使用できません。異種ストレージ間のレプリケーションが必要な場合。プロファイル パターン #3: ユーザー データ/プロファイル コンテナーではなく、アプリケーション データに対してのみ geo ディザスター リカバリーを設定する: 重要なアプリケーション データを、OneDrive や独自の組み込み DR メカニズムを備えたその他の外部ストレージなどの個別のストレージに格納します。</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1570,13 +1570,13 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
+          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1595,38 +1595,38 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>ライセンス要件を確認する</t>
+          <t>Azure ネットアップ ファイルの DR 戦略を確認する</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Windows仮想デスクトップワークロードを実行するための適切なライセンスを取得したお客様は、セッションホスト仮想マシンにWindowsライセンスを適用し、別のライセンスを支払うことなくそれらを実行する資格があります。</t>
+          <t>geo ディザスター リカバリー: Azure NetApp Files は基本的に LRS (ローカルにレプリケートされたストレージ) であるため、リージョン間のレプリケーションが必要な場合は、さらに何かを設計する必要があります。現時点でのクロスリージョンの推奨事項は、別の Azure リージョン(およびネットアップボリューム)にレプリケートするネットアップクラウド同期です。バックアップ:バックアップはスナップショットによって処理されますが、自動ではなく、ポリシーを使用してスケジュールする必要があります。https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots。ここに記載されているように、ボリュームあたりのスナップショットの上限(255)があります:https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits。</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
+          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
+          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1645,38 +1645,38 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>PoC を実行してエンドツーエンドのユーザー エクスペリエンスをテストし、ネットワーク待機時間による影響を検証します。</t>
+          <t>Azure Files DR 戦略を確認する</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t>ユーザーの場所と AVD リージョンの展開によっては、ユーザーのエクスペリエンスが最適でない場合があるため、小規模な PoC 環境でできるだけ早くテストすることが重要です。</t>
+          <t>geo ディザスター リカバリー: Azure Files の GRS は、Standard SKU でのみ使用でき、大規模な共有のサポートはないため、ほとんどのお客様のシナリオには適していません。geo レプリケーションが必要な場合は、Azure ファイル共有プレミアムを使用するときに、FSLogix クラウド キャッシュを使用したレプリケーションを評価するか、"リージョン内" 可用性ゾーン (AZ) のみの回復性を考慮する必要があります。バックアップ: Azure Backup は、すべての SKU で Azure ファイル共有を完全にサポートしており、プロファイル コンテナーを保護するために推奨されるソリューションです。OneDriveまたはその他の外部ストレージを使用している場合は、ユーザープロファイルやOfficeコンテナのデータを保存する必要がない場合があります。</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
+          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1695,38 +1695,38 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>ユーザーがフルデスクトップやリモートアプリケーションを使用してAVDにアクセスするかどうかを判断する</t>
+          <t>アプリケーションを AVD ホストプールに展開する方法を決定する</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t>ユーザーにフルデスクトップやリモートアプリケーショングループを提供するかどうかを決定します。</t>
+          <t>アプリケーションは、ゴールデン イメージにプレインストールすることも、MSIX &amp; AppAttach 機能を使用してアタッチすることも、従来の SW 配布方法を使用してプールのデプロイ後にホストに配布することもできます。</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
+          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1745,38 +1745,38 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>すべてのユーザーが同じ RDP 設定を持ちますか?</t>
+          <t>必要なゴールデン画像の数を見積もる</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>RDP 設定は現在、ホスト プール レベルでのみ構成でき、ユーザー/グループごとでは構成できません。</t>
+          <t>彼らは、単一のイメージ、または異なるアプリケーションが組み込まれた複数のイメージに役立つfslogixアプリケーションマスキングを使用しますか?</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
+          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1795,22 +1795,22 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>管理された内部ネットワークから接続するクライアントの RDP ショートパスを評価する</t>
+          <t>ホスト プールの展開に使用する OS イメージを決定する</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>マネージド ネットワークの RDP ショートパスは、リモート デスクトップ クライアントとセッション ホスト間の直接 UDP ベースのトランスポートを確立する Azure 仮想デスクトップの機能です。余分なリレーを削除すると、ラウンドトリップ時間が短縮され、レイテンシの影響を受けやすいアプリケーションや入力メソッドでのユーザーエクスペリエンスが向上します。RDP ショートパスをサポートするには、Azure 仮想デスクトップ クライアントはセッション ホストへの直接の見通し線を必要とし、Windows 10 または Windows 7 を実行していて、Windows デスクトップ クライアントがインストールされている必要があります。</t>
+          <t>各ホスト プールの展開に使用するゲスト OS を決定します: Windows 10 と Windows Server、マーケットプレースとカスタム イメージ</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -1820,13 +1820,13 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1834,7 +1834,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
+          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1845,38 +1845,38 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>使用するホスト・プール・タイプを決定する</t>
+          <t>カスタム イメージを使用する場合は、自動ビルド プロセスがあるかどうかを判断しますか。</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>共有/プールまたは専用/個人</t>
+          <t>何も存在しない場合は、Azure Image Builder を使用してビルド プロセスを自動化することを検討してください。</t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1884,7 +1884,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8468c55a-775c-46e-a5b8-6ad88844ce3b2</t>
+          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1895,38 +1895,38 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>[個人用ホスト プールの種類] で、割り当ての種類を決定します。</t>
+          <t>カスタム イメージを使用する場合、イメージのライフサイクルを整理および管理する計画はありますか?</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>自動割り当てと直接割り当ての違いがよく理解されており、選択したオプションが問題のシナリオに適していることを確認します。</t>
+          <t>Azure コンピューティング ギャラリーを評価します。</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1934,7 +1934,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
+          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1945,22 +1945,22 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>「プールされたホスト・プール・タイプ」で、ロード・バランシング方式を決定します。</t>
+          <t>カスタムイメージを使用する場合は、マスターイメージの構築方法に関する AVD の推奨ベストプラクティスを確認してください。</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t>使用するオプションと使用可能なオプションを確認し、自動スケールを使用する場合は、幅優先に設定されることに注意してください。</t>
+          <t>ゴールデンイメージのカスタマイズに関するいくつかの既知のベストプラクティスと推奨事項がありますので、参照されている記事を確認してください。</t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
@@ -1970,13 +1970,13 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
+          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1995,38 +1995,38 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>展開するさまざまなホスト・プールの数を見積もる</t>
+          <t>仮想デスクトップ最適化ツールの使用状況を評価する</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>選択基準に基づいて、必要なホスト・プールの数はいくつですか。あなたは複数のものを持つことを検討する必要があります:?複数のOSイメージ?複数の地域?異なるハードウェアが必要ですか?異なるホストプールタイプ(共有と個人)?異なるユーザー要件とSLA(トップユーザー、エグゼクティブ、オフィスワーカー対開発者など)?異なるRDP設定(ホストプールレベルで適用)は、「https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties」を参照してください。ホスト プール内の必要な数の VM が最大機能を超えています</t>
+          <t>このツール セットは、ホワイト ペーパー「仮想デスクトップ インフラストラクチャ (VDI) の役割に対する Windows 10 バージョン 2004 の最適化」で参照されている設定を自動的に適用するために作成されました https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004。ホワイトペーパーに記載されているツールの使用および/または最適化を検討する必要があります。</t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
+          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2045,45 +2045,45 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>ワークロード パフォーマンス テストを実行して、使用する最適な Azure VM SKU とサイズを決定します (プールあたりのホスト数を決定します)。</t>
+          <t>AVD セッションホスト設定管理戦略の計画/評価</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>提供されたリンクを使用して SKU 決定の開始点を設定し、パフォーマンス テストを使用して検証します。セッション・ホストごとに本番用に最低4つのコアが選択されていることを確認します(マルチセッション)</t>
+          <t>初期展開後にホスト プール VM の構成を管理するための構成管理ツールが既に導入されているかどうかを確認します (SCCM、MEM/Intune、GPO、3 番目のパーティのソリューションなど)。</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
+          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
+          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2094,45 +2094,45 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>環境のAVDスケーラビリティ制限の確認</t>
+          <t>Microsoft OneDrive が AVD 展開の一部になるかどうかを判断する</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t>参照記事で報告されたAVD容量と制限を確認することが重要です。</t>
+          <t>提供されている記事を確認し、「既知のフォルダーリダイレクト」と「ファイルオンデマンド」を確認します OneDrive 機能を検討し、最終的に採用する必要があります。</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
+          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2143,22 +2143,22 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>セッションホストがGPUを必要とするかどうかを判断する</t>
+          <t>Microsoft Teams が AVD 展開の一部になるかどうかを判断する</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t>GPUを搭載したホストプールには特別な設定が必要ですので、必ず参照記事を確認してください。</t>
+          <t>この記事を確認し、最新バージョンを使用し、Teams の除外を確認して評価し、プロファイルのサイズを小さくしてください。</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -2168,20 +2168,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
+          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2192,45 +2192,45 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Azure の高速ネットワーク機能を利用できる VM SKU を使用することをお勧めします。</t>
+          <t>プロファイル/Office コンテナーと同じストレージ アカウント/共有を使用しないでください</t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>可能な限り、高速ネットワーク機能を備えた VM SKU を活用することをお勧めします。今日、pnlyのWindows Server OSがサポートされています(記事のリストを参照)、将来のWindowsクライアントOSも含まれるかもしれません。</t>
+          <t>MSIX パッケージを格納するには、個別のストレージ アカウント/共有を使用することを強くお勧めします。必要に応じて、ストレージは個別にスケールアウトでき、プロファイル I/O アクティビティの影響を受けません。Azure には、MISX アプリのアタッチに使用できる複数のストレージ オプションが用意されています。Azure Files または Azure NetApp Files は、コストと管理オーバーヘッドの間で最適な価値を提供するため、これらのオプションを使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
+          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2241,22 +2241,22 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory テナントは、少なくとも 1 つのサブスクリプションがリンクされている状態で利用可能である必要があります。</t>
+          <t>MSIX のパフォーマンスに関する考慮事項を確認する</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>Azure サブスクリプションは、Windows Server Active Directory インスタンスまたは Azure AD DS インスタンスを含む、または接続されている仮想ネットワークを含む、同じ Azure AD テナントの親である必要があります。</t>
+          <t>参照記事では、AVD コンテキストでの MSIX の使用に関するパフォーマンスに関する考慮事項はほとんどありませんが、慎重に確認してください。</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2266,20 +2266,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
+          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2290,38 +2290,38 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Windows Server Active Directory フォレスト/ドメインが Azure Active Directory と同期している</t>
+          <t>MSIX 共有の適切なセッション ホストのアクセス許可を確認する</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>これは、Azure AD Connect (ハイブリッド組織の場合) または Azure AD ドメイン サービス (ハイブリッド組織またはクラウド組織の場合) を使用して構成できます。</t>
+          <t>MSIX アプリのアタッチには、ファイル共有にアクセスするための読み取り専用アクセス許可が必要です。MSIX アプリケーションを Azure Files に格納する場合は、セッション ホストに対して、すべてのセッション ホスト VM に、共有に対するストレージ アカウント ロールベースのアクセス制御 (RBAC) とファイル共有の新技術ファイル システム (NTFS) アクセス許可の両方を割り当てる必要があります。</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
+          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2340,22 +2340,22 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Windows 仮想デスクトップに接続するためのユーザー アカウントの要件を確認する</t>
+          <t>3番目のパーティ製アプリケーション用の MSIX パッケージ</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>(1) ユーザーは、Azure AD に接続されているのと同じ Active Directory から取得する必要があります。Windows Virtual Desktop は、B2B または MSA アカウントをサポートしていません。(2) Windows 仮想デスクトップのサブスクライブに使用する UPN は、VM が参加している Active Directory ドメインに存在する必要があります。</t>
+          <t>3番目のパーティのソフトウェアベンダーは、MIXパッケージを提供する必要があります、それは顧客アプリケーションの所有者からの適切なサポートなしで変換手順を試みることはお勧めしません。</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -2365,13 +2365,13 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2379,7 +2379,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
+          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2390,38 +2390,38 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>作成されるAVDセッションホストのVM要件を確認する</t>
+          <t>MSIX パッケージの自動更新を無効にする</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>VM は、標準ドメインに参加しているか、ハイブリッド AD に参加している必要があります。仮想マシンを Azure AD に参加させることはできません。</t>
+          <t>MSIX アプリのアタッチでは、MSIX アプリケーションの自動更新がサポートされないため、無効にする必要があります。</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>EA962A15-9394-46da-A7CC-3923266B2258</t>
+          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2440,38 +2440,38 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory Domain Services (AAD-DS) を AVD に使用する前に、必ず制限事項を確認してください。</t>
+          <t>オペレーティング システムのサポートを確認する</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>自己管理型の Active Directory Domain Services、Azure Active Directory、およびマネージド Azure Active Directory Domain Services の比較</t>
+          <t>MSIX &amp; App Attach を利用するには、AVD ホスト プールのゲスト OS イメージが Windows 10 Enterprise または Windows 10 Enterprise Multi-session バージョン 2004 以降である必要があります。</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2479,7 +2479,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
+          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2490,22 +2490,22 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>セッション ホスト</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>AVD ホスト プールの近くに Azure VNET 環境に少なくとも 2 つのアクティブ ディレクトリ ドメイン コントローラー (DC) を作成する</t>
+          <t>ホスト プールの展開のための Gen2 VM の使用状況を評価する</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t>Azure の AD DC は、AVD セッション ホストにログインするユーザーの待機時間を短縮し、最終的には Azure NetApp Files と AD 統合の待機時間を短縮することをお勧めします。ADC は、すべての子ドメインの DC と通信できる必要があります。別の方法として、オンプレミス接続を使用して AD DC に到達する必要があります。</t>
+          <t>ホスト プールのデプロイに使用する VM SKU を選択したら、セキュリティを強化し、機能を向上させるために、Gen2 タイプの SKU を使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -2515,13 +2515,13 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2529,7 +2529,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
+          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2540,32 +2540,32 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>各ホスト プールの Active Directory に特定の OU を作成する</t>
+          <t>使用するホスト・プール・タイプの決定</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t>ホスト プールごとに個別の OU を別の OU 階層の下に作成することをお勧めします。これらの OU には、AVD セッション ホストのコンピューター アカウントが含まれます。</t>
+          <t>共有/プールまたは専用/個人</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G37" s="22" t="n"/>
@@ -2579,7 +2579,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2590,22 +2590,22 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>OU に適用され、ホスト プール VM の機能に影響を与えるドメイン GPO を確認する</t>
+          <t>パーソナルホストプールタイプで、割り当てタイプを決定します</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>慎重に確認し、最終的には AVD ホスト プールを含む OU への GPO の継承をブロック/フィルター処理します。</t>
+          <t>自動割り当てと直接割り当ての違いがよく理解されており、選択したオプションが問題のシナリオに適していることを確認します。</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2615,13 +2615,13 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2629,7 +2629,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>7126504b-b47a-4393-a080-327294798b15</t>
+          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2640,22 +2640,22 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>VM をドメインに参加させるアクセス許可のみを持つ専用のユーザー アカウントを作成する</t>
+          <t>プールされたホストプールタイプで、負荷分散方法を決定します</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t>特定のアクセス許可を持つ特定の専用アカウントを持ち、既定の 10 参加制限なしで使用することをお勧めします。</t>
+          <t>使用するものと使用可能なオプションを確認し、自動スケーリングを使用する場合は幅優先に設定されることに注意してください。</t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
@@ -2665,13 +2665,13 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2679,7 +2679,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
+          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2690,38 +2690,38 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>各ホスト プール アプリケーション グループ (DAG または RAG) へのアクセスを許可するユーザー セットごとにドメイン ユーザー グループを作成します。</t>
+          <t>展開するさまざまなホスト プールの数を見積もる</t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t>ユーザーごとにアクセス権を付与するのではなく、AD グループを使用し、Azure AD の ADC を使用してレプリケートします。</t>
+          <t>選択基準に基づいて、必要なホストプールの数はいくつですか。次の場合は、複数のものを持つことを検討する必要があります。複数のOSイメージ?複数の地域?別のハードウェアが必要ですか?異なるホストプールタイプ(共有と個人)?異なるユーザー要件とSLA(トップユーザー、エグゼクティブ、オフィスワーカー対開発者など)?さまざまな RDP 設定 (ホスト プール レベルで適用) については、「https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties」を参照してください。ホスト プール内の必要な数の VM が最大機能を超えています</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2729,7 +2729,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
+          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2740,38 +2740,38 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Azure Files AD 統合で使用されるアカウントの組織のパスワード有効期限ポリシーを確認する</t>
+          <t>ワークロード パフォーマンス テストを実行して、使用する最適な Azure VM SKU とサイズを決定します (プールあたりのホスト数を決定します)</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>Azure ファイル共有と Active Directory 認証を統合する手順の一部として、ストレージ アカウント (ファイル共有) を表す AD アカウントが作成されます。コンピューター アカウントまたはサービス ログオン アカウントとして登録することを選択できます。詳細については、「FAQ」を参照してください。コンピューター アカウントの場合、AD で 30 日に設定された既定のパスワード有効期限があります。同様に、サービス ログオン アカウントには、AD ドメインまたは組織単位 (OU) で既定のパスワードの有効期限が設定されている場合があります。どちらのアカウントの種類でも、AD 環境で構成されているパスワードの有効期限を確認し、パスワードの最大有効期間に達する前に、AD アカウントのストレージ アカウント ID のパスワードを更新することを計画することをお勧めします。AD に新しい AD 組織単位 (OU) を作成し、それに応じてコンピューター アカウントまたはサービス ログオン アカウントのパスワード有効期限ポリシーを無効にすることを検討できます。</t>
+          <t>提供されているリンクを使用して SKU 決定の開始点を設定し、パフォーマンス テストを使用して検証します。セッション ホストごとに少なくとも 4 つのコアが本番用に選択されていることを確認します (マルチセッション)</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2779,7 +2779,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
+          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2790,38 +2790,38 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>オンプレミス環境のハイブリッド接続アーキテクチャの確認</t>
+          <t>環境の AVD スケーラビリティの制限を確認する</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド接続の種類エクスプレスルート、VPN、NVAは?</t>
+          <t>参照記事で報告されているAVDの容量と制限を確認することが重要です。</t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2829,7 +2829,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
+          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2840,22 +2840,22 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>ユーザーが AVD ホスト プールからオンプレミスにアクセスする必要があるリソースを評価する</t>
+          <t>セッション ホストに GPU が必要かどうかを判断する</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>帯域幅の要件を評価し、VPN/ER 帯域幅が十分であり、待機時間が許容可能であることを確認します。</t>
+          <t>GPU を搭載したホスト プールには特別な構成が必要ですので、参照先の記事を必ず確認してください。</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
@@ -2865,13 +2865,13 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2879,7 +2879,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
+          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2890,38 +2890,38 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>AVD サービスのランディング ゾーン ネットワーク トポロジを確認する</t>
+          <t>Azure の高速ネットワーク機能を利用できる VM SKU を使用することをお勧めします。</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>CAF に基づく AVD ホスト プールを配置する新しいプールを確認または推奨します (vWAN vs. Hub &amp; Spoke)</t>
+          <t>可能な限り、高速ネットワーク機能を備えた VM SKU を活用することをお勧めします。現在、Windows Server OSがサポートされており(記事のリストを参照)、将来的にはWindowsクライアントOSも含まれる可能性があります。</t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2929,7 +2929,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
+          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2940,22 +2940,22 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>複数のホスト・プールのVNETとサブネットの配置を評価する</t>
+          <t>AVD に接続するユーザーの数と、どのリージョンから接続するかを評価する</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t>各サブネットに、AVD ホスト プールをスケーリングするのに十分な領域があることを確認します。ホストプールごとに、可能であれば別々のサブネットを使用することをお勧めします。</t>
+          <t>適切な計画と展開を行うには、最大ユーザー数と平均同時セッション数を評価することが重要です。</t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
@@ -2965,20 +2965,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
+          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2989,22 +2989,22 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>AVDホストのインターネットアウトバウンドトラフィックを制御/制限する必要がありますか?</t>
+          <t>すべてのユーザーが同じアプリケーション・セットを持つか、異なるホスト・プール構成やOSイメージを使用するかを決定する</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>いくつかのオプションが利用可能です。Azure ファイアウォールまたは NVA ファイアウォール、NSG および/またはプロキシを使用できます。NSG は URL によってのみ有効/無効にすることはできません。ただし、ポートとプロトコルのみです。プロキシは、ユーザーブラウザの明示的な設定としてのみ使用してください。AVD で Azure Firewall Premium を使用する方法の詳細については、https://aka.ms/AVDfirewall と https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop を参照してください。AVD URL アクセスの要件の完全なリストを必ず確認してください。</t>
+          <t>複数のホストプールは、さまざまなユーザーセットをサポートするために必要になる可能性があるため、必要な数を見積もることをお勧めします。</t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
@@ -3014,13 +3014,13 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://aka.ms/AVDfirewall</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
+          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3039,38 +3039,38 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>AVDホスト上のユーザーに対してのみインターネット送信トラフィックを制御/制限する必要がありますか?</t>
+          <t>各ホスト プールの外部依存関係を評価する</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender エンドポイントを使用してユーザーの Web ナビゲーションを制御する方法を検討してください。詳細については、「セキュリティ」セクションを参照してください。</t>
+          <t>AVD プールの外部のリソース(Active Directory、外部ファイル共有またはその他のストレージ、オンプレミスのサービスとリソース、VPN や Express Route などのネットワーク インフラストラクチャ コンポーネント、外部サービス、サードパーティ コンポーネントなど)への依存関係を評価および確認する必要があります。これらすべてのリソースについて、AVD ホストプールからの遅延を評価し、接続を考慮する必要があります。さらに、BCDR に関する考慮事項をこれらの依存関係にも適用する必要があります。</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -3078,7 +3078,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
+          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3089,45 +3089,45 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>UDR で AVD ホスト プール サブネットを確認する</t>
+          <t>使用されているクライアント OS と AVD クライアントタイプを確認する</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t>カスタム UDR は、AVD ホスト プール サブネットに適用できます (たとえば、Azure ファイアウォールまたは NVA にリダイレクトする場合など)。この場合、AVD コントロール プレーンへのアウトバウンド トラフィックの最適なパスが使用されていることを確認するために、慎重に確認することをお勧めします。サービス タグを UDR で使用できるようになりました。これにより、AVD 管理プレーンのトラフィックを簡単にホワイトリストに登録できます。https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop</t>
+          <t>各クライアントの制限事項を確認し、可能な場合は複数のオプションを比較します。</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
+          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3138,45 +3138,45 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>AVDコントロールプレーンエンドポイントがアクセス可能であることを確認する</t>
+          <t>ライセンス要件を確認する</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>セッション ホストによる AVD コントロール プレーン アクセスに必要な URL については、https://docs.microsoft.com/azure/virtual-desktop/safe-url-list を参照してください。チェックツールは、セッションホストからの接続を確認するために使用できます:https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool。</t>
+          <t>Windows Virtual Desktop ワークロードを実行するための適切なライセンスを持つお客様は、セッション ホスト仮想マシンに Windows ライセンスを適用し、別のライセンスを支払うことなく実行できます。</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
+          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
+          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3187,38 +3187,38 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>各ユーザーに必要なネットワーク帯域幅と、VM SKU の合計を確認します。</t>
+          <t>PoC を実行してエンドツーエンドのユーザー エクスペリエンスをテストし、ネットワーク遅延による影響を検証する</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t>特定のワークロードの種類に基づいて、ユーザーのネットワーク帯域幅の要件を評価および確認することをお勧めします。参照先の記事は一般的な見積もりと推奨事項を提供しますが、適切なサイズ設定を行うには特定の手段が必要です。</t>
+          <t>ユーザーの場所と AVD リージョンの展開によっては、ユーザーのエクスペリエンスが最適でない場合があるため、小規模な PoC 環境でできるだけ早くテストすることが重要です。</t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3226,7 +3226,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
+          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3237,38 +3237,38 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>セッションホスト</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>ホスト プール展開のための Gen2 VM の使用状況を評価する</t>
+          <t>ユーザーがフルデスクトップやリモートアプリケーションを使用して AVD にアクセスするかどうかを決定する</t>
         </is>
       </c>
       <c r="D51" s="22" t="inlineStr">
         <is>
-          <t>ホスト プールの展開に使用する VM SKU を選択したら、セキュリティの強化と機能強化のために Gen2 タイプの SKU を使用することをお勧めします。</t>
+          <t>ユーザーにフルデスクトップまたはリモートアプリケーショングループを提供するかどうかを決定します。</t>
         </is>
       </c>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3276,7 +3276,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
+          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3287,38 +3287,38 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>AVD ホスト プールへのアプリケーションの展開方法を決定する</t>
+          <t>すべてのユーザーの RDP 設定は同じですか?</t>
         </is>
       </c>
       <c r="D52" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションは、ゴールデンイメージにプレインストールすることも、MSIX &amp; AppAttach 機能を使用してアタッチすることも、従来の SW 配布方法を使用してプールの展開後にホストに配布することもできます。</t>
+          <t>RDP 設定は、現在、ユーザー/グループごとではなく、ホスト プール レベルでのみ構成できます。</t>
         </is>
       </c>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3326,7 +3326,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
+          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3337,22 +3337,22 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>必要なゴールデン画像の数を見積もる</t>
+          <t>管理された内部ネットワークから接続するクライアントの RDP ShortPath を評価する</t>
         </is>
       </c>
       <c r="D53" s="22" t="inlineStr">
         <is>
-          <t>彼らは単一のイメージに役立つfslogixアプリケーションマスキングを使用するのか、それとも異なるアプリケーションがベイクインされた複数のイメージを使用するのか:複数のイメージを使用する必要があるのは何か?</t>
+          <t>マネージド ネットワークの RDP ショートパスは、リモート デスクトップ クライアントとセッション ホスト間の直接 UDP ベースのトランスポートを確立する Azure 仮想デスクトップの機能です。余分なリレーを削除すると、ラウンドトリップ時間が短縮され、遅延の影響を受けやすいアプリケーションや入力方式のユーザーエクスペリエンスが向上します。RDP ショートパスをサポートするには、Azure 仮想デスクトップ クライアントがセッション ホストへの直接の通信経路を必要とし、Windows 10 または Windows 7 のいずれかを実行し、Windows デスクトップ クライアントがインストールされている必要があります。</t>
         </is>
       </c>
       <c r="E53" s="22" t="inlineStr">
@@ -3362,20 +3362,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
+          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3386,38 +3386,38 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>ホスト プールの展開に使用する OS イメージを決定する</t>
+          <t>どの Azure リージョンにデプロイされるかを決定します。</t>
         </is>
       </c>
       <c r="D54" s="22" t="inlineStr">
         <is>
-          <t>各ホスト プールの展開に使用するゲスト OS を決定します (Windows 10 と Windows Server、マーケットプレースとカスタム イメージ)。</t>
+          <t>AVDは非地域サービスであり、ホストプールは任意のリージョンで作成でき、最も近いフロントエンドからの自動リダイレクトが自動的に行われます。</t>
         </is>
       </c>
       <c r="E54" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3425,7 +3425,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
+          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3436,45 +3436,45 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>カスタム イメージを使用する場合は、自動ビルド プロセスがあるかどうかを判断しますか。</t>
+          <t>オンプレミス環境への接続にハイブリッド接続が必要かどうかを判断する</t>
         </is>
       </c>
       <c r="D55" s="22" t="inlineStr">
         <is>
-          <t>何も存在しない場合は、Azure Image Builder を使用してビルド プロセスを自動化することを検討してください。</t>
+          <t>オンプレミス環境に接続する必要がある場合は、現在の接続オプションを評価するか、必要な接続を計画します。</t>
         </is>
       </c>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
+          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3485,45 +3485,45 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>カスタム イメージを使用する場合、イメージのライフサイクルを整理および管理する計画はありますか。</t>
+          <t>ユーザーの場所と Azure AVD インフラストラクチャの間の待機時間を評価しましたか?</t>
         </is>
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Azure コンピューティング ギャラリーを評価します。</t>
+          <t>"Windows 仮想デスクトップ エクスペリエンス推定ツール" ツールを実行して、ホスト プールをデプロイするのに最適な Azure リージョンを選択します。150 ミリ秒を超える待機時間を超えると、ユーザー エクスペリエンスが最適でなくなる可能性があります。</t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
+          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3534,22 +3534,22 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>カスタムイメージを使用する場合は、マスターイメージの構築方法に関するAVDの推奨ベストプラクティスを確認してください。</t>
+          <t>AVD サービスのメタデータの場所を決定する</t>
         </is>
       </c>
       <c r="D57" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージのカスタマイズに関する既知のベストプラクティスと推奨事項がいくつかありますので、参照されている記事を必ず確認してください。</t>
+          <t>AVD は、特定の地理的な場所でサービスを実行するためにのみメタデータを保存し、顧客の要件に基づいて、現在利用可能なものと適切なものを決定します。</t>
         </is>
       </c>
       <c r="E57" s="22" t="inlineStr">
@@ -3559,20 +3559,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
+          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3583,45 +3583,45 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>仮想デスクトップ最適化ツールの使用状況を評価する</t>
+          <t>選択したリージョンの特定の VM サイズの Azure クォータと可用性を確認する</t>
         </is>
       </c>
       <c r="D58" s="22" t="inlineStr">
         <is>
-          <t>このツールセットは、ホワイトペーパー「仮想デスクトップインフラストラクチャ (VDI) ロール用の Windows 10 バージョン 2004 の最適化」で参照されている設定を自動的に適用するために作成されまし https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004。ホワイトペーパーに記載されているツールの使用および/または最適化を考慮する必要があります。</t>
+          <t>特定の VM SKU を確認し (特に GPU またはハイスペックの SKU が必要な場合は)、最終的には Azure NetApp Files の可用性 (使用されている場合) を確認します。</t>
         </is>
       </c>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
+          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3632,45 +3632,45 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>AVDセッション・ホスト構成管理戦略の計画/評価</t>
+          <t>選択したリージョンのアベイラビリティーゾーン (AZ) の可用性を確認する</t>
         </is>
       </c>
       <c r="D59" s="22" t="inlineStr">
         <is>
-          <t>初期展開後にホスト プール VM 構成を管理するための構成管理ツール (SCCM、MEM/Intune、GPO、サード パーティ製ソリューションなど) が既に用意されているかどうかを確認します。</t>
+          <t>詳細については、「BCDR 」セクションを参照してください。</t>
         </is>
       </c>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
+          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3681,22 +3681,22 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Microsoft OneDrive が AVD 展開の一部になるかどうかを判断する</t>
+          <t>AVD ホスト プールに近い Azure VNET 環境に少なくとも 2 つのアクティブ ディレクトリ ドメイン コントローラー (DC) を作成します。</t>
         </is>
       </c>
       <c r="D60" s="22" t="inlineStr">
         <is>
-          <t>提供された記事を確認し、「既知のフォルダリダイレクト」と「ファイルオンデマンド」OneDriveの機能を検討し、最終的に採用する必要があります。</t>
+          <t>Azure の AD DC は、AVD セッションホストにログインするユーザーのレイテンシーを短縮し、最終的には Azure NetApp Files と AD 統合のレイテンシーを削減するために推奨されます。ADCは、すべての子ドメインのDCと通信できる必要があります。別の方法として、オンプレミス接続を使用して AD DC に到達する必要があります。</t>
         </is>
       </c>
       <c r="E60" s="22" t="inlineStr">
@@ -3706,20 +3706,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
+          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
+          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3730,45 +3730,45 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Microsoft TeamsがAVD展開の一部になるかどうかを判断する</t>
+          <t>ホスト プールごとにアクティブ ディレクトリに特定の OU を作成する</t>
         </is>
       </c>
       <c r="D61" s="22" t="inlineStr">
         <is>
-          <t>この記事を確認し、最新バージョンを使用し、Teams の除外を確認して評価し、プロファイルのサイズを縮小してください。</t>
+          <t>別の OU 階層の下にホスト プールごとに個別の OU を作成することをお勧めします。これらの OU には、AVD セッションホストのマシンアカウントが含まれます。</t>
         </is>
       </c>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3779,45 +3779,45 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>プロファイル/Office コンテナーと同じストレージ アカウント/共有を使用しないでください。</t>
+          <t>OU に適用され、ホスト プール VM の機能に影響を与えるドメイン GPO を確認する</t>
         </is>
       </c>
       <c r="D62" s="22" t="inlineStr">
         <is>
-          <t>MSIX パッケージを格納するために、個別のストレージ アカウント/共有を使用することを強くお勧めします。必要に応じて、ストレージは独立してスケールアウトでき、プロファイルI/Oアクティビティの影響を受けません。Azure には、MISX アプリの接続に使用できる複数のストレージ オプションが用意されています。Azure Files または Azure NetApp Files は、コストと管理のオーバーヘッドの間で最適な価値を提供するため、これらのオプションを使用することをお勧めします。</t>
+          <t>慎重に確認し、最終的に AVD ホストプールを含む OU への GPO の継承をブロック/フィルタリングします。</t>
         </is>
       </c>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
+          <t>7126504b-b47a-4393-a080-327294798b15</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3828,38 +3828,38 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>MSIX のパフォーマンスに関する考慮事項の確認</t>
+          <t>VM をドメインに参加させるためのアクセス許可のみを持つ専用ユーザー アカウントを作成する</t>
         </is>
       </c>
       <c r="D63" s="22" t="inlineStr">
         <is>
-          <t>参照された記事では、AVDコンテキストでのMSIXの使用に関する重要なパフォーマンス上の考慮事項はほとんど報告されていませんが、慎重に確認してください。</t>
+          <t>特定のアクセス許可を持つ特定の専用アカウントを持ち、既定の 10 回の参加制限がないことをお勧めします。</t>
         </is>
       </c>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3867,7 +3867,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
+          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3878,22 +3878,22 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>MSIX 共有の適切なセッション ホストのアクセス許可を確認する</t>
+          <t>各ホスト プール アプリケーション グループ (DAG または RAG) へのアクセスが許可されるユーザーのセットごとにドメイン ユーザー グループを作成します。</t>
         </is>
       </c>
       <c r="D64" s="22" t="inlineStr">
         <is>
-          <t>MSIX アプリの添付には、ファイル共有にアクセスするための読み取り専用のアクセス許可が必要です。MSIX アプリケーションを Azure Files に格納している場合は、セッション ホストに対して、すべてのセッション ホスト VM に、ストレージ アカウントの役割ベースのアクセス制御 (RBAC) とファイル共有の新しいテクノロジ ファイル システム (NTFS) の両方のアクセス許可を共有に割り当てる必要があります。</t>
+          <t>ユーザーごとにアクセスを許可するのではなく、AD グループを使用し、Azure AD の ADC を使用してレプリケートします。</t>
         </is>
       </c>
       <c r="E64" s="22" t="inlineStr">
@@ -3903,13 +3903,13 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3917,7 +3917,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
+          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3928,38 +3928,38 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>サードパーティ製アプリケーション用の MSIX パッケージ</t>
+          <t>Azure Files AD 統合で使用されるアカウントの組織のパスワード有効期限ポリシーを確認する</t>
         </is>
       </c>
       <c r="D65" s="22" t="inlineStr">
         <is>
-          <t>サードパーティのソフトウェアベンダーはMSIXパッケージを提供する必要がありますが、アプリケーション所有者からの適切なサポートなしに変換手順を試みることはお勧めしません。</t>
+          <t>Azure ファイル共有と Active Directory 認証を統合する手順の一環として、ストレージ アカウント (ファイル共有) を表す AD アカウントが作成されます。コンピューター アカウントまたはサービス ログオン アカウントとして登録することを選択できます (詳細については、FAQ を参照してください)。コンピューター アカウントの場合、AD には既定のパスワードの有効期限が 30 日に設定されています。同様に、サービス ログオン アカウントには、AD ドメインまたは組織単位 (OU) に既定のパスワード有効期限が設定されている場合があります。どちらのアカウントの種類でも、AD 環境で構成されているパスワードの有効期限を確認し、パスワードの最大有効期間の前に AD アカウントのストレージ アカウント ID のパスワードを更新することを計画することをお勧めします。AD に新しい AD 組織単位 (OU) を作成し、それに応じてコンピューター アカウントまたはサービス ログオン アカウントのパスワード有効期限ポリシーを無効にすることを検討できます。</t>
         </is>
       </c>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3967,7 +3967,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
+          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3978,45 +3978,45 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>MSIX パッケージの自動更新を無効にする</t>
+          <t>Azure Active Directory テナントは、少なくとも 1 つのサブスクリプションがリンクされている状態で使用可能である必要があります</t>
         </is>
       </c>
       <c r="D66" s="22" t="inlineStr">
         <is>
-          <t>MSIX アプリ接続は MSIX アプリケーションの自動更新をサポートしていないため、無効にする必要があります。</t>
+          <t>Azure サブスクリプションは、Windows Server Active Directory または Azure AD DS インスタンスを含む、または Azure AD DS インスタンスに接続されている仮想ネットワークを含む、同じ Azure AD テナントの親である必要があります。</t>
         </is>
       </c>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -4027,38 +4027,38 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>オペレーティング・システムのサポートの確認</t>
+          <t>Windows Server Active Directory フォレスト/ドメインが Azure Active Directory と同期している</t>
         </is>
       </c>
       <c r="D67" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; App Attach を活用するには、AVD ホスト プールのゲスト OS イメージが Windows 10 Enterprise または Windows 10 Enterprise マルチセッション バージョン 2004 以降である必要があります。</t>
+          <t>これは、Azure AD Connect (ハイブリッド組織の場合) または Azure AD ドメイン サービス (ハイブリッド組織またはクラウド組織の場合) を使用して構成できます。</t>
         </is>
       </c>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -4066,7 +4066,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
+          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4077,22 +4077,22 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>セッションホスト</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>セッション・ホストに使用する管理対象ディスクのタイプを決定する</t>
+          <t>Windows 仮想デスクトップに接続するためのユーザー アカウント要件を確認する</t>
         </is>
       </c>
       <c r="D68" s="22" t="inlineStr">
         <is>
-          <t>標準HDD、標準SSD、またはプレミアムSSD、エフェメラルディスクはサポートされていません、ウルトラディスクは推奨されません。ユーザー密度が低くない場合、およびクラウドキャッシュを使用する場合は、OSディスクのプレミアムを評価することをお勧めします。</t>
+          <t>(1) ユーザーは、Azure AD に接続されているのと同じ Active Directory から取得する必要があります。 Windows 仮想デスクトップは、B2B または MSA アカウントをサポートしていません。(2) Windows 仮想デスクトップのサブスクライブに使用する UPN は、VM が参加しているアクティブ ディレクトリ ドメインに存在する必要があります。</t>
         </is>
       </c>
       <c r="E68" s="22" t="inlineStr">
@@ -4102,13 +4102,13 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4127,38 +4127,38 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>FSLogixプロファイルとOfficeコンテナに使用するストレージバックエンドソリューションを決定する</t>
+          <t>作成される AVD セッションホストの VM 要件を確認する</t>
         </is>
       </c>
       <c r="D69" s="22" t="inlineStr">
         <is>
-          <t>Azure NetApp Files, Azure Files, VM based File Server.ファイルサーバーは推奨されません。Azure Files Premium は、通常、出発点として適しています。NetAppは通常、大規模/高パフォーマンスの環境にのみ必要です。</t>
+          <t>VM は、Standard ドメイン参加済みまたはハイブリッド AD 参加済みである必要があります。仮想マシンを Azure AD に参加させることはできません。</t>
         </is>
       </c>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -4166,7 +4166,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4177,22 +4177,22 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>プロファイル コンテナーを Office コンテナーから分離する可能性を評価する</t>
+          <t>AVD に Azure Active Directory ドメイン サービス (AAD-DS) を使用する前に、制限事項を確認してください。</t>
         </is>
       </c>
       <c r="D70" s="22" t="inlineStr">
         <is>
-          <t>Windows 仮想デスクトップでは、以下の「障害復旧」セクションで説明するように、特定のビジネス継続性と障害復旧 (BCDR) シナリオを計画していない限り、Office コンテナーなしでプロファイル コンテナーを使用することをお勧めします。https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>セルフマネージド Active Directory Domain Services、Azure Active Directory、および管理された Azure Active Directory Domain Services の比較</t>
         </is>
       </c>
       <c r="E70" s="22" t="inlineStr">
@@ -4202,13 +4202,13 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4216,7 +4216,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4227,38 +4227,38 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>ホスト・プール要件をサポートするためのストレージの拡張性の制限を確認</t>
+          <t>ホスト プールの自動スケーリング機能の要件を評価する</t>
         </is>
       </c>
       <c r="D71" s="22" t="inlineStr">
         <is>
-          <t>プロファイル コンテナーのストレージ パフォーマンス要件を見積もるための出発点として、定常状態ではユーザーあたり 10 IOPS、サインイン/サインアウト中はユーザーあたり 50 IOPS を想定することをお勧めします。</t>
+          <t>スケーリング ツールは、セッション ホスト VM のコストを最適化したいお客様向けに、低コストの自動化オプションを提供します。スケーリング ツールを使用して、ピーク時とオフピーク時の営業時間に基づいて VM を起動および停止するようにスケジュールしたり、CPU コアあたりのセッション数に基づいて VM をスケールアウトしたり、オフピーク時に VM をスケールインしたりして、セッション ホスト VM の最小数を実行したままにすることができます。パーソナルホストプールタイプではまだ使用できないため、ホストプールごとに個別に設定することをお勧めします。</t>
         </is>
       </c>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4266,7 +4266,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4277,38 +4277,38 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>NetApp ファイル ストレージを使用している場合は、特定のリージョンのストレージ サービスの可用性を確認します。</t>
+          <t>AVD に関する Azure アドバイザーの推奨事項を定期的に確認する</t>
         </is>
       </c>
       <c r="D72" s="22" t="inlineStr">
         <is>
-          <t>DRの目的で2番目のリージョンが必要な場合は、NetAppの可用性も確認します。</t>
+          <t>Azure Advisor は、構成とテレメトリを分析して、一般的な問題を解決するためのパーソナライズされた推奨事項を提供します。これらの推奨事項を使用すると、信頼性、セキュリティ、オペレーショナル エクセレンス、パフォーマンス、コストに関して Azure リソースを最適化できます。</t>
         </is>
       </c>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4316,7 +4316,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4327,38 +4327,38 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>最適なパフォーマンスを得るには、ストレージ ソリューションと FSLogix プロファイル コンテナーを同じデータ センターの場所に配置する必要があります。</t>
+          <t>ゴールデンイメージ更新管理戦略を計画する</t>
         </is>
       </c>
       <c r="D73" s="22" t="inlineStr">
         <is>
-          <t>可能な限り、リージョン間のネットワーク トラフィックに関連する追加の待機時間とコストの発生を避けます。</t>
+          <t>ゴールデン イメージの更新を管理するための戦略を準備します (たとえば、セキュリティ修正プログラムの適用やイメージ内にインストールされているアプリケーションの更新など)。Azure Image Builder Service は、VM のビルドとカスタマイズを自動化するためのファースト パーティのソリューションです。ARM テンプレートを使用して新しいホストを作成し、古いホストを使用停止にすることができます。 https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool 推奨されるアプローチは、新しいプールをサイド バイ サイドで作成し、ロールバックしやすく、専用プールに使用できない ARM テンプレートを使用して VM を再デプロイして数を増やすことも実行可能なオプションです。お客様は、既存のソフトウェア配布方法を使用して、SCCM などで検討するために、再展開せずにイメージを更新することもできます。</t>
         </is>
       </c>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4366,7 +4366,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4377,22 +4377,22 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>FSLogix の推奨ウイルス対策除外を構成します (接続時に VHD(x) ファイルをスキャンしないことを含みます)。</t>
+          <t>セッションホストのパッチ適用と更新戦略を計画する</t>
         </is>
       </c>
       <c r="D74" s="22" t="inlineStr">
         <is>
-          <t>参照記事に記載されているように、FSLogixプロファイルコンテナ仮想ハードドライブに対して次のウイルス対策除外を設定してください。</t>
+          <t>お客様にはいくつかのオプションがあります。- Microsoft エンドポイント構成マネージャー、この記事では、Windows 10 エンタープライズ マルチセッションを実行している Windows 仮想デスクトップ ホストに更新プログラムを自動的に適用するように Microsoft エンドポイント構成マネージャーを構成する方法について説明します。 https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- マイクロソフト Intune : https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)- OS をサポートする第三者 - Azure Update Management (Azure Automation)、現在はクライアント OS ではサポートされていません: https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt は、パッチ適用戦略から離れ、可能であれば再イメージ化戦略に移行することをお勧めします。</t>
         </is>
       </c>
       <c r="E74" s="22" t="inlineStr">
@@ -4402,13 +4402,13 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4416,7 +4416,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4427,38 +4427,38 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>FSLogix レジストリ キーを確認し、適用するレジストリ キーを決定します。</t>
+          <t>AVD テストカナリア環境の要件を評価する</t>
         </is>
       </c>
       <c r="D75" s="22" t="inlineStr">
         <is>
-          <t>デフォルトの基本設定と推奨設定はこちらです: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises 基本セットについてはこちらを参照してください: 完全な参照についてはこちらを https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee してください: https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>ホスト プールは、Windows 仮想デスクトップ環境内の 1 つ以上の同一の仮想マシンのコレクションです。サービス更新プログラムが最初に適用される検証ホスト プールを作成することを強くお勧めします。これにより、サービスの更新を標準環境または非検証環境に適用する前に監視できます。</t>
         </is>
       </c>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4466,7 +4466,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4477,38 +4477,38 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>同じプロファイルへの同時接続または複数接続の使用状況の確認</t>
+          <t>ホスト プールの展開戦略を決定する</t>
         </is>
       </c>
       <c r="D76" s="22" t="inlineStr">
         <is>
-          <t>同時接続または複数接続は、Windows 仮想デスクトップでは推奨されません。ベスト プラクティスは、セッションごとに異なるプロファイルの場所を (ホスト プールとして) 作成することです。</t>
+          <t>AVD ホスト プールは、Azure ポータル、ARM テンプレート、Azure CLI ツール、Powershell、登録トークンを使用した手動 VM 作成、Terraform など、いくつかの方法でデプロイできます。自動化および CI/CD ツールによる自動デプロイをサポートするために、適切な方法を採用することが重要です。</t>
         </is>
       </c>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4516,7 +4516,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4527,38 +4527,38 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>ストレージ・サイジングに関するベスト・プラクティスと主な考慮事項を確認する</t>
+          <t>トークンの更新のために 90 日ごとに VM を定期的にオンにする</t>
         </is>
       </c>
       <c r="D77" s="22" t="inlineStr">
         <is>
-          <t>テスト環境で検証するには、ワークロードに応じて、各ユーザーに対して 5 ~ 15 IOPS を最初に考慮する必要があります。Azure ファイル: 1 株あたり最大 100,000 IOPS (最大 100 TB)、3 ミリ秒の待機時間で最大 5 Gbps のプレミアム。Azure Files のプロビジョニング方法、つまり IOPS がプロビジョニングされた SIZE と厳密に結びついていることに注意してください。場合によってはバースト サイジング機能。十分な IOPS を確保するために、必要以上のスペースを UPFRONT でプロビジョニングしてください。注: Azure Premium は、トランザクションを支払わないため、Standard よりも安い場合がありますが、重要な詳細を念頭に置いておく必要があります。Azure NetApp ファイル: 最大 1000 個の IP が接続され、その場で IOPS を調整でき、プロビジョニングされた最小 4 TB の容量を覚えておいてください。</t>
+          <t>Windows 仮想デスクトップ サービス内のホスト プールに VM を登録すると、VM がアクティブになるたびに、エージェントによって VM のトークンが定期的に更新されます。登録トークンの証明書は 90 日間有効です。この 90 日間の制限のため、マシンがトークンを更新し、エージェントとサイド バイ サイド スタック コンポーネントを更新できるように、VM を 90 日ごとに 20 分間オンラインにすることをお勧めします。</t>
         </is>
       </c>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
+          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4577,38 +4577,38 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Azure Files のベスト プラクティスを確認する (使用されている場合)</t>
+          <t>AVD の Azure モニタリングを有効にする</t>
         </is>
       </c>
       <c r="D78" s="22" t="inlineStr">
         <is>
-          <t>参照先の記事に記載されているベスト プラクティスと推奨事項の一覧を必ず確認してください。</t>
+          <t>Azure Monitor for Windows Virtual Desktop は、Azure Monitor ブック上に構築されたダッシュボードであり、IT プロフェッショナルが Windows 仮想デスクトップ環境を理解するのに役立ちます。Windows 仮想デスクトップ環境を監視するように Windows 仮想デスクトップ用 Azure Monitor を設定する方法については、参照先の記事をお読みください。</t>
         </is>
       </c>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4616,7 +4616,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4627,22 +4627,22 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>NetAppファイルのベスト・プラクティスを確認する(使用されている場合)</t>
+          <t>ワークスペース、ホスト プール、アプリケーション グループ、ホスト VM の診断設定を有効にして Log Analytics ワークスペースにリダイレクトする</t>
         </is>
       </c>
       <c r="D79" s="22" t="inlineStr">
         <is>
-          <t>参照先の記事に記載されているベスト プラクティスと推奨事項の一覧を必ず確認してください。</t>
+          <t>Windows Virtual Desktop では、他の多くの Azure サービスと同様に、監視とアラートに Azure Monitor と Log Analytics を使用します。これにより、管理者は単一のインターフェイスから問題を特定できます。このサービスは、ユーザー操作と管理者操作の両方のアクティビティ ログを作成します。 各アクティビティ ログは、管理、フィード、接続、ホスト登録、エラー、チェックポイントのカテゴリに分類されます。</t>
         </is>
       </c>
       <c r="E79" s="22" t="inlineStr">
@@ -4652,13 +4652,13 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4666,7 +4666,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
+          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4677,38 +4677,38 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>FSLogixで設定された最大プロファイルサイズを確認して確認する</t>
+          <t>プロファイルストレージにアラートを作成して、使用率とスロットリングが高い場合にアラートを受け取る</t>
         </is>
       </c>
       <c r="D80" s="22" t="inlineStr">
         <is>
-          <t>プロファイルコンテナのデフォルトの最大サイズは30GBです。大規模なプロファイル コンテナーが予想され、お客様がそれらを小さく保ちたい場合は、OneDrive を使用して FSLogix プロファイルの外部で Office 365 ファイルをホストすることを検討してください。</t>
+          <t>参照されている記事と、ストレージの適切な監視とアラートを設定するには、次の追加の記事を参照してください。 https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance。</t>
         </is>
       </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4716,7 +4716,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4727,22 +4727,22 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>FSLogixクラウドキャッシュを使用している場合は、キャッシュディレクトリを一時ドライブに移動します。</t>
+          <t>AVD アラートの Azure サービス正常性を構成する</t>
         </is>
       </c>
       <c r="D81" s="22" t="inlineStr">
         <is>
-          <t>Cloud Cache はローカルディスクをキャッシュとして使用し、VM ディスクに多くの負荷をかける可能性があります。可能であれば、VM SKU に基づいて、一時 (およびローカルに接続された) VM ディスクの電力を利用することをお勧めします。</t>
+          <t>Azure サービス正常性を使用して、Windows 仮想デスクトップのサービスの問題と正常性アドバイザリを監視できます。Azure Service Health では、さまざまな種類のアラート (電子メールや SMS など) で通知し、問題の影響を理解し、問題の解決時に最新情報を入手できます。</t>
         </is>
       </c>
       <c r="E81" s="22" t="inlineStr">
@@ -4752,13 +4752,13 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4766,7 +4766,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4777,22 +4777,22 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>FSLogix リダイレクトの使用状況を確認します。</t>
+          <t>オンプレミス環境のハイブリッド接続アーキテクチャを確認する</t>
         </is>
       </c>
       <c r="D82" s="22" t="inlineStr">
         <is>
-          <t>リダイレクト.XMLファイルは、プロファイルコンテナからC:ドライブにリダイレクトされるフォルダを制御するために使用されます。除外は例外であるべきであり、特定の除外が除外を構成する人によって完全に理解されない限り、決して使用しないでください。除外は、実装が意図されている環境で常に完全にテストする必要があります。除外を構成すると、機能、安定性、およびパフォーマンスに影響を与える可能性があります。</t>
+          <t>どのタイプのハイブリッド接続ですか?エクスプレスルート、VPN、NVA?</t>
         </is>
       </c>
       <c r="E82" s="22" t="inlineStr">
@@ -4802,13 +4802,13 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4816,7 +4816,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4827,38 +4827,38 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Azure NetApp ファイル ストレージが使用されている場合は、AD 接続の AD サイト名設定を確認します。</t>
+          <t>ユーザーが AVD ホストプールからオンプレミスにアクセスする必要があるリソースを評価する</t>
         </is>
       </c>
       <c r="D83" s="22" t="inlineStr">
         <is>
-          <t>ANF サブネットが作成される Azure 仮想ネットワーク環境用に Active Directory サイトを作成し、そのサイト名は、リファレンス記事で説明されているように、結合手順を実行するときに ANF 接続プロパティで指定する必要があります。</t>
+          <t>帯域幅の要件を評価し、VPN/ER 帯域幅が十分であり、待機時間が許容できることを確認します。</t>
         </is>
       </c>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4866,7 +4866,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4877,38 +4877,38 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>AVDユーザーがAVDホストに対するローカル管理者権限を持っていないことを確認します。</t>
+          <t>AVD サービスのランディングゾーンネットワーキングトポロジの確認</t>
         </is>
       </c>
       <c r="D84" s="22" t="inlineStr">
         <is>
-          <t>ユーザーに仮想デスクトップへの管理者アクセス権を付与しないことをお勧めします。ソフトウェア パッケージが必要な場合は、Microsoft エンドポイント マネージャーなどの構成管理ユーティリティを使用して使用できるようにすることをお勧めします。マルチセッション環境では、ユーザーがソフトウェアを直接インストールできないようにすることをお勧めします。</t>
+          <t>CAF に基づいて AVD ホストプールを配置する場所をレビューまたは推奨する(vWAN vs. ハブ&amp;スポーク)</t>
         </is>
       </c>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4916,7 +4916,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
+          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4927,38 +4927,38 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>ウイルス対策およびマルウェア対策ソリューションが使用されていることを確認する</t>
+          <t>複数のホスト プールの VNET とサブネットの配置を評価する</t>
         </is>
       </c>
       <c r="D85" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Endpoint が Windows Virtual Desktop for Windows 10 Enterprise マルチセッションをサポートするようになりました。非永続仮想デスクトップインフラストラクチャ(VDI)デバイスのオンボーディングに関する記事を確認する: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t>各サブネットに AVD ホストプールをスケーリングするのに十分なスペースがあることを確認します。ホスト プールが異なる場合は、可能であれば個別のサブネットを使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
+          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4977,38 +4977,38 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>適切なAV除外が設定されていることを確認する</t>
+          <t>AVD ホストのインターネットアウトバウンドトラフィックを制御/制限する必要がありますか?</t>
         </is>
       </c>
       <c r="D86" s="22" t="inlineStr">
         <is>
-          <t>次の除外が設定されていることを確認してください: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions 。</t>
+          <t>いくつかのオプションを使用できます。Azure Firewall または NVA ファイアウォール、NSG、プロキシを使用できます。NSG では、URL による有効化/無効化はできず、ポートとプロトコルのみが可能です。プロキシは、ユーザーブラウザの明示的な設定としてのみ使用する必要があります。AVD での Azure Firewall Premium の使用の詳細については、こちら https://aka.ms/AVDfirewall と こちら https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop を参照してください。AVD URL アクセスの要件の完全なリストを確認してください。</t>
         </is>
       </c>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://aka.ms/AVDfirewall</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -5016,7 +5016,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
+          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -5027,38 +5027,38 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>AVDホストのディスク暗号化要件の評価</t>
+          <t>AVD ホスト上のユーザに対してのみインターネットアウトバウンドトラフィックを制御/制限する必要がありますか?</t>
         </is>
       </c>
       <c r="D87" s="22" t="inlineStr">
         <is>
-          <t>Azure 内のディスクは、既定で Microsoft マネージド キーを使用して保存時に既に暗号化されています。ホスト VM OS ディスクの暗号化は、ADE と DES を使用して可能でサポートされています: 賢明で永続的なユーザー データは、セッション ホスト ディスクに格納してはならず、コンプライアンス上の理由から厳密に必要な場合にのみ使用してください。Azure Files を使用した FSLogix ストレージの暗号化は、Azure Storage 上の SSE を使用して実行できます。OneDrive 暗号化については、この記事「https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services」を参照してください。</t>
+          <t>Azure Defender エンドポイントを使用してユーザーの Web ナビゲーションを制御することを検討してください。詳細については、「セキュリティ」セクションを参照してください。</t>
         </is>
       </c>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
+          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5077,38 +5077,38 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>AVDセッションホストからのユーザーのインターネットナビゲーションを制御/制限する必要がありますか?</t>
+          <t>AVD ホストプールサブネットの UDR の確認</t>
         </is>
       </c>
       <c r="D88" s="22" t="inlineStr">
         <is>
-          <t>ユーザーの Web ナビゲーションを制御するための Azure Defender エンドポイントの使用を検討してください。</t>
+          <t>カスタム UDR は、たとえば Azure ファイアウォールや NVA にリダイレクトするために、AVD ホスト プール サブネットに適用できます。この場合、AVD コントロールプレーンへのアウトバウンドトラフィックの最適なパスが使用されていることを慎重に確認することをお勧めします。サービスタグを UDR で使用できるようになり、AVD 管理プレーントラフィックを簡単にホワイトリストに登録できるようになりました。https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -5116,7 +5116,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
+          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5127,38 +5127,38 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>AVD セッション ホストの Azure セキュリティ センター (ASC) の使用状況を評価する</t>
+          <t>AVD コントロールプレーンエンドポイントにアクセスできることを確認する</t>
         </is>
       </c>
       <c r="D89" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション、仮想マシン、キー コンテナー、およびストレージ アカウントに対して Azure Security Center Standard を有効にすることをお勧めします。Azure Security Center Standard を使用すると、脆弱性の評価と管理、PCI などの一般的なフレームワークへの準拠の評価、AVD 環境の全体的なセキュリティの強化が可能になります。</t>
+          <t>セッションホストによる AVD コントロールプレーンアクセスに必要な URL については、次の https://docs.microsoft.com/azure/virtual-desktop/safe-url-list を参照してください。セッション ホストからの接続を確認するためのチェック ツールを使用できます。 https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool。</t>
         </is>
       </c>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -5166,7 +5166,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
+          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5177,38 +5177,38 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ GPO を確認して RDP セッションをセキュリティで保護する</t>
+          <t>VM SKU の各ユーザーおよび合計に必要なネットワーク帯域幅を確認する</t>
         </is>
       </c>
       <c r="D90" s="22" t="inlineStr">
         <is>
-          <t>たとえば、デスクトップのロックアウトやアイドル状態のセッションの終了を強制するために使用する必要があります。オンプレミス環境に適用されている既存の GPO を確認し、最終的には AVD ホストもセキュリティで保護するために適用する必要があります。</t>
+          <t>特定のワークロードの種類に基づいて、ユーザーのネットワーク帯域幅要件を評価および確認することをお勧めします。参照されている記事は一般的な見積もりと推奨事項を提供しますが、適切なサイズ設定には特定の手段が必要です。</t>
         </is>
       </c>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -5216,7 +5216,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
+          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5232,33 +5232,33 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>AVD ユーザーの MFA の使用状況を評価する</t>
+          <t>AVD ユーザーが AVD ホストのローカル管理者権限を持たないようにします。</t>
         </is>
       </c>
       <c r="D91" s="22" t="inlineStr">
         <is>
-          <t>その他の詳細と洞察については、次の記事を参照してください: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
+          <t>仮想デスクトップへの管理者アクセス権をユーザーに付与しないことをお勧めします。ソフトウェア パッケージが必要な場合は、Microsoft エンドポイント マネージャーなどの構成管理ユーティリティを使用して使用できるようにすることをお勧めします。マルチセッション環境では、ユーザーがソフトウェアを直接インストールできないようにすることをお勧めします。</t>
         </is>
       </c>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -5266,7 +5266,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
+          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5282,27 +5282,27 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>ユーザーの条件付きアクセスの使用を評価する</t>
+          <t>ウイルス対策およびマルウェア対策ソリューションが使用されていることを確認します</t>
         </is>
       </c>
       <c r="D92" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセスを有効にすると、Windows 仮想デスクトップ環境へのアクセス権をユーザーに付与する前にリスクを管理できます。アクセスを許可するユーザーを決定するときは、ユーザーが誰であるか、サインインする方法、使用しているデバイスも考慮することをお勧めします。</t>
+          <t>Microsoft Defender for Endpoint は、Windows Virtual Desktop for Windows 10 Enterprise Multi-session をサポートするようになりました。非永続的な仮想デスクトップ インフラストラクチャ (VDI) デバイスのオンボードに関する記事を確認してください: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G92" s="22" t="n"/>
@@ -5316,7 +5316,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
+          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5332,33 +5332,33 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>中央の Log Analytics ワークスペースへの診断ログと監査ログを有効にする</t>
+          <t>適切なAV除外が実施されていることを確認する</t>
         </is>
       </c>
       <c r="D93" s="22" t="inlineStr">
         <is>
-          <t>監査ログの収集を有効にすると、Windows仮想デスクトップに関連するユーザーと管理者のアクティビティを表示できます。これはまた、AVD監視ツールをアンブルして使用するための要件です。有効にすることを強くお勧めします。</t>
+          <t>次の除外が設定されていることを確認してください: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions 。</t>
         </is>
       </c>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
+          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>AVD 管理にカスタム RBAC ロールを使用する要件を評価する</t>
+          <t>AVD ホストのディスク暗号化要件を評価する</t>
         </is>
       </c>
       <c r="D94" s="22" t="inlineStr">
         <is>
-          <t>AVD は、Azure ロールベースのアクセス制御 (RBAC) を使用して、ユーザーと管理者にロールを割り当てます。これらのロールは、管理者に特定のタスクを実行する権限を付与します。職務の分離が必要な場合、Windows 仮想デスクトップには、ホスト プール、アプリ グループ、およびワークスペースの管理役割を分離できる追加の役割があります。この分離により、管理タスクをより細かく制御できます。これらのロールは、Azure の標準ロールと最小特権の方法論に準拠して名前が付けられています。</t>
+          <t>Azure のディスクは、既定では Microsoft マネージド キーを使用して保存時に既に暗号化されています。ホスト VM OS ディスクの暗号化は、ADE と DES を使用して可能であり、サポートされています: 賢明で永続的なユーザー データはセッション ホスト ディスクに格納せず、コンプライアンス上の理由で厳密に必要な場合にのみ使用する必要があります。Azure Files を使用した FSLogix ストレージの暗号化は、Azure Storage 上の SSE を使用して実行できます。OneDrive の暗号化については、次の記事を参照してください https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services。</t>
         </is>
       </c>
       <c r="E94" s="22" t="inlineStr">
@@ -5402,13 +5402,13 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5416,7 +5416,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
+          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>AVD環境のすべてのセキュリティのベスト・プラクティスを確認する</t>
+          <t>AVD セッションホストからのユーザーのインターネットナビゲーションを制御/制限する必要がありますか?</t>
         </is>
       </c>
       <c r="D95" s="22" t="inlineStr">
         <is>
-          <t>セキュリティのベスト プラクティスと推奨事項の包括的なセットは、参照先の記事に含まれているので、確認することをお勧めします。</t>
+          <t>Azure Defender エンドポイントを使用してユーザーの Web ナビゲーションを制御することを検討してください。</t>
         </is>
       </c>
       <c r="E95" s="22" t="inlineStr">
@@ -5452,13 +5452,13 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5466,7 +5466,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
+          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5477,38 +5477,38 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>AVD の Azure Monitoring を有効にする</t>
+          <t>AVD セッションホストに対する Azure セキュリティ センター(ASC)の使用状況を評価する</t>
         </is>
       </c>
       <c r="D96" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor for Windows Virtual Desktop は、Azure Monitor ブック上に構築されたダッシュボードで、IT プロフェッショナルが Windows Virtual Desktop 環境を理解するのに役立ちます。Windows 仮想デスクトップ環境を監視するように Azure Monitor for Windows Virtual Desktop をセットアップする方法については、参照記事を参照してください。</t>
+          <t>サブスクリプション、仮想マシン、キー コンテナー、ストレージ アカウントに対して Azure セキュリティ センター Standard を有効にすることをお勧めします。Azure Security Center Standard を使用すると、脆弱性の評価と管理、PCI などの一般的なフレームワークへの準拠の評価、AVD 環境の全体的なセキュリティの強化が可能になります。</t>
         </is>
       </c>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5516,7 +5516,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
+          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5527,22 +5527,22 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>ワークスペース、ホスト プール、アプリケーション グループ、およびホスト VM の診断設定を有効にして、Analytics ワークスペースのログにリダイレクトする</t>
+          <t>アクティブ ディレクトリ GPO を確認して RDP セッションをセキュリティで保護する</t>
         </is>
       </c>
       <c r="D97" s="22" t="inlineStr">
         <is>
-          <t>Windows Virtual Desktop は、他の多くの Azure サービスと同様に、Azure Monitor と Log Analytics を使用して監視とアラートを行います。これにより、管理者は 1 つのインターフェイスから問題を特定できます。このサービスは、ユーザー操作と管理操作の両方のアクティビティ ログを作成します。 各アクティビティ ログは、管理、フィード、接続、ホスト登録、エラー、チェックポイントに分類されます。</t>
+          <t>たとえば、デスクトップのロックアウトやアイドル状態のセッション終了を課すために使用する必要があります。オンプレミス環境に適用されている既存の GPO を確認し、最終的には AVD ホストもセキュリティで保護するために適用する必要があります。</t>
         </is>
       </c>
       <c r="E97" s="22" t="inlineStr">
@@ -5552,13 +5552,13 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5566,7 +5566,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
+          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5577,38 +5577,38 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>プロファイルストレージにアラートを作成し、使用率と調整が高い場合にアラートを発する</t>
+          <t>AVD ユーザーの MFA の使用を評価する</t>
         </is>
       </c>
       <c r="D98" s="22" t="inlineStr">
         <is>
-          <t>参照記事と、ストレージの適切な監視とアラートを設定するための追加記事を参照してください: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance。</t>
+          <t>詳細と分析情報については、次の記事を参照してください。 https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
         </is>
       </c>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5616,7 +5616,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
+          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5627,38 +5627,38 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>AVD アラートの Azure サービス正常性を構成する</t>
+          <t>ユーザーの条件付きアクセスの使用状況を評価する</t>
         </is>
       </c>
       <c r="D99" s="22" t="inlineStr">
         <is>
-          <t>Azure サービスの正常性を使用して、Windows 仮想デスクトップのサービスの問題と正常性勧告を監視できます。Azure Service Health では、さまざまな種類のアラート (電子メールや SMS など) で通知し、問題の影響を理解し、問題が解決したときに最新の状態に保つことができます。</t>
+          <t>条件付きアクセスを有効にすると、Windows 仮想デスクトップ環境へのアクセス権をユーザーに付与する前にリスクを管理できます。アクセスを許可するユーザーを決定するときは、ユーザーが誰であるか、サインインする方法、使用しているデバイスも考慮することをお勧めします。</t>
         </is>
       </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5666,7 +5666,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
+          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5677,38 +5677,38 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>ホスト・プールの自動スケーリング機能の要件を評価する</t>
+          <t>中央の Log Analytics ワークスペースへの診断ログと監査ログを有効にする</t>
         </is>
       </c>
       <c r="D100" s="22" t="inlineStr">
         <is>
-          <t>スケーリング ツールは、セッション ホスト VM のコストを最適化したいお客様に、低コストの自動化オプションを提供します。スケーリング ツールを使用して、ピーク時とオフピーク時の営業時間に基づいて VM を開始および停止するようにスケジュールしたり、CPU コアあたりのセッション数に基づいて VM をスケール アウトしたり、オフピーク時に VM をスケールインして、セッション ホスト VM の最小数を実行したままにしたりできます。パーソナル・ホスト・プール・タイプではまだ利用できません。ホスト・プールごとに個別のセットアップを行うことをお勧めします。</t>
+          <t>監査ログの収集を有効にすると、Windows 仮想デスクトップに関連するユーザーと管理者のアクティビティを表示できます。これは、AVD 監視ツールを取得して使用するための要件でもあります。有効にすることを強くお勧めします。</t>
         </is>
       </c>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5716,7 +5716,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
+          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5727,22 +5727,22 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Azure アドバイザーによる AVD に関する推奨事項を定期的に確認する</t>
+          <t>AVD 管理にカスタム RBAC ロールを使用する要件を評価する</t>
         </is>
       </c>
       <c r="D101" s="22" t="inlineStr">
         <is>
-          <t>Azure Advisor は、構成とテレメトリを分析して、一般的な問題を解決するためのパーソナライズされた推奨事項を提供します。これらの推奨事項を使用すると、信頼性、セキュリティ、運用の卓越性、パフォーマンス、およびコストのために Azure リソースを最適化できます。</t>
+          <t>AVD は、Azure ロールベースのアクセス制御(RBAC)を使用して、ユーザーと管理者にロールを割り当てます。これらのロールは、管理者に特定のタスクを実行する権限を付与します。職務の分離が必要な場合、Windows Virtual Desktop には、ホスト プール、アプリ グループ、およびワークスペースの管理役割を分離できる追加の役割があります。この分離により、管理タスクをよりきめ細かく制御できます。これらのロールには、Azure の標準ロールと最小特権の方法論に準拠した名前が付けられています。</t>
         </is>
       </c>
       <c r="E101" s="22" t="inlineStr">
@@ -5752,13 +5752,13 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5766,7 +5766,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>611ddd68c-5a4b-4252-8e44-a59a9c2399c4</t>
+          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5777,22 +5777,22 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージの更新管理戦略を計画する</t>
+          <t>AVD 環境に関するすべてのセキュリティのベストプラクティスを確認する</t>
         </is>
       </c>
       <c r="D102" s="22" t="inlineStr">
         <is>
-          <t>ゴールデン イメージの更新を管理するための戦略を準備します (たとえば、セキュリティ修正プログラムの適用や、イメージ内にインストールされているアプリケーションの更新など)。Azure Image Builder Service は、VM のビルドとカスタマイズを自動化するためのファースト パーティのソリューションです。ARM テンプレートを使用して新しいホストを作成し、古いホストを使用停止にすることができます。https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool 推奨されるアプローチは、新しいプールを並べて作成し、ロールバックが容易で、専用のプールでは使用できない ARM テンプレートを使用して VM の数を再デプロイして増やすことも実行可能なオプションです。お客様は、SCCMなどを使用したexampelのために、既存のソフトウェア配布方法を使用して、再展開せずにイメージを更新することもできます。</t>
+          <t>セキュリティのベストプラクティスと推奨事項の包括的なセットは、参照記事に含まれているため、確認することをお勧めします。</t>
         </is>
       </c>
       <c r="E102" s="22" t="inlineStr">
@@ -5802,13 +5802,13 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5816,7 +5816,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
+          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5827,38 +5827,38 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>セッションホストのパッチ適用と更新戦略を計画する</t>
+          <t>FSLogix プロファイルおよびオフィス コンテナーに使用するストレージ バックエンド ソリューションを決定する</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
         <is>
-          <t>お客様にはいくつかのオプションがあります: - Microsoft エンドポイント構成マネージャー、この記事では、Windows 10 Enterprise マルチセッションを実行している Windows Virtual Desktop ホストに更新プログラムを自動的に適用するように Microsoft エンドポイント構成マネージャーを構成する方法について説明します: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)- OS をサポートするサード パーティ - Azure Update Management (Azure Automation) は、現在クライアント OS ではサポートされていません。パッチ適用戦略から移行し、可能であればイメージ再作成戦略に移行することを推奨 https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt ます。</t>
+          <t>Azure NetApp Files、Azure Files、VM ベースのファイル サーバー。ファイルサーバーは推奨されません。通常、Azure Files Premium は出発点として適しています。ネットアップは通常、大規模で高パフォーマンスの環境にのみ必要です。</t>
         </is>
       </c>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5866,7 +5866,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
+          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5877,22 +5877,22 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>AVDテストカナリア環境の要件を評価する</t>
+          <t>プロファイルコンテナをオフィスコンテナから分離する可能性を評価する</t>
         </is>
       </c>
       <c r="D104" s="22" t="inlineStr">
         <is>
-          <t>ホスト プールは、Windows 仮想デスクトップ環境内の 1 つ以上の同一の仮想マシンのコレクションです。サービスの更新が最初に適用される検証ホスト プールを作成することを強くお勧めします。これにより、サービスが標準環境または非検証環境に適用する前に、サービスの更新を監視できます。</t>
+          <t>Windows Virtual Desktop では、以下の「ディザスター リカバリー」セクションで説明するように、特定のビジネス継続性とディザスター リカバリー (BCDR) シナリオを計画していない限り、Office コンテナーなしでプロファイル コンテナーを使用することをお勧めします。https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
         </is>
       </c>
       <c r="E104" s="22" t="inlineStr">
@@ -5902,13 +5902,13 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
+          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5916,7 +5916,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
+          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5927,38 +5927,38 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>ホストプールの展開戦略を決定する</t>
+          <t>ホスト プールの要件をサポートするための記憶域のスケーラビリティの制限を確認する</t>
         </is>
       </c>
       <c r="D105" s="22" t="inlineStr">
         <is>
-          <t>AVD ホスト プールは、Azure Portal、ARM テンプレート、Azure CLI ツール、Powershell、登録トークンを使用した手動 VM 作成、Terraform など、いくつかの方法でデプロイできます。自動化および CI/CD ツールによる自動デプロイメントをサポートするために、適切な方式を採用することが重要です。</t>
+          <t>プロファイル コンテナーのストレージ要件を見積もるための開始点として、定常状態ではユーザーあたり 10 IOPS、サインイン/サインアウト時にはユーザーあたり 50 IOPS を想定することをお勧めします。</t>
         </is>
       </c>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5966,7 +5966,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
+          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5977,22 +5977,22 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>トークンの更新のために90日ごとにVMを定期的にオンにする</t>
+          <t>NetApp Files ストレージを使用している場合は、特定のリージョンのストレージサービスの可用性を確認してください。</t>
         </is>
       </c>
       <c r="D106" s="22" t="inlineStr">
         <is>
-          <t>VM を Windows 仮想デスクトップ サービス内のホスト プールに登録すると、エージェントは VM がアクティブになるたびに VM のトークンを定期的に更新します。登録トークンの証明書は 90 日間有効です。この 90 日間の制限のため、コンピューターがトークンを更新し、エージェントとサイド バイ サイドのスタック コンポーネントを更新できるように、VM を 90 日ごとに 20 分間オンラインにすることをお勧めします。</t>
+          <t>DRの目的で2番目のリージョンが必要な場合は、そこでネットアップの可用性も確認します。</t>
         </is>
       </c>
       <c r="E106" s="22" t="inlineStr">
@@ -6002,13 +6002,13 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -6016,7 +6016,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
+          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -6027,22 +6027,22 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>AVD を通じて公開されたアプリケーション/デスクトップに期待される高可用性 SLA を決定する</t>
+          <t>最適なパフォーマンスを得るには、ストレージ ソリューションと FSLogix プロファイル コンテナーを同じデータ センターの場所に配置する必要があります。</t>
         </is>
       </c>
       <c r="D107" s="22" t="inlineStr">
         <is>
-          <t>AVD 管理プランでは、財政的に裏付けられたサービス レベル アグリーメントは提供されません。マイクロソフトは、Windows 仮想デスクトップ サービス URL の可用性を少なくとも 99.9% にするよう努めています。サブスクリプション内のセッション ホスト仮想マシンの可用性は、仮想マシン SLA の対象となります。依存するリソース/サービスおよびインフラストラクチャの可用性も、グローバルな高可用性要件を適切に満たすために考慮する必要があります。</t>
+          <t>可能な限り、リージョン間のネットワーク トラフィックに関連する追加の待機時間とコストを発生させないようにします。</t>
         </is>
       </c>
       <c r="E107" s="22" t="inlineStr">
@@ -6052,13 +6052,13 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -6066,7 +6066,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
+          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6077,22 +6077,22 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>AVD ホスト プールの geo ディザスタ リカバリ領域の評価</t>
+          <t>FSLogix の推奨されるウイルス対策除外を構成します (接続時に VHD(x) ファイルをスキャンしないことを含む)。</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
         <is>
-          <t>アクティブ-アクティブ'モデルは、異なるリージョンの複数のホストプールで実現できます。異なるリージョンの VM を含む単一のホスト プールはお勧めしません。同じユーザーに対して複数のプールを使用する場合は、ユーザー・プロファイルの同期/複製方法の問題を解決する必要があります。FSLogixクラウドキャッシュを使用することもできますが、慎重にレビューして計画する必要があります。そうしないと、お客様は同期/レプリケーションをまったく行わないことを決定できます。「アクティブ/パッシブ」は、Azure Site Recovery (ASR) または自動化されたメカニズムを備えたオンデマンド プール デプロイを使用して実現できます。</t>
+          <t>参照記事に記載されているように、FSLogix プロファイル コンテナーの仮想ハード ドライブに対して次のウイルス対策の除外を構成してください。</t>
         </is>
       </c>
       <c r="E108" s="22" t="inlineStr">
@@ -6102,13 +6102,13 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -6116,7 +6116,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
+          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6127,38 +6127,38 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>重要なアプリケーションを異なるAVDホストプールに分離</t>
+          <t>FSLogix レジストリ キーを確認し、適用するレジストリ キーを決定する</t>
         </is>
       </c>
       <c r="D109" s="22" t="inlineStr">
         <is>
-          <t>Windows 仮想デスクトップ BCDR の計画と設計に取り組む前に、AVD によって消費されるアプリケーションが重要であることを最初に検討することが重要です。重要でないアプリから分離し、別の障害復旧アプローチと機能を持つ別のホスト プールを使用することもできます。</t>
+          <t>デフォルトの基本設定と推奨設定は次のとおりです。 https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises 基本セットについてはこちらをご覧ください: 完全な参考 https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee はこちら: https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
         </is>
       </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -6166,7 +6166,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
+          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6177,22 +6177,22 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>AVD ホスト プールの展開に最適な回復性オプションを計画する</t>
+          <t>同じプロファイルへの同時接続または複数の接続の使用状況を確認する</t>
         </is>
       </c>
       <c r="D110" s="22" t="inlineStr">
         <is>
-          <t>?ホストプール VM に適切な回復性レベルを選択しましたか (可用性セットと可用性ゾーン)??HA SLA と AS または AZ に付随するスケーラビリティの制限への影響をご存知ですか?現在、可用性セットなしで Windows 仮想デスクトップ ARM テンプレート展開ごとに 399 の VM を展開でき、可用性セットごとに 200 の VM を展開できます。展開ごとの VM の数を増やすには、ARM テンプレートまたは Azure portal ホスト プールの登録で可用性セットをオフにします。AZ のデプロイが可能になり、現時点では一度に 1 つの AZ が、必要な各 AZ に VM の一部を手動で作成する必要があります。</t>
+          <t>同時接続または複数接続は、Windows 仮想デスクトップでは推奨されません。ベスト プラクティスは、セッションごとに異なるプロファイルの場所を (ホスト プールとして) 作成することです。</t>
         </is>
       </c>
       <c r="E110" s="22" t="inlineStr">
@@ -6202,13 +6202,13 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
+          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6227,45 +6227,45 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>AVDセッション・ホストのバックアップ要件の評価</t>
+          <t>ストレージのサイズ設定に関するベスト プラクティスと主な考慮事項を確認する</t>
         </is>
       </c>
       <c r="D111" s="22" t="inlineStr">
         <is>
-          <t>Azure Backup はホスト プール VM の保護にも使用できますが、ホスト プール VM をステートレスにする必要がある場合でも、このプラクティスはサポートされています。このオプションは、個人用ホストプールで検討できます。</t>
+          <t>一般的な見積もりとして、テスト環境で検証するには、ワークロードに応じて、ユーザーごとに 5 から 15 IOPS を最初に検討する必要があります。Azure ファイル: プレミアム シェアあたり最大 100k IOPS (最大 100 TB)、および 3 ミリ秒の待機時間で最大 5 Gbps。Azure Files のプロビジョニング方法、つまり IOPS は厳密にプロビジョニングされた SIZE に関連付けられていることに注意してください。場合によってはバーストサイジング機能。十分な IOPS を確保するために、必要以上の領域を事前にプロビジョニングしてください。注: Azure Premium は、トランザクションを支払わないため、標準よりも安くなる可能性がありますが、覚えておくべき重要な詳細。Azure NetApp Files: 最大 1000 個の IP が接続され、その場で IOPS を調整でき、最小 4 TB のプロビジョニング容量を記憶してください。</t>
         </is>
       </c>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
+          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6276,22 +6276,22 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>プロファイル コンテナーと Office コンテナー内で保護する必要があるデータを評価する</t>
+          <t>Azure ファイルのベスト プラクティスを確認する (使用する場合)</t>
         </is>
       </c>
       <c r="D112" s="22" t="inlineStr">
         <is>
-          <t>FSLogixユーザープロファイル内のすべてのデータが災害からの保護に値するとは限りません。さらに、OneDrive やファイル サーバー/共有などの外部ストレージが使用されている場合、FSLogix プロファイルに残っているものは最小限であり、極端な状況で失われる可能性があります。また、プロファイル内のデータを他のストレージ (キャッシュ モードの Outlook 受信トレイなど) から再構築することもできます。</t>
+          <t>参照記事で説明されているベストプラクティスと推奨事項のリストを必ず確認してください。</t>
         </is>
       </c>
       <c r="E112" s="22" t="inlineStr">
@@ -6301,13 +6301,13 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -6315,7 +6315,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
+          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6326,22 +6326,22 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>プロファイル コンテナーと Office コンテナーのバックアップ保護戦略の構築</t>
+          <t>ネットアップファイルのベストプラクティスを確認する(使用している場合)</t>
         </is>
       </c>
       <c r="D113" s="22" t="inlineStr">
         <is>
-          <t>重要なユーザーデータのデータ損失を防ぐことは重要であり、最初のステップは、保存して保護する必要があるデータを評価することです。OneDrive またはその他の外部ストレージを使用している場合は、ユーザー プロファイルや Office コンテナーのデータを保存する必要がない場合があります。重要なユーザー データの保護を提供するには、適切なメカニズムを考慮する必要があります。Azure Backup サービスを使用すると、Azure Files Standard レベルと Premium レベルに格納されているときに、プロファイル コンテナーと Office コンテナーのデータを保護することができます。Azure NetApp Files Snapshots and Policies は、Azure NetApp Files (すべての層) に使用できます。</t>
+          <t>参照記事で説明されているベストプラクティスと推奨事項のリストを必ず確認してください。</t>
         </is>
       </c>
       <c r="E113" s="22" t="inlineStr">
@@ -6351,13 +6351,13 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -6365,7 +6365,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc - 3cd2 - 45bf - a707 - 6e9eab4bed32</t>
+          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6376,38 +6376,38 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>BCDR目的のためのプロファイルコンテナストレージレプリケーション要件と回復性を評価する</t>
+          <t>FSLogix で構成された最大プロファイル サイズを確認して確認する</t>
         </is>
       </c>
       <c r="D114" s="22" t="inlineStr">
         <is>
-          <t>AVDでは、FSLogixコンテナに存在するユーザーデータに複数のレプリケーションメカニズムと戦略を使用できます。プロファイル パターン #1: ネイティブの Azure ストレージ レプリケーション メカニズム (Azure Files Standard GRS レプリケーション、Azure NetApp Files クロスリージョン レプリケーション、VM ベースのファイル サーバー用の Azure Files Sync など) ですか?Azure Files には、Zone Replicated Storage (ZRS) または Geo Replicated Storage (GRS) を使用することをお勧めします。?ローカルのみの回復性を持つ LRS は、ゾーン/リージョンの保護が必要ない場合に使用できます。?注: Azure Files Share Standard は LRS/ZRS/GRS ですが、100 TB の大規模サポートを有効にすると、LRS/ZRS のみがサポートされます。?プロファイルパターン#2:FSLogixクラウドキャッシュは、異なる(最大4つの)ストレージアカウント間でコンテナを複製する自動メカニズムに組み込まれています。クラウドキャッシュは、次の場合にのみ使用する必要がありますか?ユーザー プロファイルまたは Office コンテナーのデータ可用性が必要 高可用性 SLA は重要であり、リージョンの障害に対する回復力が必要です。?選択されたストレージ・オプションは、BCDR 要件を満たすことができません。たとえば、Azure File Share Premium レベルや、Large File Support が有効になっている Azure File Share Standard では、GRS は使用できません。?異種ストレージ間のレプリケーションが必要な場合。?プロファイル パターン #3: ユーザー データ/プロファイル コンテナーではなく、アプリケーション データに対してのみ geo ディザスタリカバリを設定します。重要なアプリケーション データは、OneDrive などの個別のストレージや、独自の組み込み DR メカニズムを備えたその他の外部ストレージに格納します。</t>
+          <t>プロファイルコンテナのデフォルトの最大サイズは30GBです。大きなプロファイル コンテナーが予想され、お客様がそれらを小さく保とうとする場合は、OneDrive を使用して FSLogix プロファイルの外部で Office 365 ファイルをホストすることを検討してください。</t>
         </is>
       </c>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
+          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6426,22 +6426,22 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Azure NetApp Files DR 戦略の確認</t>
+          <t>FSLogix クラウド キャッシュを使用する場合は、キャッシュ ディレクトリを一時ドライブに移動します。</t>
         </is>
       </c>
       <c r="D115" s="22" t="inlineStr">
         <is>
-          <t>地理的なディザスター リカバリ: Azure NetApp Files は基本的に LRS (ローカルにレプリケートされたストレージ) であるため、リージョン間のレプリケーションが必要な場合は、さらに何かを設計する必要があります。現時点でのクロスリージョンの推奨事項は、別の Azure リージョン (および NetApp ボリューム) にレプリケートする NetApp Cloud Sync です。バックアップ: バックアップはスナップショットによって処理されますが、自動ではなく、ポリシーを使用してスケジュールする必要があります。https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots。ボリュームあたりのスナップショットの最大数 (255) は、https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits で説明されています。</t>
+          <t>Cloud Cache はローカル ディスクをキャッシュとして使用するため、VM ディスクに大きな負荷がかかる可能性があります。可能であれば、VM SKU に基づいて、一時的な (およびローカルに接続された) VM ディスクの機能を活用することをお勧めします。</t>
         </is>
       </c>
       <c r="E115" s="22" t="inlineStr">
@@ -6451,20 +6451,20 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
+          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
+          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6475,22 +6475,22 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Azure Files DR 戦略を確認する</t>
+          <t>FSLogix リダイレクトの使用法を確認します。</t>
         </is>
       </c>
       <c r="D116" s="22" t="inlineStr">
         <is>
-          <t>地理的なディザスター リカバリー: GRS for Azure Files は、標準の SKU でのみ使用でき、大規模な共有サポートは提供されないため、ほとんどのお客様のシナリオでは適していません。geo レプリケーションが必要な場合は、Azure File Share Premium を使用する場合、FSLogix Cloud Cache を使用したレプリケーションを評価するか、"リージョン内" アベイラビリティー ゾーン (AZ) のみの回復性を考慮する必要があります。バックアップ: Azure Backup は、Azure ファイル共有のすべての SKU を完全にサポートしており、プロファイル コンテナーを保護するために推奨されるソリューションです。OneDrive またはその他の外部ストレージを使用している場合は、ユーザー プロファイルや Office コンテナーのデータを保存する必要がない場合があります。</t>
+          <t>リダイレクト.XMLファイルは、プロファイルコンテナからC:ドライブにリダイレクトされるフォルダを制御するために使用されます。除外は例外であるべきであり、除外を構成するユーザーが特定の除外を完全に理解しない限り、決して使用しないでください。除外は、実装が意図されている環境で常に完全にテストする必要があります。除外を構成すると、機能、安定性、パフォーマンスに影響を与える可能性があります。</t>
         </is>
       </c>
       <c r="E116" s="22" t="inlineStr">
@@ -6500,20 +6500,20 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
+          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6524,45 +6524,45 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>依存 関係</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>ゴールデン イメージの地域間での可用性を計画する</t>
+          <t>Azure ネットアップ ファイル ストレージを使用する場合は、AD 接続の AD サイト名の設定を確認してください。</t>
         </is>
       </c>
       <c r="D117" s="22" t="inlineStr">
         <is>
-          <t>カスタム イメージを使用して AVD ホスト プール VM を展開する場合は、大規模な障害が発生した場合でも、それらの成果物がすべてのリージョンで使用できるようにすることが重要です。Azure コンピューティング ギャラリー サービスを使用すると、ホスト プールがデプロイされているすべてのリージョンに、冗長ストレージと複数のコピーでイメージをレプリケートできます。</t>
+          <t>ANF サブネットが作成される Azure 仮想ネットワーク環境用に Active Directory サイトを作成し、リファレンス記事で説明されているように、参加手順を実行するときにそのサイト名を ANF 接続プロパティで指定する必要があります。</t>
         </is>
       </c>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
+          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
+          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6573,22 +6573,22 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>依存 関係</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>インフラストラクチャとアプリケーションの依存関係を評価する</t>
+          <t>Premium ファイル共有を使用して FSLogix プロファイル コンテナーをホストする場合は、SMB マルチチャネルを有効にします。</t>
         </is>
       </c>
       <c r="D118" s="22" t="inlineStr">
         <is>
-          <t>AVD インフラストラクチャのユーザーがオンプレミスのリソース アクセスを必要とする場合、接続に必要なネットワーク インフラストラクチャの高可用性も重要であり、考慮する必要があります。認証インフラストラクチャの回復性を評価し、評価する必要があります。依存アプリケーションおよびその他のリソースの BCDR の側面は、セカンダリ DR ロケーションでの可用性を確保するために考慮する必要があります。</t>
+          <t>SMB マルチチャネルを使用すると、クライアントは複数のネットワーク接続を使用して、所有コストを削減しながらパフォーマンスを向上させることができます。パフォーマンスの向上は、複数の NIC に帯域幅を集約し、NIC の受信側スケーリング (RSS) サポートを利用して複数の CPU に IO 負荷を分散することで実現されます。</t>
         </is>
       </c>
       <c r="E118" s="22" t="inlineStr">
@@ -6598,13 +6598,13 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/en-us/azure/storage/files/storage-files-smb-multichannel-performance</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6612,7 +6612,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
+          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6623,41 +6623,45 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>セッション ホスト</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
-        </is>
-      </c>
-      <c r="D119" s="22" t="n"/>
+          <t>セッション・ホストに使用する管理対象ディスクのタイプを決定する</t>
+        </is>
+      </c>
+      <c r="D119" s="22" t="inlineStr">
+        <is>
+          <t>標準HDD、標準SSD、またはプレミアムSSD、エフェメラルディスクはサポートされておらず、ウルトラディスクは推奨されません。ユーザー密度が低くない場合、およびクラウドキャッシュを使用する場合は、OSディスクのプレミアムを評価することをお勧めします。</t>
+        </is>
+      </c>
       <c r="E119" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6678,7 +6682,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6695,7 +6699,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6703,7 +6707,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6714,17 +6718,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6741,19 +6745,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6789,13 +6789,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6816,7 +6824,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6831,21 +6839,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6895,7 +6895,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6933,19 +6933,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6983,19 +6983,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -7033,19 +7033,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7083,19 +7083,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7116,13 +7116,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7133,14 +7133,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7161,13 +7166,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7178,14 +7183,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7206,7 +7211,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7223,14 +7228,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7251,7 +7256,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7268,14 +7273,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7296,7 +7301,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7313,14 +7318,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7341,7 +7346,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7358,14 +7363,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7386,7 +7391,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7403,14 +7408,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7431,7 +7436,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7448,14 +7453,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7476,7 +7481,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7493,14 +7498,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7521,7 +7526,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7538,14 +7543,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7566,7 +7571,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7583,14 +7588,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7601,23 +7606,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7628,14 +7633,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7646,17 +7651,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7673,14 +7678,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7701,13 +7706,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7718,14 +7723,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7746,7 +7751,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7763,14 +7768,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7791,7 +7796,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7815,7 +7820,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7836,7 +7841,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7860,7 +7865,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7881,7 +7886,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7905,7 +7910,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7926,7 +7931,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7943,14 +7948,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7971,7 +7976,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7995,7 +8000,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -8033,14 +8038,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8061,7 +8066,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8085,7 +8090,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8106,7 +8111,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8123,14 +8128,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8146,18 +8151,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8168,14 +8173,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8191,12 +8196,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8213,14 +8218,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8241,13 +8246,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8265,7 +8270,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8286,7 +8291,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8303,14 +8308,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8331,7 +8336,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8355,7 +8360,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8376,13 +8381,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8400,7 +8405,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8421,7 +8426,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8445,7 +8450,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8466,13 +8471,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8490,7 +8495,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8511,7 +8516,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8535,7 +8540,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8556,7 +8561,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8573,14 +8578,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8601,7 +8606,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8618,14 +8623,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8641,12 +8646,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8663,14 +8668,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8686,12 +8691,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8708,14 +8713,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8736,7 +8741,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8753,14 +8758,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8781,7 +8786,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8798,14 +8803,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8826,7 +8831,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8843,14 +8848,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8871,7 +8876,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8888,14 +8893,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8916,7 +8921,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8933,14 +8938,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8961,7 +8966,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8985,7 +8990,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -9006,7 +9011,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -9023,14 +9028,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -9039,360 +9044,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10950,7 +11675,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11034,7 +11759,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11090,26 +11815,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F120" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11195,7 +11938,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -11220,7 +11963,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ見ていません</t>
+          <t>このチェックはまだ確認されていません</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -11294,7 +12037,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それに関連付けられたアクションアイテムはこれ以上ありません。</t>
+          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11326,7 +12069,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解しているが、現在の要件では必要ではない</t>
+          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -11358,7 +12101,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>現在の設計には適用されません</t>
+          <t>現在のデザインには適用できません</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">

--- a/spreadsheet/avd_checklist.ja.xlsx
+++ b/spreadsheet/avd_checklist.ja.xlsx
@@ -1095,22 +1095,22 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>どの Azure リージョンに AVD ホスト プールを展開するかを決定する</t>
+          <t>AVD を通じて公開されたアプリケーション/デスクトップの予想される高可用性 SLA を決定する</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t>AVDは非リージョンサービスであり、ホストプールはどのリージョンでも作成でき、最も近いフロントエンドからの自動リダイレクトが自動的に行われます。</t>
+          <t>AVD 制御プランでは、返金制度のあるサービス レベル アグリーメントは提供されません。Windows 仮想デスクトップ サービス URL の可用性を 99.9% 以上確保するよう努めています。サブスクリプション内のセッション ホスト仮想マシンの可用性は、仮想マシン SLA の対象となります。グローバルな高可用性要件を適切に満たすには、依存するリソース/サービスとインフラストラクチャの可用性も考慮する必要があります。</t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
@@ -1120,13 +1120,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
+          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
+          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1145,22 +1145,22 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>オンプレミス環境への接続にハイブリッド接続が必要かどうかを判断する</t>
+          <t>AVD ホストプールの geo ディザスタリカバリリージョンの評価</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t>オンプレミス環境に接続する必要がある場合は、現在の接続オプションを評価するか、必要な接続を計画します。</t>
+          <t>アクティブ-アクティブ」モデルは、異なるリージョンにある複数のホスト プールで実現できます。異なるリージョンの VM を含む単一のホスト プールは推奨されません。同じユーザーに対して複数のプールを使用する場合は、ユーザー プロファイルを同期/レプリケートする方法の問題を解決する必要があります。FSLogix Cloud Cache を使用することもできますが、慎重に確認して計画する必要があります。または、同期/レプリケートをまったく行わないことをお客様が決定できます。"アクティブ/パッシブ" は、Azure Site Recovery (ASR) または自動化されたメカニズムを使用したオンデマンド プール デプロイを使用して実現できます。</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
@@ -1170,13 +1170,13 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
+          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1195,38 +1195,38 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>ユーザーの場所と Azure AVD インフラストラクチャの間の待機時間を評価しましたか。</t>
+          <t>重要なアプリケーションを異なる AVD ホストプールに分離</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t>「Windows 仮想デスクトップ エクスペリエンス推定ツール」ツールを実行して、ホスト プールをデプロイするのに最適な Azure リージョンを選択します。待機時間が 150 ミリ秒を超えると、ユーザー エクスペリエンスが最適でない可能性があります。</t>
+          <t>Windows 仮想デスクトップ BCDR の計画と設計に取り組む前に、AVD を介して使用されるアプリケーションを最初に検討することが重要です。重要でないアプリから分離し、異なるディザスター リカバリーのアプローチと機能を備えた別のホスト プールを使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
+          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1245,38 +1245,38 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>AVD サービスのメタデータの場所を決定する</t>
+          <t>AVD ホストプール展開に最適な復元力オプションを計画する</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>AVDは、特定の地理的な場所でサービスを実行するためだけにメタデータを保存し、お客様の要件に基づいて、現在利用可能なもの、および適切かどうかを判断します。</t>
+          <t>?ホスト プール VM に適切な回復性レベルを選択しましたか (可用性セットと可用性ゾーン)??AS または AZ に伴う HA SLA とスケーラビリティの制限への影響を認識していますか? ?現在、可用性セットなしで Windows 仮想デスクトップ ARM テンプレートのデプロイごとに 399 台の VM をデプロイすることも、可用性セットごとに 200 台の VM をデプロイすることもできます。デプロイあたりの VM の数を増やすには、ARM テンプレートまたは Azure portal ホスト プールの登録で可用性セットをオフにします。AZのデプロイが可能になり、現時点では一度に1つのAZで、目的のAZごとにVMの一部を手動で作成する必要があります。</t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
+          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1295,38 +1295,38 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>選択したリージョンの特定の VM サイズに関する Azure クォータと可用性を確認する</t>
+          <t>AVD セッションホストをバックアップする要件を評価する</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t>特定の VM SKU (特に GPU または高スペック SKU が必要な場合) を確認し、最終的には Azure NetApp Files の可用性を確認します。</t>
+          <t>Azure Backup はホスト プール VM を保護するためにも使用できますが、ホスト プール VM をステートレスにする必要がある場合でも、この方法はサポートされます。このオプションは、個人用ホスト プールで検討できます。</t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
+          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1345,38 +1345,38 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>依存 関係</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>選択したリージョンのアベイラビリティーゾーン (AZ) の可用性を確認する</t>
+          <t>ゴールデン イメージのリージョン間の可用性を計画する</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>詳細については、BCDR セクションを参照してください。</t>
+          <t>カスタムイメージを使用して AVD ホストプール VM を展開する場合は、大規模な災害が発生した場合でも、それらのアーティファクトがすべてのリージョンで使用可能であることを確認することが重要です。Azure コンピューティング ギャラリー サービスを使用すると、ホスト プールがデプロイされているすべてのリージョンで、冗長ストレージと複数のコピーでイメージをレプリケートできます。</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1384,7 +1384,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
+          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1395,22 +1395,22 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>依存 関係</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>AVD に接続するユーザーの数と、どのリージョンから接続するかを評価する</t>
+          <t>インフラストラクチャとアプリケーションの依存関係を評価する</t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t>適切な計画と展開を行うには、最大ユーザー数と平均同時セッション数を評価することが重要です。</t>
+          <t>AVD インフラストラクチャのユーザがオンプレミスのリソースアクセスを必要とする場合、接続に必要なネットワークインフラストラクチャの高可用性も重要であり、考慮する必要があります。認証インフラストラクチャの回復性を評価および評価する必要があります。依存アプリケーションやその他のリソースの BCDR の側面は、セカンダリ DR の場所の可用性を確保するために考慮する必要があります。</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
@@ -1420,13 +1420,13 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
+          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1445,22 +1445,22 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>すべてのユーザーが同じアプリケーション・セット、異なるホスト・プール構成、OSイメージ(あるいはその両方)を持つかどうかを判断する</t>
+          <t>プロファイルコンテナとオフィスコンテナ内で保護する必要があるデータを評価します</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t>Mutipleホストプールは、さまざまなユーザーセットをサポートするために必要かもしれませんが、必要な数を見積もることをお勧めします。</t>
+          <t>FSLogix ユーザー プロファイル内のすべてのデータが、障害から保護する必要があるわけではありません。さらに、OneDrive やファイル サーバー/共有などの外部ストレージが使用されている場合、FSLogix プロファイルに残っているものは最小限であり、極端な状況では失われる可能性があります。また、プロファイル内のデータを他のストレージ (キャッシュ モードの Outlook 受信トレイなど) から再構築できる場合もあります。</t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1470,13 +1470,13 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
+          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1495,38 +1495,38 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>各ホストプールの外部依存関係を評価する</t>
+          <t>プロファイルコンテナとオフィスコンテナのバックアップ保護戦略を構築する</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>AVD プールの外部リソース (Active Directory、外部ファイル共有またはその他のストレージ、オンプレミスのサービスとリソース、VPN や Express Route などのネットワーク インフラストラクチャ コンポーネント、外部サービス、サード パーティのコンポーネントなど) に対する依存関係を評価して確認する必要があります。これらすべてのリソースについて、AVD ホスト プールからの待機時間を評価し、接続性を考慮する必要があります。さらに、BCDR に関する考慮事項をこれらの依存関係にも適用する必要があります。</t>
+          <t>重要なユーザーデータのデータ損失を防ぐことは重要であり、最初のステップは、どのデータを保存して保護する必要があるかを評価することです。OneDriveまたはその他の外部ストレージを使用している場合は、ユーザープロファイルやOfficeコンテナのデータを保存する必要がない場合があります。重要なユーザー データを保護するには、適切なメカニズムを検討する必要があります。Azure Backup サービスは、Azure Files Standard レベルと Premium レベルに格納されているときに、プロファイルとオフィス コンテナーのデータを保護するために使用できます。Azure NetApp Files Snapshots と Policies は、Azure NetApp Files (すべての層) に使用できます。</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1545,22 +1545,22 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>使用されているクライアント OS と AVD クライアントの種類を確認する</t>
+          <t>BCDRを目的としたプロファイルコンテナストレージレプリケーションの要件と回復性を評価する</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>各クライアントの制限を確認し、可能な場合は複数のオプションを比較します。</t>
+          <t>AVD では、FSLogix コンテナに存在するユーザーデータに複数のレプリケーションメカニズムと戦略を使用できます。プロファイル パターン #1: ネイティブの Azure ストレージ レプリケーション メカニズム (Azure Files Standard GRS レプリケーション、Azure NetApp Files クロスリージョン レプリケーション、VM ベースのファイル サーバー用の Azure Files Sync など)Azure Files にゾーン レプリケート ストレージ (ZRS) または geo レプリケート ストレージ (GRS) を使用することをお勧めします。ローカルのみの回復性を持つ LRS は、ゾーン/リージョンの保護が必要ない場合に使用できます。注: Azure ファイル共有標準は LRS/ZRS/GRS ですが、100 TB の大容量サポートが有効になっている場合は LRS/ZRS のみがサポートされます。?プロファイル パターン #2: FSLogix Cloud Cache は、異なる (最大 4 つの) ストレージ アカウント間でコンテナーをレプリケートするための自動メカニズムで構築されています。クラウドキャッシュは、次の場合にのみ使用する必要があります。ユーザー プロファイルまたは Office コンテナーのデータ可用性が必要 高可用性 SLA は重要であり、リージョンの障害に対する回復性が必要です。選択したストレージ オプションは、BCDR 要件を満たすことができません。たとえば、Azure ファイル共有 Premium レベル、または大きなファイルのサポートが有効になっている Azure ファイル共有標準では、GRS は使用できません。異種ストレージ間のレプリケーションが必要な場合。プロファイル パターン #3: ユーザー データ/プロファイル コンテナーではなく、アプリケーション データに対してのみ geo ディザスター リカバリーを設定する: 重要なアプリケーション データを、OneDrive や独自の組み込み DR メカニズムを備えたその他の外部ストレージなどの個別のストレージに格納します。</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1570,13 +1570,13 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
+          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1595,38 +1595,38 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>ライセンス要件を確認する</t>
+          <t>Azure ネットアップ ファイルの DR 戦略を確認する</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Windows仮想デスクトップワークロードを実行するための適切なライセンスを取得したお客様は、セッションホスト仮想マシンにWindowsライセンスを適用し、別のライセンスを支払うことなくそれらを実行する資格があります。</t>
+          <t>geo ディザスター リカバリー: Azure NetApp Files は基本的に LRS (ローカルにレプリケートされたストレージ) であるため、リージョン間のレプリケーションが必要な場合は、さらに何かを設計する必要があります。現時点でのクロスリージョンの推奨事項は、別の Azure リージョン(およびネットアップボリューム)にレプリケートするネットアップクラウド同期です。バックアップ:バックアップはスナップショットによって処理されますが、自動ではなく、ポリシーを使用してスケジュールする必要があります。https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots。ここに記載されているように、ボリュームあたりのスナップショットの上限(255)があります:https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits。</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
+          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
+          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1645,38 +1645,38 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>PoC を実行してエンドツーエンドのユーザー エクスペリエンスをテストし、ネットワーク待機時間による影響を検証します。</t>
+          <t>Azure Files DR 戦略を確認する</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t>ユーザーの場所と AVD リージョンの展開によっては、ユーザーのエクスペリエンスが最適でない場合があるため、小規模な PoC 環境でできるだけ早くテストすることが重要です。</t>
+          <t>geo ディザスター リカバリー: Azure Files の GRS は、Standard SKU でのみ使用でき、大規模な共有のサポートはないため、ほとんどのお客様のシナリオには適していません。geo レプリケーションが必要な場合は、Azure ファイル共有プレミアムを使用するときに、FSLogix クラウド キャッシュを使用したレプリケーションを評価するか、"リージョン内" 可用性ゾーン (AZ) のみの回復性を考慮する必要があります。バックアップ: Azure Backup は、すべての SKU で Azure ファイル共有を完全にサポートしており、プロファイル コンテナーを保護するために推奨されるソリューションです。OneDriveまたはその他の外部ストレージを使用している場合は、ユーザープロファイルやOfficeコンテナのデータを保存する必要がない場合があります。</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
+          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1695,38 +1695,38 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>ユーザーがフルデスクトップやリモートアプリケーションを使用してAVDにアクセスするかどうかを判断する</t>
+          <t>アプリケーションを AVD ホストプールに展開する方法を決定する</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t>ユーザーにフルデスクトップやリモートアプリケーショングループを提供するかどうかを決定します。</t>
+          <t>アプリケーションは、ゴールデン イメージにプレインストールすることも、MSIX &amp; AppAttach 機能を使用してアタッチすることも、従来の SW 配布方法を使用してプールのデプロイ後にホストに配布することもできます。</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
+          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1745,38 +1745,38 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>すべてのユーザーが同じ RDP 設定を持ちますか?</t>
+          <t>必要なゴールデン画像の数を見積もる</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>RDP 設定は現在、ホスト プール レベルでのみ構成でき、ユーザー/グループごとでは構成できません。</t>
+          <t>彼らは、単一のイメージ、または異なるアプリケーションが組み込まれた複数のイメージに役立つfslogixアプリケーションマスキングを使用しますか?</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
+          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1795,22 +1795,22 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>管理された内部ネットワークから接続するクライアントの RDP ショートパスを評価する</t>
+          <t>ホスト プールの展開に使用する OS イメージを決定する</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>マネージド ネットワークの RDP ショートパスは、リモート デスクトップ クライアントとセッション ホスト間の直接 UDP ベースのトランスポートを確立する Azure 仮想デスクトップの機能です。余分なリレーを削除すると、ラウンドトリップ時間が短縮され、レイテンシの影響を受けやすいアプリケーションや入力メソッドでのユーザーエクスペリエンスが向上します。RDP ショートパスをサポートするには、Azure 仮想デスクトップ クライアントはセッション ホストへの直接の見通し線を必要とし、Windows 10 または Windows 7 を実行していて、Windows デスクトップ クライアントがインストールされている必要があります。</t>
+          <t>各ホスト プールの展開に使用するゲスト OS を決定します: Windows 10 と Windows Server、マーケットプレースとカスタム イメージ</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -1820,13 +1820,13 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1834,7 +1834,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
+          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1845,38 +1845,38 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>使用するホスト・プール・タイプを決定する</t>
+          <t>カスタム イメージを使用する場合は、自動ビルド プロセスがあるかどうかを判断しますか。</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>共有/プールまたは専用/個人</t>
+          <t>何も存在しない場合は、Azure Image Builder を使用してビルド プロセスを自動化することを検討してください。</t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1884,7 +1884,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8468c55a-775c-46e-a5b8-6ad88844ce3b2</t>
+          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1895,38 +1895,38 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>[個人用ホスト プールの種類] で、割り当ての種類を決定します。</t>
+          <t>カスタム イメージを使用する場合、イメージのライフサイクルを整理および管理する計画はありますか?</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>自動割り当てと直接割り当ての違いがよく理解されており、選択したオプションが問題のシナリオに適していることを確認します。</t>
+          <t>Azure コンピューティング ギャラリーを評価します。</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1934,7 +1934,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
+          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1945,22 +1945,22 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>「プールされたホスト・プール・タイプ」で、ロード・バランシング方式を決定します。</t>
+          <t>カスタムイメージを使用する場合は、マスターイメージの構築方法に関する AVD の推奨ベストプラクティスを確認してください。</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t>使用するオプションと使用可能なオプションを確認し、自動スケールを使用する場合は、幅優先に設定されることに注意してください。</t>
+          <t>ゴールデンイメージのカスタマイズに関するいくつかの既知のベストプラクティスと推奨事項がありますので、参照されている記事を確認してください。</t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
@@ -1970,13 +1970,13 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
+          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1995,38 +1995,38 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>展開するさまざまなホスト・プールの数を見積もる</t>
+          <t>仮想デスクトップ最適化ツールの使用状況を評価する</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>選択基準に基づいて、必要なホスト・プールの数はいくつですか。あなたは複数のものを持つことを検討する必要があります:?複数のOSイメージ?複数の地域?異なるハードウェアが必要ですか?異なるホストプールタイプ(共有と個人)?異なるユーザー要件とSLA(トップユーザー、エグゼクティブ、オフィスワーカー対開発者など)?異なるRDP設定(ホストプールレベルで適用)は、「https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties」を参照してください。ホスト プール内の必要な数の VM が最大機能を超えています</t>
+          <t>このツール セットは、ホワイト ペーパー「仮想デスクトップ インフラストラクチャ (VDI) の役割に対する Windows 10 バージョン 2004 の最適化」で参照されている設定を自動的に適用するために作成されました https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004。ホワイトペーパーに記載されているツールの使用および/または最適化を検討する必要があります。</t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
+          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2045,45 +2045,45 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>ワークロード パフォーマンス テストを実行して、使用する最適な Azure VM SKU とサイズを決定します (プールあたりのホスト数を決定します)。</t>
+          <t>AVD セッションホスト設定管理戦略の計画/評価</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>提供されたリンクを使用して SKU 決定の開始点を設定し、パフォーマンス テストを使用して検証します。セッション・ホストごとに本番用に最低4つのコアが選択されていることを確認します(マルチセッション)</t>
+          <t>初期展開後にホスト プール VM の構成を管理するための構成管理ツールが既に導入されているかどうかを確認します (SCCM、MEM/Intune、GPO、3 番目のパーティのソリューションなど)。</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
+          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
+          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2094,45 +2094,45 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>環境のAVDスケーラビリティ制限の確認</t>
+          <t>Microsoft OneDrive が AVD 展開の一部になるかどうかを判断する</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t>参照記事で報告されたAVD容量と制限を確認することが重要です。</t>
+          <t>提供されている記事を確認し、「既知のフォルダーリダイレクト」と「ファイルオンデマンド」を確認します OneDrive 機能を検討し、最終的に採用する必要があります。</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
+          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2143,22 +2143,22 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>セッションホストがGPUを必要とするかどうかを判断する</t>
+          <t>Microsoft Teams が AVD 展開の一部になるかどうかを判断する</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t>GPUを搭載したホストプールには特別な設定が必要ですので、必ず参照記事を確認してください。</t>
+          <t>この記事を確認し、最新バージョンを使用し、Teams の除外を確認して評価し、プロファイルのサイズを小さくしてください。</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -2168,20 +2168,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
+          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2192,45 +2192,45 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Azure の高速ネットワーク機能を利用できる VM SKU を使用することをお勧めします。</t>
+          <t>プロファイル/Office コンテナーと同じストレージ アカウント/共有を使用しないでください</t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>可能な限り、高速ネットワーク機能を備えた VM SKU を活用することをお勧めします。今日、pnlyのWindows Server OSがサポートされています(記事のリストを参照)、将来のWindowsクライアントOSも含まれるかもしれません。</t>
+          <t>MSIX パッケージを格納するには、個別のストレージ アカウント/共有を使用することを強くお勧めします。必要に応じて、ストレージは個別にスケールアウトでき、プロファイル I/O アクティビティの影響を受けません。Azure には、MISX アプリのアタッチに使用できる複数のストレージ オプションが用意されています。Azure Files または Azure NetApp Files は、コストと管理オーバーヘッドの間で最適な価値を提供するため、これらのオプションを使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
+          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2241,22 +2241,22 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory テナントは、少なくとも 1 つのサブスクリプションがリンクされている状態で利用可能である必要があります。</t>
+          <t>MSIX のパフォーマンスに関する考慮事項を確認する</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>Azure サブスクリプションは、Windows Server Active Directory インスタンスまたは Azure AD DS インスタンスを含む、または接続されている仮想ネットワークを含む、同じ Azure AD テナントの親である必要があります。</t>
+          <t>参照記事では、AVD コンテキストでの MSIX の使用に関するパフォーマンスに関する考慮事項はほとんどありませんが、慎重に確認してください。</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2266,20 +2266,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
+          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2290,38 +2290,38 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Windows Server Active Directory フォレスト/ドメインが Azure Active Directory と同期している</t>
+          <t>MSIX 共有の適切なセッション ホストのアクセス許可を確認する</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>これは、Azure AD Connect (ハイブリッド組織の場合) または Azure AD ドメイン サービス (ハイブリッド組織またはクラウド組織の場合) を使用して構成できます。</t>
+          <t>MSIX アプリのアタッチには、ファイル共有にアクセスするための読み取り専用アクセス許可が必要です。MSIX アプリケーションを Azure Files に格納する場合は、セッション ホストに対して、すべてのセッション ホスト VM に、共有に対するストレージ アカウント ロールベースのアクセス制御 (RBAC) とファイル共有の新技術ファイル システム (NTFS) アクセス許可の両方を割り当てる必要があります。</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
+          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2340,22 +2340,22 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Windows 仮想デスクトップに接続するためのユーザー アカウントの要件を確認する</t>
+          <t>3番目のパーティ製アプリケーション用の MSIX パッケージ</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>(1) ユーザーは、Azure AD に接続されているのと同じ Active Directory から取得する必要があります。Windows Virtual Desktop は、B2B または MSA アカウントをサポートしていません。(2) Windows 仮想デスクトップのサブスクライブに使用する UPN は、VM が参加している Active Directory ドメインに存在する必要があります。</t>
+          <t>3番目のパーティのソフトウェアベンダーは、MIXパッケージを提供する必要があります、それは顧客アプリケーションの所有者からの適切なサポートなしで変換手順を試みることはお勧めしません。</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -2365,13 +2365,13 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2379,7 +2379,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
+          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2390,38 +2390,38 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>作成されるAVDセッションホストのVM要件を確認する</t>
+          <t>MSIX パッケージの自動更新を無効にする</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>VM は、標準ドメインに参加しているか、ハイブリッド AD に参加している必要があります。仮想マシンを Azure AD に参加させることはできません。</t>
+          <t>MSIX アプリのアタッチでは、MSIX アプリケーションの自動更新がサポートされないため、無効にする必要があります。</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>EA962A15-9394-46da-A7CC-3923266B2258</t>
+          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2440,38 +2440,38 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory Domain Services (AAD-DS) を AVD に使用する前に、必ず制限事項を確認してください。</t>
+          <t>オペレーティング システムのサポートを確認する</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>自己管理型の Active Directory Domain Services、Azure Active Directory、およびマネージド Azure Active Directory Domain Services の比較</t>
+          <t>MSIX &amp; App Attach を利用するには、AVD ホスト プールのゲスト OS イメージが Windows 10 Enterprise または Windows 10 Enterprise Multi-session バージョン 2004 以降である必要があります。</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2479,7 +2479,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
+          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2490,22 +2490,22 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>セッション ホスト</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>AVD ホスト プールの近くに Azure VNET 環境に少なくとも 2 つのアクティブ ディレクトリ ドメイン コントローラー (DC) を作成する</t>
+          <t>ホスト プールの展開のための Gen2 VM の使用状況を評価する</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t>Azure の AD DC は、AVD セッション ホストにログインするユーザーの待機時間を短縮し、最終的には Azure NetApp Files と AD 統合の待機時間を短縮することをお勧めします。ADC は、すべての子ドメインの DC と通信できる必要があります。別の方法として、オンプレミス接続を使用して AD DC に到達する必要があります。</t>
+          <t>ホスト プールのデプロイに使用する VM SKU を選択したら、セキュリティを強化し、機能を向上させるために、Gen2 タイプの SKU を使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -2515,13 +2515,13 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2529,7 +2529,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
+          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2540,32 +2540,32 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>各ホスト プールの Active Directory に特定の OU を作成する</t>
+          <t>使用するホスト・プール・タイプの決定</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t>ホスト プールごとに個別の OU を別の OU 階層の下に作成することをお勧めします。これらの OU には、AVD セッション ホストのコンピューター アカウントが含まれます。</t>
+          <t>共有/プールまたは専用/個人</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G37" s="22" t="n"/>
@@ -2579,7 +2579,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2590,22 +2590,22 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>OU に適用され、ホスト プール VM の機能に影響を与えるドメイン GPO を確認する</t>
+          <t>パーソナルホストプールタイプで、割り当てタイプを決定します</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>慎重に確認し、最終的には AVD ホスト プールを含む OU への GPO の継承をブロック/フィルター処理します。</t>
+          <t>自動割り当てと直接割り当ての違いがよく理解されており、選択したオプションが問題のシナリオに適していることを確認します。</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2615,13 +2615,13 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2629,7 +2629,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>7126504b-b47a-4393-a080-327294798b15</t>
+          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2640,22 +2640,22 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>VM をドメインに参加させるアクセス許可のみを持つ専用のユーザー アカウントを作成する</t>
+          <t>プールされたホストプールタイプで、負荷分散方法を決定します</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t>特定のアクセス許可を持つ特定の専用アカウントを持ち、既定の 10 参加制限なしで使用することをお勧めします。</t>
+          <t>使用するものと使用可能なオプションを確認し、自動スケーリングを使用する場合は幅優先に設定されることに注意してください。</t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
@@ -2665,13 +2665,13 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2679,7 +2679,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
+          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2690,38 +2690,38 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>各ホスト プール アプリケーション グループ (DAG または RAG) へのアクセスを許可するユーザー セットごとにドメイン ユーザー グループを作成します。</t>
+          <t>展開するさまざまなホスト プールの数を見積もる</t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t>ユーザーごとにアクセス権を付与するのではなく、AD グループを使用し、Azure AD の ADC を使用してレプリケートします。</t>
+          <t>選択基準に基づいて、必要なホストプールの数はいくつですか。次の場合は、複数のものを持つことを検討する必要があります。複数のOSイメージ?複数の地域?別のハードウェアが必要ですか?異なるホストプールタイプ(共有と個人)?異なるユーザー要件とSLA(トップユーザー、エグゼクティブ、オフィスワーカー対開発者など)?さまざまな RDP 設定 (ホスト プール レベルで適用) については、「https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties」を参照してください。ホスト プール内の必要な数の VM が最大機能を超えています</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2729,7 +2729,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
+          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2740,38 +2740,38 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Azure Files AD 統合で使用されるアカウントの組織のパスワード有効期限ポリシーを確認する</t>
+          <t>ワークロード パフォーマンス テストを実行して、使用する最適な Azure VM SKU とサイズを決定します (プールあたりのホスト数を決定します)</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>Azure ファイル共有と Active Directory 認証を統合する手順の一部として、ストレージ アカウント (ファイル共有) を表す AD アカウントが作成されます。コンピューター アカウントまたはサービス ログオン アカウントとして登録することを選択できます。詳細については、「FAQ」を参照してください。コンピューター アカウントの場合、AD で 30 日に設定された既定のパスワード有効期限があります。同様に、サービス ログオン アカウントには、AD ドメインまたは組織単位 (OU) で既定のパスワードの有効期限が設定されている場合があります。どちらのアカウントの種類でも、AD 環境で構成されているパスワードの有効期限を確認し、パスワードの最大有効期間に達する前に、AD アカウントのストレージ アカウント ID のパスワードを更新することを計画することをお勧めします。AD に新しい AD 組織単位 (OU) を作成し、それに応じてコンピューター アカウントまたはサービス ログオン アカウントのパスワード有効期限ポリシーを無効にすることを検討できます。</t>
+          <t>提供されているリンクを使用して SKU 決定の開始点を設定し、パフォーマンス テストを使用して検証します。セッション ホストごとに少なくとも 4 つのコアが本番用に選択されていることを確認します (マルチセッション)</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2779,7 +2779,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
+          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2790,38 +2790,38 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>オンプレミス環境のハイブリッド接続アーキテクチャの確認</t>
+          <t>環境の AVD スケーラビリティの制限を確認する</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド接続の種類エクスプレスルート、VPN、NVAは?</t>
+          <t>参照記事で報告されている AVD の容量と制限を確認することが重要です。</t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2829,7 +2829,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
+          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2840,22 +2840,22 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>ユーザーが AVD ホスト プールからオンプレミスにアクセスする必要があるリソースを評価する</t>
+          <t>セッション ホストに GPU が必要かどうかを判断する</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>帯域幅の要件を評価し、VPN/ER 帯域幅が十分であり、待機時間が許容可能であることを確認します。</t>
+          <t>GPU を搭載したホスト プールには特別な構成が必要ですので、参照先の記事を必ず確認してください。</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
@@ -2865,13 +2865,13 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2879,7 +2879,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
+          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2890,38 +2890,38 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>AVD サービスのランディング ゾーン ネットワーク トポロジを確認する</t>
+          <t>Azure の高速ネットワーク機能を利用できる VM SKU を使用することをお勧めします。</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>CAF に基づく AVD ホスト プールを配置する新しいプールを確認または推奨します (vWAN vs. Hub &amp; Spoke)</t>
+          <t>可能な限り、高速ネットワーク機能を備えた VM SKU を活用することをお勧めします。現在、Windows Server OSがサポートされており(記事のリストを参照)、将来的にはWindowsクライアントOSも含まれる可能性があります。</t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2929,7 +2929,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
+          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2940,22 +2940,22 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>複数のホスト・プールのVNETとサブネットの配置を評価する</t>
+          <t>AVD に接続するユーザーの数と、どのリージョンから接続するかを評価する</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t>各サブネットに、AVD ホスト プールをスケーリングするのに十分な領域があることを確認します。ホストプールごとに、可能であれば別々のサブネットを使用することをお勧めします。</t>
+          <t>適切な計画と展開を行うには、最大ユーザー数と平均同時セッション数を評価することが重要です。</t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
@@ -2965,20 +2965,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
+          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2989,22 +2989,22 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>AVDホストのインターネットアウトバウンドトラフィックを制御/制限する必要がありますか?</t>
+          <t>すべてのユーザーが同じアプリケーション・セットを持つか、異なるホスト・プール構成やOSイメージを使用するかを決定する</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>いくつかのオプションが利用可能です。Azure ファイアウォールまたは NVA ファイアウォール、NSG および/またはプロキシを使用できます。NSG は URL によってのみ有効/無効にすることはできません。ただし、ポートとプロトコルのみです。プロキシは、ユーザーブラウザの明示的な設定としてのみ使用してください。AVD で Azure Firewall Premium を使用する方法の詳細については、https://aka.ms/AVDfirewall と https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop を参照してください。AVD URL アクセスの要件の完全なリストを必ず確認してください。</t>
+          <t>異なるユーザー セットをサポートするために複数のホスト プールが必要になる可能性がある場合は、必要な数を見積もることをお勧めします。</t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
@@ -3014,13 +3014,13 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://aka.ms/AVDfirewall</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
+          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3039,38 +3039,38 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>AVDホスト上のユーザーに対してのみインターネット送信トラフィックを制御/制限する必要がありますか?</t>
+          <t>各ホスト プールの外部依存関係を評価する</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender エンドポイントを使用してユーザーの Web ナビゲーションを制御する方法を検討してください。詳細については、「セキュリティ」セクションを参照してください。</t>
+          <t>AVD プールの外部のリソース(Active Directory、外部ファイル共有またはその他のストレージ、オンプレミスのサービスとリソース、VPN や Express Route などのネットワーク インフラストラクチャ コンポーネント、外部サービス、サードパーティ コンポーネントなど)への依存関係を評価および確認する必要があります。これらすべてのリソースについて、AVD ホストプールからの遅延を評価し、接続を考慮する必要があります。さらに、BCDR に関する考慮事項をこれらの依存関係にも適用する必要があります。</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -3078,7 +3078,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
+          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3089,45 +3089,45 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>UDR で AVD ホスト プール サブネットを確認する</t>
+          <t>使用されているクライアント OS と AVD クライアントタイプを確認する</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t>カスタム UDR は、AVD ホスト プール サブネットに適用できます (たとえば、Azure ファイアウォールまたは NVA にリダイレクトする場合など)。この場合、AVD コントロール プレーンへのアウトバウンド トラフィックの最適なパスが使用されていることを確認するために、慎重に確認することをお勧めします。サービス タグを UDR で使用できるようになりました。これにより、AVD 管理プレーンのトラフィックを簡単にホワイトリストに登録できます。https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop</t>
+          <t>各クライアントの制限事項を確認し、可能な場合は複数のオプションを比較します。</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
+          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3138,45 +3138,45 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>AVDコントロールプレーンエンドポイントがアクセス可能であることを確認する</t>
+          <t>ライセンス要件を確認する</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>セッション ホストによる AVD コントロール プレーン アクセスに必要な URL については、https://docs.microsoft.com/azure/virtual-desktop/safe-url-list を参照してください。チェックツールは、セッションホストからの接続を確認するために使用できます:https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool。</t>
+          <t>Windows Virtual Desktop ワークロードを実行するための適切なライセンスを持つお客様は、セッション ホスト仮想マシンに Windows ライセンスを適用し、別のライセンスを支払うことなく実行できます。</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
+          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
+          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3187,38 +3187,38 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>各ユーザーに必要なネットワーク帯域幅と、VM SKU の合計を確認します。</t>
+          <t>PoC を実行してエンドツーエンドのユーザー エクスペリエンスをテストし、ネットワーク遅延による影響を検証する</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t>特定のワークロードの種類に基づいて、ユーザーのネットワーク帯域幅の要件を評価および確認することをお勧めします。参照先の記事は一般的な見積もりと推奨事項を提供しますが、適切なサイズ設定を行うには特定の手段が必要です。</t>
+          <t>ユーザーの場所と AVD リージョンの展開によっては、ユーザーのエクスペリエンスが最適でない場合があるため、小規模な PoC 環境でできるだけ早くテストすることが重要です。</t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3226,7 +3226,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
+          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3237,38 +3237,38 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>セッションホスト</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>ホスト プール展開のための Gen2 VM の使用状況を評価する</t>
+          <t>ユーザーがフルデスクトップやリモートアプリケーションを使用して AVD にアクセスするかどうかを決定する</t>
         </is>
       </c>
       <c r="D51" s="22" t="inlineStr">
         <is>
-          <t>ホスト プールの展開に使用する VM SKU を選択したら、セキュリティの強化と機能強化のために Gen2 タイプの SKU を使用することをお勧めします。</t>
+          <t>ユーザーにフルデスクトップまたはリモートアプリケーショングループを提供するかどうかを決定します。</t>
         </is>
       </c>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3276,7 +3276,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
+          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3287,38 +3287,38 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>AVD ホスト プールへのアプリケーションの展開方法を決定する</t>
+          <t>すべてのユーザーの RDP 設定は同じですか?</t>
         </is>
       </c>
       <c r="D52" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションは、ゴールデンイメージにプレインストールすることも、MSIX &amp; AppAttach 機能を使用してアタッチすることも、従来の SW 配布方法を使用してプールの展開後にホストに配布することもできます。</t>
+          <t>RDP 設定は、現在、ユーザー/グループごとではなく、ホスト プール レベルでのみ構成できます。</t>
         </is>
       </c>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3326,7 +3326,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
+          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3337,22 +3337,22 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>必要なゴールデン画像の数を見積もる</t>
+          <t>管理された内部ネットワークから接続するクライアントの RDP ShortPath を評価する</t>
         </is>
       </c>
       <c r="D53" s="22" t="inlineStr">
         <is>
-          <t>彼らは単一のイメージに役立つfslogixアプリケーションマスキングを使用するのか、それとも異なるアプリケーションがベイクインされた複数のイメージを使用するのか:複数のイメージを使用する必要があるのは何か?</t>
+          <t>マネージド ネットワークの RDP ショートパスは、リモート デスクトップ クライアントとセッション ホスト間の直接 UDP ベースのトランスポートを確立する Azure 仮想デスクトップの機能です。余分なリレーを削除すると、ラウンドトリップ時間が短縮され、遅延の影響を受けやすいアプリケーションや入力方式のユーザーエクスペリエンスが向上します。RDP ショートパスをサポートするには、Azure 仮想デスクトップ クライアントがセッション ホストへの直接の通信経路を必要とし、Windows 10 または Windows 7 のいずれかを実行し、Windows デスクトップ クライアントがインストールされている必要があります。</t>
         </is>
       </c>
       <c r="E53" s="22" t="inlineStr">
@@ -3362,20 +3362,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
+          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3386,38 +3386,38 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>ホスト プールの展開に使用する OS イメージを決定する</t>
+          <t>どの Azure リージョンにデプロイされるかを決定します。</t>
         </is>
       </c>
       <c r="D54" s="22" t="inlineStr">
         <is>
-          <t>各ホスト プールの展開に使用するゲスト OS を決定します (Windows 10 と Windows Server、マーケットプレースとカスタム イメージ)。</t>
+          <t>AVDは非地域サービスであり、ホストプールは任意のリージョンで作成でき、最も近いフロントエンドからの自動リダイレクトが自動的に行われます。</t>
         </is>
       </c>
       <c r="E54" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3425,7 +3425,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
+          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3436,45 +3436,45 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>カスタム イメージを使用する場合は、自動ビルド プロセスがあるかどうかを判断しますか。</t>
+          <t>オンプレミス環境への接続にハイブリッド接続が必要かどうかを判断する</t>
         </is>
       </c>
       <c r="D55" s="22" t="inlineStr">
         <is>
-          <t>何も存在しない場合は、Azure Image Builder を使用してビルド プロセスを自動化することを検討してください。</t>
+          <t>オンプレミス環境に接続する必要がある場合は、現在の接続オプションを評価するか、必要な接続を計画します。</t>
         </is>
       </c>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
+          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3485,45 +3485,45 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>カスタム イメージを使用する場合、イメージのライフサイクルを整理および管理する計画はありますか。</t>
+          <t>ユーザーの場所と Azure AVD インフラストラクチャの間の待機時間を評価しましたか?</t>
         </is>
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Azure コンピューティング ギャラリーを評価します。</t>
+          <t>"Windows 仮想デスクトップ エクスペリエンス推定ツール" ツールを実行して、ホスト プールをデプロイするのに最適な Azure リージョンを選択します。150 ミリ秒を超える待機時間を超えると、ユーザー エクスペリエンスが最適でなくなる可能性があります。</t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
+          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3534,22 +3534,22 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>カスタムイメージを使用する場合は、マスターイメージの構築方法に関するAVDの推奨ベストプラクティスを確認してください。</t>
+          <t>AVD サービスのメタデータの場所を決定する</t>
         </is>
       </c>
       <c r="D57" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージのカスタマイズに関する既知のベストプラクティスと推奨事項がいくつかありますので、参照されている記事を必ず確認してください。</t>
+          <t>AVD は、特定の地理的な場所でサービスを実行するためにのみメタデータを保存し、顧客の要件に基づいて、現在利用可能なものと適切なものを決定します。</t>
         </is>
       </c>
       <c r="E57" s="22" t="inlineStr">
@@ -3559,20 +3559,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
+          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3583,45 +3583,45 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>仮想デスクトップ最適化ツールの使用状況を評価する</t>
+          <t>選択したリージョンの特定の VM サイズの Azure クォータと可用性を確認する</t>
         </is>
       </c>
       <c r="D58" s="22" t="inlineStr">
         <is>
-          <t>このツールセットは、ホワイトペーパー「仮想デスクトップインフラストラクチャ (VDI) ロール用の Windows 10 バージョン 2004 の最適化」で参照されている設定を自動的に適用するために作成されまし https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004。ホワイトペーパーに記載されているツールの使用および/または最適化を考慮する必要があります。</t>
+          <t>特定の VM SKU を確認し (特に GPU またはハイスペックの SKU が必要な場合は)、最終的には Azure NetApp Files の可用性 (使用されている場合) を確認します。</t>
         </is>
       </c>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
+          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3632,45 +3632,45 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>AVDセッション・ホスト構成管理戦略の計画/評価</t>
+          <t>選択したリージョンのアベイラビリティーゾーン (AZ) の可用性を確認する</t>
         </is>
       </c>
       <c r="D59" s="22" t="inlineStr">
         <is>
-          <t>初期展開後にホスト プール VM 構成を管理するための構成管理ツール (SCCM、MEM/Intune、GPO、サード パーティ製ソリューションなど) が既に用意されているかどうかを確認します。</t>
+          <t>詳細については、「BCDR 」セクションを参照してください。</t>
         </is>
       </c>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
+          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3681,22 +3681,22 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Microsoft OneDrive が AVD 展開の一部になるかどうかを判断する</t>
+          <t>AVD ホスト プールに近い Azure VNET 環境に少なくとも 2 つのアクティブ ディレクトリ ドメイン コントローラー (DC) を作成します。</t>
         </is>
       </c>
       <c r="D60" s="22" t="inlineStr">
         <is>
-          <t>提供された記事を確認し、「既知のフォルダリダイレクト」と「ファイルオンデマンド」OneDriveの機能を検討し、最終的に採用する必要があります。</t>
+          <t>Azure の AD DC は、AVD セッションホストにログインするユーザーのレイテンシーを短縮し、最終的には Azure NetApp Files と AD 統合のレイテンシーを削減するために推奨されます。ADCは、すべての子ドメインのDCと通信できる必要があります。別の方法として、オンプレミス接続を使用して AD DC に到達する必要があります。</t>
         </is>
       </c>
       <c r="E60" s="22" t="inlineStr">
@@ -3706,20 +3706,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
+          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
+          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3730,45 +3730,45 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Microsoft TeamsがAVD展開の一部になるかどうかを判断する</t>
+          <t>ホスト プールごとにアクティブ ディレクトリに特定の OU を作成する</t>
         </is>
       </c>
       <c r="D61" s="22" t="inlineStr">
         <is>
-          <t>この記事を確認し、最新バージョンを使用し、Teams の除外を確認して評価し、プロファイルのサイズを縮小してください。</t>
+          <t>別の OU 階層の下にホスト プールごとに個別の OU を作成することをお勧めします。これらの OU には、AVD セッションホストのマシンアカウントが含まれます。</t>
         </is>
       </c>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3779,45 +3779,45 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>プロファイル/Office コンテナーと同じストレージ アカウント/共有を使用しないでください。</t>
+          <t>OU に適用され、ホスト プール VM の機能に影響を与えるドメイン GPO を確認する</t>
         </is>
       </c>
       <c r="D62" s="22" t="inlineStr">
         <is>
-          <t>MSIX パッケージを格納するために、個別のストレージ アカウント/共有を使用することを強くお勧めします。必要に応じて、ストレージは独立してスケールアウトでき、プロファイルI/Oアクティビティの影響を受けません。Azure には、MISX アプリの接続に使用できる複数のストレージ オプションが用意されています。Azure Files または Azure NetApp Files は、コストと管理のオーバーヘッドの間で最適な価値を提供するため、これらのオプションを使用することをお勧めします。</t>
+          <t>慎重に確認し、最終的に AVD ホストプールを含む OU への GPO の継承をブロック/フィルタリングします。</t>
         </is>
       </c>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
+          <t>7126504b-b47a-4393-a080-327294798b15</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3828,38 +3828,38 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>MSIX のパフォーマンスに関する考慮事項の確認</t>
+          <t>VM をドメインに参加させるためのアクセス許可のみを持つ専用ユーザー アカウントを作成する</t>
         </is>
       </c>
       <c r="D63" s="22" t="inlineStr">
         <is>
-          <t>参照された記事では、AVDコンテキストでのMSIXの使用に関する重要なパフォーマンス上の考慮事項はほとんど報告されていませんが、慎重に確認してください。</t>
+          <t>特定のアクセス許可を持つ特定の専用アカウントを持ち、既定の 10 回の参加制限がないことをお勧めします。</t>
         </is>
       </c>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3867,7 +3867,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
+          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3878,22 +3878,22 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>MSIX 共有の適切なセッション ホストのアクセス許可を確認する</t>
+          <t>各ホスト プール アプリケーション グループ (DAG または RAG) へのアクセスが許可されるユーザーのセットごとにドメイン ユーザー グループを作成します。</t>
         </is>
       </c>
       <c r="D64" s="22" t="inlineStr">
         <is>
-          <t>MSIX アプリの添付には、ファイル共有にアクセスするための読み取り専用のアクセス許可が必要です。MSIX アプリケーションを Azure Files に格納している場合は、セッション ホストに対して、すべてのセッション ホスト VM に、ストレージ アカウントの役割ベースのアクセス制御 (RBAC) とファイル共有の新しいテクノロジ ファイル システム (NTFS) の両方のアクセス許可を共有に割り当てる必要があります。</t>
+          <t>ユーザーごとにアクセスを許可するのではなく、AD グループを使用し、Azure AD の ADC を使用してレプリケートします。</t>
         </is>
       </c>
       <c r="E64" s="22" t="inlineStr">
@@ -3903,13 +3903,13 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3917,7 +3917,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
+          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3928,38 +3928,38 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>サードパーティ製アプリケーション用の MSIX パッケージ</t>
+          <t>Azure Files AD 統合で使用されるアカウントの組織のパスワード有効期限ポリシーを確認する</t>
         </is>
       </c>
       <c r="D65" s="22" t="inlineStr">
         <is>
-          <t>サードパーティのソフトウェアベンダーはMSIXパッケージを提供する必要がありますが、アプリケーション所有者からの適切なサポートなしに変換手順を試みることはお勧めしません。</t>
+          <t>Azure ファイル共有と Active Directory 認証を統合する手順の一環として、ストレージ アカウント (ファイル共有) を表す AD アカウントが作成されます。コンピューター アカウントまたはサービス ログオン アカウントとして登録することを選択できます (詳細については、FAQ を参照してください)。コンピューター アカウントの場合、AD には既定のパスワードの有効期限が 30 日に設定されています。同様に、サービス ログオン アカウントには、AD ドメインまたは組織単位 (OU) に既定のパスワード有効期限が設定されている場合があります。どちらのアカウントの種類でも、AD 環境で構成されているパスワードの有効期限を確認し、パスワードの最大有効期間の前に AD アカウントのストレージ アカウント ID のパスワードを更新することを計画することをお勧めします。AD に新しい AD 組織単位 (OU) を作成し、それに応じてコンピューター アカウントまたはサービス ログオン アカウントのパスワード有効期限ポリシーを無効にすることを検討できます。</t>
         </is>
       </c>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3967,7 +3967,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
+          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3978,45 +3978,45 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>MSIX パッケージの自動更新を無効にする</t>
+          <t>Azure Active Directory テナントは、少なくとも 1 つのサブスクリプションがリンクされている状態で使用可能である必要があります</t>
         </is>
       </c>
       <c r="D66" s="22" t="inlineStr">
         <is>
-          <t>MSIX アプリ接続は MSIX アプリケーションの自動更新をサポートしていないため、無効にする必要があります。</t>
+          <t>Azure サブスクリプションは、Windows Server Active Directory または Azure AD DS インスタンスを含む、または Azure AD DS インスタンスに接続されている仮想ネットワークを含む、同じ Azure AD テナントの親である必要があります。</t>
         </is>
       </c>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -4027,38 +4027,38 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>オペレーティング・システムのサポートの確認</t>
+          <t>Windows Server Active Directory フォレスト/ドメインが Azure Active Directory と同期している</t>
         </is>
       </c>
       <c r="D67" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; App Attach を活用するには、AVD ホスト プールのゲスト OS イメージが Windows 10 Enterprise または Windows 10 Enterprise マルチセッション バージョン 2004 以降である必要があります。</t>
+          <t>これは、Azure AD Connect (ハイブリッド組織の場合) または Azure AD ドメイン サービス (ハイブリッド組織またはクラウド組織の場合) を使用して構成できます。</t>
         </is>
       </c>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -4066,7 +4066,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
+          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4077,22 +4077,22 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>セッションホスト</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>セッション・ホストに使用する管理対象ディスクのタイプを決定する</t>
+          <t>Windows 仮想デスクトップに接続するためのユーザー アカウント要件を確認する</t>
         </is>
       </c>
       <c r="D68" s="22" t="inlineStr">
         <is>
-          <t>標準HDD、標準SSD、またはプレミアムSSD、エフェメラルディスクはサポートされていません、ウルトラディスクは推奨されません。ユーザー密度が低くない場合、およびクラウドキャッシュを使用する場合は、OSディスクのプレミアムを評価することをお勧めします。</t>
+          <t>(1) ユーザーは、Azure AD に接続されているのと同じ Active Directory から取得する必要があります。 Windows 仮想デスクトップは、B2B または MSA アカウントをサポートしていません。(2) Windows 仮想デスクトップのサブスクライブに使用する UPN は、VM が参加しているアクティブ ディレクトリ ドメインに存在する必要があります。</t>
         </is>
       </c>
       <c r="E68" s="22" t="inlineStr">
@@ -4102,13 +4102,13 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4127,38 +4127,38 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>FSLogixプロファイルとOfficeコンテナに使用するストレージバックエンドソリューションを決定する</t>
+          <t>作成される AVD セッションホストの VM 要件を確認する</t>
         </is>
       </c>
       <c r="D69" s="22" t="inlineStr">
         <is>
-          <t>Azure NetApp Files, Azure Files, VM based File Server.ファイルサーバーは推奨されません。Azure Files Premium は、通常、出発点として適しています。NetAppは通常、大規模/高パフォーマンスの環境にのみ必要です。</t>
+          <t>VM は、Standard ドメイン参加済みまたはハイブリッド AD 参加済みである必要があります。仮想マシンを Azure AD に参加させることはできません。</t>
         </is>
       </c>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -4166,7 +4166,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4177,22 +4177,22 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>プロファイル コンテナーを Office コンテナーから分離する可能性を評価する</t>
+          <t>AVD に Azure Active Directory ドメイン サービス (AAD-DS) を使用する前に、制限事項を確認してください。</t>
         </is>
       </c>
       <c r="D70" s="22" t="inlineStr">
         <is>
-          <t>Windows 仮想デスクトップでは、以下の「障害復旧」セクションで説明するように、特定のビジネス継続性と障害復旧 (BCDR) シナリオを計画していない限り、Office コンテナーなしでプロファイル コンテナーを使用することをお勧めします。https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>セルフマネージド Active Directory Domain Services、Azure Active Directory、および管理された Azure Active Directory Domain Services の比較</t>
         </is>
       </c>
       <c r="E70" s="22" t="inlineStr">
@@ -4202,13 +4202,13 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4216,7 +4216,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4227,38 +4227,38 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>ホスト・プール要件をサポートするためのストレージの拡張性の制限を確認</t>
+          <t>ホスト プールの自動スケーリング機能の要件を評価する</t>
         </is>
       </c>
       <c r="D71" s="22" t="inlineStr">
         <is>
-          <t>プロファイル コンテナーのストレージ パフォーマンス要件を見積もるための出発点として、定常状態ではユーザーあたり 10 IOPS、サインイン/サインアウト中はユーザーあたり 50 IOPS を想定することをお勧めします。</t>
+          <t>スケーリング ツールは、セッション ホスト VM のコストを最適化したいお客様向けに、低コストの自動化オプションを提供します。スケーリング ツールを使用して、ピーク時とオフピーク時の営業時間に基づいて VM を起動および停止するようにスケジュールしたり、CPU コアあたりのセッション数に基づいて VM をスケールアウトしたり、オフピーク時に VM をスケールインしたりして、セッション ホスト VM の最小数を実行したままにすることができます。パーソナルホストプールタイプではまだ使用できないため、ホストプールごとに個別に設定することをお勧めします。</t>
         </is>
       </c>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4266,7 +4266,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4277,38 +4277,38 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>NetApp ファイル ストレージを使用している場合は、特定のリージョンのストレージ サービスの可用性を確認します。</t>
+          <t>AVD に関する Azure アドバイザーの推奨事項を定期的に確認する</t>
         </is>
       </c>
       <c r="D72" s="22" t="inlineStr">
         <is>
-          <t>DRの目的で2番目のリージョンが必要な場合は、NetAppの可用性も確認します。</t>
+          <t>Azure Advisor は、構成とテレメトリを分析して、一般的な問題を解決するためのパーソナライズされた推奨事項を提供します。これらの推奨事項を使用すると、信頼性、セキュリティ、オペレーショナル エクセレンス、パフォーマンス、コストに関して Azure リソースを最適化できます。</t>
         </is>
       </c>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4316,7 +4316,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4327,38 +4327,38 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>最適なパフォーマンスを得るには、ストレージ ソリューションと FSLogix プロファイル コンテナーを同じデータ センターの場所に配置する必要があります。</t>
+          <t>ゴールデンイメージ更新管理戦略を計画する</t>
         </is>
       </c>
       <c r="D73" s="22" t="inlineStr">
         <is>
-          <t>可能な限り、リージョン間のネットワーク トラフィックに関連する追加の待機時間とコストの発生を避けます。</t>
+          <t>ゴールデン イメージの更新を管理するための戦略を準備します (たとえば、セキュリティ修正プログラムの適用やイメージ内にインストールされているアプリケーションの更新など)。Azure Image Builder サービスは、VM のビルドとカスタマイズを自動化するためのファースト パーティのソリューションです。 ARM テンプレートを使用して新しいホストを作成し、古いホストを使用停止にすることができます。 https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool 推奨されるアプローチは、新しいプールをサイドバイサイドで作成し、ロールバックしやすく、専用プールに使用できないARMテンプレートを使用してVMを再デプロイして数を増やすことも実行可能なオプションです。また、既存のソフトウェア配布方法を使用して、SCCM などを使用して再展開せずにイメージを更新することもできます。</t>
         </is>
       </c>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4366,7 +4366,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4377,22 +4377,22 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>FSLogix の推奨ウイルス対策除外を構成します (接続時に VHD(x) ファイルをスキャンしないことを含みます)。</t>
+          <t>セッションホストのパッチ適用と更新戦略を計画する</t>
         </is>
       </c>
       <c r="D74" s="22" t="inlineStr">
         <is>
-          <t>参照記事に記載されているように、FSLogixプロファイルコンテナ仮想ハードドライブに対して次のウイルス対策除外を設定してください。</t>
+          <t>お客様にはいくつかのオプションがあります。- Microsoft エンドポイント構成マネージャー、この記事では、Windows 10 エンタープライズ マルチセッションを実行している Windows 仮想デスクトップ ホストに更新プログラムを自動的に適用するように Microsoft エンドポイント構成マネージャーを構成する方法について説明します。 https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- マイクロソフト Intune : https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)- OS をサポートする第三者 - Azure Update Management (Azure Automation)、現在はクライアント OS ではサポートされていません: https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt は、パッチ適用戦略から離れ、可能であれば再イメージ化戦略に移行することをお勧めします。</t>
         </is>
       </c>
       <c r="E74" s="22" t="inlineStr">
@@ -4402,13 +4402,13 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4416,7 +4416,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4427,38 +4427,38 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>FSLogix レジストリ キーを確認し、適用するレジストリ キーを決定します。</t>
+          <t>AVD テストカナリア環境の要件を評価する</t>
         </is>
       </c>
       <c r="D75" s="22" t="inlineStr">
         <is>
-          <t>デフォルトの基本設定と推奨設定はこちらです: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises 基本セットについてはこちらを参照してください: 完全な参照についてはこちらを https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee してください: https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>ホスト プールは、Windows 仮想デスクトップ環境内の 1 つ以上の同一の仮想マシンのコレクションです。サービス更新プログラムが最初に適用される検証ホスト プールを作成することを強くお勧めします。これにより、サービスの更新を標準環境または非検証環境に適用する前に監視できます。</t>
         </is>
       </c>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4466,7 +4466,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4477,38 +4477,38 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>同じプロファイルへの同時接続または複数接続の使用状況の確認</t>
+          <t>ホスト プールの展開戦略を決定する</t>
         </is>
       </c>
       <c r="D76" s="22" t="inlineStr">
         <is>
-          <t>同時接続または複数接続は、Windows 仮想デスクトップでは推奨されません。ベスト プラクティスは、セッションごとに異なるプロファイルの場所を (ホスト プールとして) 作成することです。</t>
+          <t>AVD ホスト プールは、Azure ポータル、ARM テンプレート、Azure CLI ツール、Powershell、登録トークンを使用した手動 VM 作成、Terraform など、いくつかの方法でデプロイできます。自動化および CI/CD ツールによる自動デプロイをサポートするために、適切な方法を採用することが重要です。</t>
         </is>
       </c>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4516,7 +4516,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4527,38 +4527,38 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>ストレージ・サイジングに関するベスト・プラクティスと主な考慮事項を確認する</t>
+          <t>トークンの更新のために 90 日ごとに VM を定期的にオンにする</t>
         </is>
       </c>
       <c r="D77" s="22" t="inlineStr">
         <is>
-          <t>テスト環境で検証するには、ワークロードに応じて、各ユーザーに対して 5 ~ 15 IOPS を最初に考慮する必要があります。Azure ファイル: 1 株あたり最大 100,000 IOPS (最大 100 TB)、3 ミリ秒の待機時間で最大 5 Gbps のプレミアム。Azure Files のプロビジョニング方法、つまり IOPS がプロビジョニングされた SIZE と厳密に結びついていることに注意してください。場合によってはバースト サイジング機能。十分な IOPS を確保するために、必要以上のスペースを UPFRONT でプロビジョニングしてください。注: Azure Premium は、トランザクションを支払わないため、Standard よりも安い場合がありますが、重要な詳細を念頭に置いておく必要があります。Azure NetApp ファイル: 最大 1000 個の IP が接続され、その場で IOPS を調整でき、プロビジョニングされた最小 4 TB の容量を覚えておいてください。</t>
+          <t>Windows 仮想デスクトップ サービス内のホスト プールに VM を登録すると、VM がアクティブになるたびに、エージェントによって VM のトークンが定期的に更新されます。登録トークンの証明書は 90 日間有効です。この 90 日間の制限のため、マシンがトークンを更新し、エージェントとサイド バイ サイド スタック コンポーネントを更新できるように、VM を 90 日ごとに 20 分間オンラインにすることをお勧めします。</t>
         </is>
       </c>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
+          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4577,38 +4577,38 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Azure Files のベスト プラクティスを確認する (使用されている場合)</t>
+          <t>AVD の Azure モニタリングを有効にする</t>
         </is>
       </c>
       <c r="D78" s="22" t="inlineStr">
         <is>
-          <t>参照先の記事に記載されているベスト プラクティスと推奨事項の一覧を必ず確認してください。</t>
+          <t>Azure Monitor for Windows Virtual Desktop は、Azure Monitor ブック上に構築されたダッシュボードであり、IT プロフェッショナルが Windows 仮想デスクトップ環境を理解するのに役立ちます。Windows 仮想デスクトップ環境を監視するように Windows 仮想デスクトップ用 Azure Monitor を設定する方法については、参照先の記事をお読みください。</t>
         </is>
       </c>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4616,7 +4616,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4627,22 +4627,22 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>NetAppファイルのベスト・プラクティスを確認する(使用されている場合)</t>
+          <t>ワークスペース、ホスト プール、アプリケーション グループ、ホスト VM の診断設定を有効にして Log Analytics ワークスペースにリダイレクトする</t>
         </is>
       </c>
       <c r="D79" s="22" t="inlineStr">
         <is>
-          <t>参照先の記事に記載されているベスト プラクティスと推奨事項の一覧を必ず確認してください。</t>
+          <t>Windows Virtual Desktop では、他の多くの Azure サービスと同様に、監視とアラートに Azure Monitor と Log Analytics を使用します。これにより、管理者は単一のインターフェイスから問題を特定できます。このサービスは、ユーザー操作と管理者操作の両方のアクティビティ ログを作成します。 各アクティビティ ログは、管理、フィード、接続、ホスト登録、エラー、チェックポイントのカテゴリに分類されます。</t>
         </is>
       </c>
       <c r="E79" s="22" t="inlineStr">
@@ -4652,13 +4652,13 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4666,7 +4666,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
+          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4677,38 +4677,38 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>FSLogixで設定された最大プロファイルサイズを確認して確認する</t>
+          <t>プロファイルストレージにアラートを作成して、使用率とスロットリングが高い場合にアラートを受け取る</t>
         </is>
       </c>
       <c r="D80" s="22" t="inlineStr">
         <is>
-          <t>プロファイルコンテナのデフォルトの最大サイズは30GBです。大規模なプロファイル コンテナーが予想され、お客様がそれらを小さく保ちたい場合は、OneDrive を使用して FSLogix プロファイルの外部で Office 365 ファイルをホストすることを検討してください。</t>
+          <t>参照されている記事と、ストレージの適切な監視とアラートを設定するには、次の追加の記事を参照してください。 https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance。</t>
         </is>
       </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4716,7 +4716,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4727,22 +4727,22 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>FSLogixクラウドキャッシュを使用している場合は、キャッシュディレクトリを一時ドライブに移動します。</t>
+          <t>AVD アラートの Azure サービス正常性を構成する</t>
         </is>
       </c>
       <c r="D81" s="22" t="inlineStr">
         <is>
-          <t>Cloud Cache はローカルディスクをキャッシュとして使用し、VM ディスクに多くの負荷をかける可能性があります。可能であれば、VM SKU に基づいて、一時 (およびローカルに接続された) VM ディスクの電力を利用することをお勧めします。</t>
+          <t>Azure サービス正常性を使用して、Windows 仮想デスクトップのサービスの問題と正常性アドバイザリを監視できます。Azure Service Health では、さまざまな種類のアラート (電子メールや SMS など) で通知し、問題の影響を理解し、問題の解決時に最新情報を入手できます。</t>
         </is>
       </c>
       <c r="E81" s="22" t="inlineStr">
@@ -4752,13 +4752,13 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4766,7 +4766,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4777,22 +4777,22 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>FSLogix リダイレクトの使用状況を確認します。</t>
+          <t>オンプレミス環境のハイブリッド接続アーキテクチャを確認する</t>
         </is>
       </c>
       <c r="D82" s="22" t="inlineStr">
         <is>
-          <t>リダイレクト.XMLファイルは、プロファイルコンテナからC:ドライブにリダイレクトされるフォルダを制御するために使用されます。除外は例外であるべきであり、特定の除外が除外を構成する人によって完全に理解されない限り、決して使用しないでください。除外は、実装が意図されている環境で常に完全にテストする必要があります。除外を構成すると、機能、安定性、およびパフォーマンスに影響を与える可能性があります。</t>
+          <t>どのタイプのハイブリッド接続ですか?エクスプレスルート、VPN、NVA?</t>
         </is>
       </c>
       <c r="E82" s="22" t="inlineStr">
@@ -4802,13 +4802,13 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4816,7 +4816,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4827,38 +4827,38 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Azure NetApp ファイル ストレージが使用されている場合は、AD 接続の AD サイト名設定を確認します。</t>
+          <t>ユーザーが AVD ホストプールからオンプレミスにアクセスする必要があるリソースを評価する</t>
         </is>
       </c>
       <c r="D83" s="22" t="inlineStr">
         <is>
-          <t>ANF サブネットが作成される Azure 仮想ネットワーク環境用に Active Directory サイトを作成し、そのサイト名は、リファレンス記事で説明されているように、結合手順を実行するときに ANF 接続プロパティで指定する必要があります。</t>
+          <t>帯域幅の要件を評価し、VPN/ER 帯域幅が十分であり、待機時間が許容できることを確認します。</t>
         </is>
       </c>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4866,7 +4866,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4877,38 +4877,38 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>AVDユーザーがAVDホストに対するローカル管理者権限を持っていないことを確認します。</t>
+          <t>AVD サービスのランディングゾーンネットワーキングトポロジの確認</t>
         </is>
       </c>
       <c r="D84" s="22" t="inlineStr">
         <is>
-          <t>ユーザーに仮想デスクトップへの管理者アクセス権を付与しないことをお勧めします。ソフトウェア パッケージが必要な場合は、Microsoft エンドポイント マネージャーなどの構成管理ユーティリティを使用して使用できるようにすることをお勧めします。マルチセッション環境では、ユーザーがソフトウェアを直接インストールできないようにすることをお勧めします。</t>
+          <t>CAF に基づいて AVD ホストプールを配置する場所をレビューまたは推奨する(vWAN vs. ハブ&amp;スポーク)</t>
         </is>
       </c>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4916,7 +4916,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
+          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4927,38 +4927,38 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>ウイルス対策およびマルウェア対策ソリューションが使用されていることを確認する</t>
+          <t>複数のホスト プールの VNET とサブネットの配置を評価する</t>
         </is>
       </c>
       <c r="D85" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Endpoint が Windows Virtual Desktop for Windows 10 Enterprise マルチセッションをサポートするようになりました。非永続仮想デスクトップインフラストラクチャ(VDI)デバイスのオンボーディングに関する記事を確認する: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t>各サブネットに AVD ホストプールをスケーリングするのに十分なスペースがあることを確認します。ホスト プールが異なる場合は、可能であれば個別のサブネットを使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
+          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4977,38 +4977,38 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>適切なAV除外が設定されていることを確認する</t>
+          <t>AVD ホストのインターネットアウトバウンドトラフィックを制御/制限する必要がありますか?</t>
         </is>
       </c>
       <c r="D86" s="22" t="inlineStr">
         <is>
-          <t>次の除外が設定されていることを確認してください: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions 。</t>
+          <t>いくつかのオプションを使用できます。Azure Firewall または NVA ファイアウォール、NSG、プロキシを使用できます。NSG では、URL による有効化/無効化はできず、ポートとプロトコルのみが可能です。プロキシは、ユーザーブラウザの明示的な設定としてのみ使用する必要があります。AVD での Azure Firewall Premium の使用の詳細については、こちら https://aka.ms/AVDfirewall と こちら https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop を参照してください。AVD URL アクセスの要件の完全なリストを確認してください。</t>
         </is>
       </c>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://aka.ms/AVDfirewall</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -5016,7 +5016,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
+          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -5027,38 +5027,38 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>AVDホストのディスク暗号化要件の評価</t>
+          <t>AVD ホスト上のユーザに対してのみインターネットアウトバウンドトラフィックを制御/制限する必要がありますか?</t>
         </is>
       </c>
       <c r="D87" s="22" t="inlineStr">
         <is>
-          <t>Azure 内のディスクは、既定で Microsoft マネージド キーを使用して保存時に既に暗号化されています。ホスト VM OS ディスクの暗号化は、ADE と DES を使用して可能でサポートされています: 賢明で永続的なユーザー データは、セッション ホスト ディスクに格納してはならず、コンプライアンス上の理由から厳密に必要な場合にのみ使用してください。Azure Files を使用した FSLogix ストレージの暗号化は、Azure Storage 上の SSE を使用して実行できます。OneDrive 暗号化については、この記事「https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services」を参照してください。</t>
+          <t>Azure Defender エンドポイントを使用してユーザーの Web ナビゲーションを制御することを検討してください。詳細については、「セキュリティ」セクションを参照してください。</t>
         </is>
       </c>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
+          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5077,38 +5077,38 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>AVDセッションホストからのユーザーのインターネットナビゲーションを制御/制限する必要がありますか?</t>
+          <t>AVD ホストプールサブネットの UDR の確認</t>
         </is>
       </c>
       <c r="D88" s="22" t="inlineStr">
         <is>
-          <t>ユーザーの Web ナビゲーションを制御するための Azure Defender エンドポイントの使用を検討してください。</t>
+          <t>カスタム UDR は、たとえば Azure ファイアウォールや NVA にリダイレクトするために、AVD ホスト プール サブネットに適用できます。この場合、AVD コントロールプレーンへのアウトバウンドトラフィックの最適なパスが使用されていることを慎重に確認することをお勧めします。サービスタグを UDR で使用できるようになり、AVD 管理プレーントラフィックを簡単にホワイトリストに登録できるようになりました。https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -5116,7 +5116,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
+          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5127,38 +5127,38 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>AVD セッション ホストの Azure セキュリティ センター (ASC) の使用状況を評価する</t>
+          <t>AVD コントロールプレーンエンドポイントにアクセスできることを確認する</t>
         </is>
       </c>
       <c r="D89" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション、仮想マシン、キー コンテナー、およびストレージ アカウントに対して Azure Security Center Standard を有効にすることをお勧めします。Azure Security Center Standard を使用すると、脆弱性の評価と管理、PCI などの一般的なフレームワークへの準拠の評価、AVD 環境の全体的なセキュリティの強化が可能になります。</t>
+          <t>セッションホストによる AVD コントロールプレーンアクセスに必要な URL については、次の https://docs.microsoft.com/azure/virtual-desktop/safe-url-list を参照してください。セッション ホストからの接続を確認するためのチェック ツールを使用できます。 https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool。</t>
         </is>
       </c>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -5166,7 +5166,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
+          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5177,38 +5177,38 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ GPO を確認して RDP セッションをセキュリティで保護する</t>
+          <t>VM SKU の各ユーザーおよび合計に必要なネットワーク帯域幅を確認する</t>
         </is>
       </c>
       <c r="D90" s="22" t="inlineStr">
         <is>
-          <t>たとえば、デスクトップのロックアウトやアイドル状態のセッションの終了を強制するために使用する必要があります。オンプレミス環境に適用されている既存の GPO を確認し、最終的には AVD ホストもセキュリティで保護するために適用する必要があります。</t>
+          <t>特定のワークロードの種類に基づいて、ユーザーのネットワーク帯域幅要件を評価および確認することをお勧めします。参照されている記事は一般的な見積もりと推奨事項を提供しますが、適切なサイズ設定には特定の手段が必要です。</t>
         </is>
       </c>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -5216,7 +5216,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
+          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5232,33 +5232,33 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>AVD ユーザーの MFA の使用状況を評価する</t>
+          <t>AVD ユーザーが AVD ホストのローカル管理者権限を持たないようにします。</t>
         </is>
       </c>
       <c r="D91" s="22" t="inlineStr">
         <is>
-          <t>その他の詳細と洞察については、次の記事を参照してください: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
+          <t>仮想デスクトップへの管理者アクセス権をユーザーに付与しないことをお勧めします。ソフトウェア パッケージが必要な場合は、Microsoft エンドポイント マネージャーなどの構成管理ユーティリティを使用して使用できるようにすることをお勧めします。マルチセッション環境では、ユーザーがソフトウェアを直接インストールできないようにすることをお勧めします。</t>
         </is>
       </c>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -5266,7 +5266,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
+          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5282,27 +5282,27 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>ユーザーの条件付きアクセスの使用を評価する</t>
+          <t>ウイルス対策およびマルウェア対策ソリューションが使用されていることを確認します</t>
         </is>
       </c>
       <c r="D92" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセスを有効にすると、Windows 仮想デスクトップ環境へのアクセス権をユーザーに付与する前にリスクを管理できます。アクセスを許可するユーザーを決定するときは、ユーザーが誰であるか、サインインする方法、使用しているデバイスも考慮することをお勧めします。</t>
+          <t>Microsoft Defender for Endpoint は、Windows Virtual Desktop for Windows 10 Enterprise Multi-session をサポートするようになりました。非永続的な仮想デスクトップ インフラストラクチャ (VDI) デバイスのオンボードに関する記事を確認してください: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G92" s="22" t="n"/>
@@ -5316,7 +5316,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
+          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5332,33 +5332,33 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>中央の Log Analytics ワークスペースへの診断ログと監査ログを有効にする</t>
+          <t>適切なAV除外が実施されていることを確認する</t>
         </is>
       </c>
       <c r="D93" s="22" t="inlineStr">
         <is>
-          <t>監査ログの収集を有効にすると、Windows仮想デスクトップに関連するユーザーと管理者のアクティビティを表示できます。これはまた、AVD監視ツールをアンブルして使用するための要件です。有効にすることを強くお勧めします。</t>
+          <t>次の除外が設定されていることを確認してください: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions 。</t>
         </is>
       </c>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
+          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>AVD 管理にカスタム RBAC ロールを使用する要件を評価する</t>
+          <t>AVD ホストのディスク暗号化要件を評価する</t>
         </is>
       </c>
       <c r="D94" s="22" t="inlineStr">
         <is>
-          <t>AVD は、Azure ロールベースのアクセス制御 (RBAC) を使用して、ユーザーと管理者にロールを割り当てます。これらのロールは、管理者に特定のタスクを実行する権限を付与します。職務の分離が必要な場合、Windows 仮想デスクトップには、ホスト プール、アプリ グループ、およびワークスペースの管理役割を分離できる追加の役割があります。この分離により、管理タスクをより細かく制御できます。これらのロールは、Azure の標準ロールと最小特権の方法論に準拠して名前が付けられています。</t>
+          <t>Azure のディスクは、既定では Microsoft マネージド キーを使用して保存時に既に暗号化されています。ホスト VM OS ディスクの暗号化は、ADE と DES を使用して可能であり、サポートされています: 賢明で永続的なユーザー データはセッション ホスト ディスクに格納せず、コンプライアンス上の理由で厳密に必要な場合にのみ使用する必要があります。Azure Files を使用した FSLogix ストレージの暗号化は、Azure Storage 上の SSE を使用して実行できます。OneDrive の暗号化については、次の記事を参照してください https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services。</t>
         </is>
       </c>
       <c r="E94" s="22" t="inlineStr">
@@ -5402,13 +5402,13 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5416,7 +5416,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
+          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>AVD環境のすべてのセキュリティのベスト・プラクティスを確認する</t>
+          <t>AVD セッションホストからのユーザーのインターネットナビゲーションを制御/制限する必要がありますか?</t>
         </is>
       </c>
       <c r="D95" s="22" t="inlineStr">
         <is>
-          <t>セキュリティのベスト プラクティスと推奨事項の包括的なセットは、参照先の記事に含まれているので、確認することをお勧めします。</t>
+          <t>Azure Defender エンドポイントを使用してユーザーの Web ナビゲーションを制御することを検討してください。</t>
         </is>
       </c>
       <c r="E95" s="22" t="inlineStr">
@@ -5452,13 +5452,13 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5466,7 +5466,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
+          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5477,38 +5477,38 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>AVD の Azure Monitoring を有効にする</t>
+          <t>AVD セッションホストに対する Azure セキュリティ センター(ASC)の使用状況を評価する</t>
         </is>
       </c>
       <c r="D96" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor for Windows Virtual Desktop は、Azure Monitor ブック上に構築されたダッシュボードで、IT プロフェッショナルが Windows Virtual Desktop 環境を理解するのに役立ちます。Windows 仮想デスクトップ環境を監視するように Azure Monitor for Windows Virtual Desktop をセットアップする方法については、参照記事を参照してください。</t>
+          <t>サブスクリプション、仮想マシン、キー コンテナー、ストレージ アカウントに対して Azure セキュリティ センター Standard を有効にすることをお勧めします。Azure Security Center Standard を使用すると、脆弱性の評価と管理、PCI などの一般的なフレームワークへの準拠の評価、AVD 環境の全体的なセキュリティの強化が可能になります。</t>
         </is>
       </c>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5516,7 +5516,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
+          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5527,22 +5527,22 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>ワークスペース、ホスト プール、アプリケーション グループ、およびホスト VM の診断設定を有効にして、Analytics ワークスペースのログにリダイレクトする</t>
+          <t>アクティブ ディレクトリ GPO を確認して RDP セッションをセキュリティで保護する</t>
         </is>
       </c>
       <c r="D97" s="22" t="inlineStr">
         <is>
-          <t>Windows Virtual Desktop は、他の多くの Azure サービスと同様に、Azure Monitor と Log Analytics を使用して監視とアラートを行います。これにより、管理者は 1 つのインターフェイスから問題を特定できます。このサービスは、ユーザー操作と管理操作の両方のアクティビティ ログを作成します。 各アクティビティ ログは、管理、フィード、接続、ホスト登録、エラー、チェックポイントに分類されます。</t>
+          <t>たとえば、デスクトップのロックアウトやアイドル状態のセッション終了を課すために使用する必要があります。オンプレミス環境に適用されている既存の GPO を確認し、最終的には AVD ホストもセキュリティで保護するために適用する必要があります。</t>
         </is>
       </c>
       <c r="E97" s="22" t="inlineStr">
@@ -5552,13 +5552,13 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5566,7 +5566,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
+          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5577,38 +5577,38 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>プロファイルストレージにアラートを作成し、使用率と調整が高い場合にアラートを発する</t>
+          <t>AVD ユーザーの MFA の使用を評価する</t>
         </is>
       </c>
       <c r="D98" s="22" t="inlineStr">
         <is>
-          <t>参照記事と、ストレージの適切な監視とアラートを設定するための追加記事を参照してください: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance。</t>
+          <t>詳細と分析情報については、次の記事を参照してください。 https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
         </is>
       </c>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5616,7 +5616,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
+          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5627,38 +5627,38 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>AVD アラートの Azure サービス正常性を構成する</t>
+          <t>ユーザーの条件付きアクセスの使用状況を評価する</t>
         </is>
       </c>
       <c r="D99" s="22" t="inlineStr">
         <is>
-          <t>Azure サービスの正常性を使用して、Windows 仮想デスクトップのサービスの問題と正常性勧告を監視できます。Azure Service Health では、さまざまな種類のアラート (電子メールや SMS など) で通知し、問題の影響を理解し、問題が解決したときに最新の状態に保つことができます。</t>
+          <t>条件付きアクセスを有効にすると、Windows 仮想デスクトップ環境へのアクセス権をユーザーに付与する前にリスクを管理できます。アクセスを許可するユーザーを決定するときは、ユーザーが誰であるか、サインインする方法、使用しているデバイスも考慮することをお勧めします。</t>
         </is>
       </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5666,7 +5666,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
+          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5677,38 +5677,38 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>ホスト・プールの自動スケーリング機能の要件を評価する</t>
+          <t>中央の Log Analytics ワークスペースへの診断ログと監査ログを有効にする</t>
         </is>
       </c>
       <c r="D100" s="22" t="inlineStr">
         <is>
-          <t>スケーリング ツールは、セッション ホスト VM のコストを最適化したいお客様に、低コストの自動化オプションを提供します。スケーリング ツールを使用して、ピーク時とオフピーク時の営業時間に基づいて VM を開始および停止するようにスケジュールしたり、CPU コアあたりのセッション数に基づいて VM をスケール アウトしたり、オフピーク時に VM をスケールインして、セッション ホスト VM の最小数を実行したままにしたりできます。パーソナル・ホスト・プール・タイプではまだ利用できません。ホスト・プールごとに個別のセットアップを行うことをお勧めします。</t>
+          <t>監査ログの収集を有効にすると、Windows 仮想デスクトップに関連するユーザーと管理者のアクティビティを表示できます。これは、AVD 監視ツールを有効にして使用するための要件でもあります。有効にすることを強くお勧めします。</t>
         </is>
       </c>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5716,7 +5716,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
+          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5727,22 +5727,22 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Azure アドバイザーによる AVD に関する推奨事項を定期的に確認する</t>
+          <t>AVD 管理にカスタム RBAC ロールを使用する要件を評価する</t>
         </is>
       </c>
       <c r="D101" s="22" t="inlineStr">
         <is>
-          <t>Azure Advisor は、構成とテレメトリを分析して、一般的な問題を解決するためのパーソナライズされた推奨事項を提供します。これらの推奨事項を使用すると、信頼性、セキュリティ、運用の卓越性、パフォーマンス、およびコストのために Azure リソースを最適化できます。</t>
+          <t>AVD は、Azure ロールベースのアクセス制御(RBAC)を使用して、ユーザーと管理者にロールを割り当てます。これらのロールは、管理者に特定のタスクを実行する権限を付与します。職務の分離が必要な場合、Windows Virtual Desktop には、ホスト プール、アプリ グループ、およびワークスペースの管理役割を分離できる追加の役割があります。この分離により、管理タスクをよりきめ細かく制御できます。これらのロールには、Azure の標準ロールと最小特権の方法論に準拠した名前が付けられています。</t>
         </is>
       </c>
       <c r="E101" s="22" t="inlineStr">
@@ -5752,13 +5752,13 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5766,7 +5766,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>611ddd68c-5a4b-4252-8e44-a59a9c2399c4</t>
+          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5777,22 +5777,22 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージの更新管理戦略を計画する</t>
+          <t>AVD 環境に関するすべてのセキュリティのベストプラクティスを確認する</t>
         </is>
       </c>
       <c r="D102" s="22" t="inlineStr">
         <is>
-          <t>ゴールデン イメージの更新を管理するための戦略を準備します (たとえば、セキュリティ修正プログラムの適用や、イメージ内にインストールされているアプリケーションの更新など)。Azure Image Builder Service は、VM のビルドとカスタマイズを自動化するためのファースト パーティのソリューションです。ARM テンプレートを使用して新しいホストを作成し、古いホストを使用停止にすることができます。https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool 推奨されるアプローチは、新しいプールを並べて作成し、ロールバックが容易で、専用のプールでは使用できない ARM テンプレートを使用して VM の数を再デプロイして増やすことも実行可能なオプションです。お客様は、SCCMなどを使用したexampelのために、既存のソフトウェア配布方法を使用して、再展開せずにイメージを更新することもできます。</t>
+          <t>セキュリティのベストプラクティスと推奨事項の包括的なセットは、参照記事に含まれているため、確認することをお勧めします。</t>
         </is>
       </c>
       <c r="E102" s="22" t="inlineStr">
@@ -5802,13 +5802,13 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5816,7 +5816,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
+          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5827,38 +5827,38 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>セッションホストのパッチ適用と更新戦略を計画する</t>
+          <t>FSLogix プロファイルおよびオフィス コンテナーに使用するストレージ バックエンド ソリューションを決定する</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
         <is>
-          <t>お客様にはいくつかのオプションがあります: - Microsoft エンドポイント構成マネージャー、この記事では、Windows 10 Enterprise マルチセッションを実行している Windows Virtual Desktop ホストに更新プログラムを自動的に適用するように Microsoft エンドポイント構成マネージャーを構成する方法について説明します: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)- OS をサポートするサード パーティ - Azure Update Management (Azure Automation) は、現在クライアント OS ではサポートされていません。パッチ適用戦略から移行し、可能であればイメージ再作成戦略に移行することを推奨 https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt ます。</t>
+          <t>Azure NetApp Files、Azure Files、VM ベースのファイル サーバー。ファイルサーバーは推奨されません。通常、Azure Files Premium は出発点として適しています。ネットアップは通常、大規模で高パフォーマンスの環境にのみ必要です。</t>
         </is>
       </c>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5866,7 +5866,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
+          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5877,22 +5877,22 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>AVDテストカナリア環境の要件を評価する</t>
+          <t>プロファイルコンテナをオフィスコンテナから分離する可能性を評価する</t>
         </is>
       </c>
       <c r="D104" s="22" t="inlineStr">
         <is>
-          <t>ホスト プールは、Windows 仮想デスクトップ環境内の 1 つ以上の同一の仮想マシンのコレクションです。サービスの更新が最初に適用される検証ホスト プールを作成することを強くお勧めします。これにより、サービスが標準環境または非検証環境に適用する前に、サービスの更新を監視できます。</t>
+          <t>Windows Virtual Desktop では、以下の「ディザスター リカバリー」セクションで説明するように、特定のビジネス継続性とディザスター リカバリー (BCDR) シナリオを計画していない限り、Office コンテナーなしでプロファイル コンテナーを使用することをお勧めします。https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
         </is>
       </c>
       <c r="E104" s="22" t="inlineStr">
@@ -5902,13 +5902,13 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
+          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5916,7 +5916,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
+          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5927,38 +5927,38 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>ホストプールの展開戦略を決定する</t>
+          <t>ホスト プールの要件をサポートするための記憶域のスケーラビリティの制限を確認する</t>
         </is>
       </c>
       <c r="D105" s="22" t="inlineStr">
         <is>
-          <t>AVD ホスト プールは、Azure Portal、ARM テンプレート、Azure CLI ツール、Powershell、登録トークンを使用した手動 VM 作成、Terraform など、いくつかの方法でデプロイできます。自動化および CI/CD ツールによる自動デプロイメントをサポートするために、適切な方式を採用することが重要です。</t>
+          <t>プロファイル コンテナーのストレージ要件を見積もるための開始点として、定常状態ではユーザーあたり 10 IOPS、サインイン/サインアウト時にはユーザーあたり 50 IOPS を想定することをお勧めします。</t>
         </is>
       </c>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5966,7 +5966,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
+          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5977,22 +5977,22 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>トークンの更新のために90日ごとにVMを定期的にオンにする</t>
+          <t>NetApp Files ストレージを使用している場合は、特定のリージョンのストレージサービスの可用性を確認してください。</t>
         </is>
       </c>
       <c r="D106" s="22" t="inlineStr">
         <is>
-          <t>VM を Windows 仮想デスクトップ サービス内のホスト プールに登録すると、エージェントは VM がアクティブになるたびに VM のトークンを定期的に更新します。登録トークンの証明書は 90 日間有効です。この 90 日間の制限のため、コンピューターがトークンを更新し、エージェントとサイド バイ サイドのスタック コンポーネントを更新できるように、VM を 90 日ごとに 20 分間オンラインにすることをお勧めします。</t>
+          <t>DRの目的で2番目のリージョンが必要な場合は、そこでネットアップの可用性も確認します。</t>
         </is>
       </c>
       <c r="E106" s="22" t="inlineStr">
@@ -6002,13 +6002,13 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -6016,7 +6016,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
+          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -6027,22 +6027,22 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>AVD を通じて公開されたアプリケーション/デスクトップに期待される高可用性 SLA を決定する</t>
+          <t>最適なパフォーマンスを得るには、ストレージ ソリューションと FSLogix プロファイル コンテナーを同じデータ センターの場所に配置する必要があります。</t>
         </is>
       </c>
       <c r="D107" s="22" t="inlineStr">
         <is>
-          <t>AVD 管理プランでは、財政的に裏付けられたサービス レベル アグリーメントは提供されません。マイクロソフトは、Windows 仮想デスクトップ サービス URL の可用性を少なくとも 99.9% にするよう努めています。サブスクリプション内のセッション ホスト仮想マシンの可用性は、仮想マシン SLA の対象となります。依存するリソース/サービスおよびインフラストラクチャの可用性も、グローバルな高可用性要件を適切に満たすために考慮する必要があります。</t>
+          <t>可能な限り、リージョン間のネットワーク トラフィックに関連する追加の待機時間とコストを発生させないようにします。</t>
         </is>
       </c>
       <c r="E107" s="22" t="inlineStr">
@@ -6052,13 +6052,13 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -6066,7 +6066,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
+          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6077,22 +6077,22 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>AVD ホスト プールの geo ディザスタ リカバリ領域の評価</t>
+          <t>FSLogix の推奨されるウイルス対策除外を構成します (接続時に VHD(x) ファイルをスキャンしないことを含む)。</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
         <is>
-          <t>アクティブ-アクティブ'モデルは、異なるリージョンの複数のホストプールで実現できます。異なるリージョンの VM を含む単一のホスト プールはお勧めしません。同じユーザーに対して複数のプールを使用する場合は、ユーザー・プロファイルの同期/複製方法の問題を解決する必要があります。FSLogixクラウドキャッシュを使用することもできますが、慎重にレビューして計画する必要があります。そうしないと、お客様は同期/レプリケーションをまったく行わないことを決定できます。「アクティブ/パッシブ」は、Azure Site Recovery (ASR) または自動化されたメカニズムを備えたオンデマンド プール デプロイを使用して実現できます。</t>
+          <t>参照記事に記載されているように、FSLogix プロファイル コンテナーの仮想ハード ドライブに対して次のウイルス対策の除外を構成してください。</t>
         </is>
       </c>
       <c r="E108" s="22" t="inlineStr">
@@ -6102,13 +6102,13 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -6116,7 +6116,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
+          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6127,38 +6127,38 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>重要なアプリケーションを異なるAVDホストプールに分離</t>
+          <t>FSLogix レジストリ キーを確認し、適用するレジストリ キーを決定する</t>
         </is>
       </c>
       <c r="D109" s="22" t="inlineStr">
         <is>
-          <t>Windows 仮想デスクトップ BCDR の計画と設計に取り組む前に、AVD によって消費されるアプリケーションが重要であることを最初に検討することが重要です。重要でないアプリから分離し、別の障害復旧アプローチと機能を持つ別のホスト プールを使用することもできます。</t>
+          <t>デフォルトの基本設定と推奨設定は次のとおりです。 https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises 基本セットについてはこちらをご覧ください: 完全な参考 https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee はこちら: https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
         </is>
       </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -6166,7 +6166,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
+          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6177,22 +6177,22 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>AVD ホスト プールの展開に最適な回復性オプションを計画する</t>
+          <t>同じプロファイルへの同時接続または複数の接続の使用状況を確認する</t>
         </is>
       </c>
       <c r="D110" s="22" t="inlineStr">
         <is>
-          <t>?ホストプール VM に適切な回復性レベルを選択しましたか (可用性セットと可用性ゾーン)??HA SLA と AS または AZ に付随するスケーラビリティの制限への影響をご存知ですか?現在、可用性セットなしで Windows 仮想デスクトップ ARM テンプレート展開ごとに 399 の VM を展開でき、可用性セットごとに 200 の VM を展開できます。展開ごとの VM の数を増やすには、ARM テンプレートまたは Azure portal ホスト プールの登録で可用性セットをオフにします。AZ のデプロイが可能になり、現時点では一度に 1 つの AZ が、必要な各 AZ に VM の一部を手動で作成する必要があります。</t>
+          <t>同時接続または複数接続は、Windows 仮想デスクトップでは推奨されません。ベスト プラクティスは、セッションごとに異なるプロファイルの場所を (ホスト プールとして) 作成することです。</t>
         </is>
       </c>
       <c r="E110" s="22" t="inlineStr">
@@ -6202,13 +6202,13 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
+          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6227,45 +6227,45 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>AVDセッション・ホストのバックアップ要件の評価</t>
+          <t>ストレージのサイズ設定に関するベスト プラクティスと主な考慮事項を確認する</t>
         </is>
       </c>
       <c r="D111" s="22" t="inlineStr">
         <is>
-          <t>Azure Backup はホスト プール VM の保護にも使用できますが、ホスト プール VM をステートレスにする必要がある場合でも、このプラクティスはサポートされています。このオプションは、個人用ホストプールで検討できます。</t>
+          <t>一般的な見積もりとして、テスト環境で検証するには、ワークロードに応じて、ユーザーごとに 5 から 15 IOPS を最初に検討する必要があります。Azure ファイル: プレミアム シェアあたり最大 100k IOPS (最大 100 TB)、および 3 ミリ秒の待機時間で最大 5 Gbps。Azure Files のプロビジョニング方法、つまり IOPS は厳密にプロビジョニングされた SIZE に関連付けられていることに注意してください。場合によってはバーストサイジング機能。十分な IOPS を確保するために、必要以上の領域を事前にプロビジョニングしてください。注: Azure Premium は、トランザクションを支払わないため、標準よりも安くなる可能性がありますが、覚えておくべき重要な詳細。Azure NetApp Files: 最大 1000 個の IP が接続され、その場で IOPS を調整でき、最小 4 TB のプロビジョニング容量を記憶してください。</t>
         </is>
       </c>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
+          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6276,22 +6276,22 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>プロファイル コンテナーと Office コンテナー内で保護する必要があるデータを評価する</t>
+          <t>Azure ファイルのベスト プラクティスを確認する (使用する場合)</t>
         </is>
       </c>
       <c r="D112" s="22" t="inlineStr">
         <is>
-          <t>FSLogixユーザープロファイル内のすべてのデータが災害からの保護に値するとは限りません。さらに、OneDrive やファイル サーバー/共有などの外部ストレージが使用されている場合、FSLogix プロファイルに残っているものは最小限であり、極端な状況で失われる可能性があります。また、プロファイル内のデータを他のストレージ (キャッシュ モードの Outlook 受信トレイなど) から再構築することもできます。</t>
+          <t>参照記事で説明されているベストプラクティスと推奨事項のリストを必ず確認してください。</t>
         </is>
       </c>
       <c r="E112" s="22" t="inlineStr">
@@ -6301,13 +6301,13 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -6315,7 +6315,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
+          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6326,22 +6326,22 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>プロファイル コンテナーと Office コンテナーのバックアップ保護戦略の構築</t>
+          <t>ネットアップファイルのベストプラクティスを確認する(使用している場合)</t>
         </is>
       </c>
       <c r="D113" s="22" t="inlineStr">
         <is>
-          <t>重要なユーザーデータのデータ損失を防ぐことは重要であり、最初のステップは、保存して保護する必要があるデータを評価することです。OneDrive またはその他の外部ストレージを使用している場合は、ユーザー プロファイルや Office コンテナーのデータを保存する必要がない場合があります。重要なユーザー データの保護を提供するには、適切なメカニズムを考慮する必要があります。Azure Backup サービスを使用すると、Azure Files Standard レベルと Premium レベルに格納されているときに、プロファイル コンテナーと Office コンテナーのデータを保護することができます。Azure NetApp Files Snapshots and Policies は、Azure NetApp Files (すべての層) に使用できます。</t>
+          <t>参照記事で説明されているベストプラクティスと推奨事項のリストを必ず確認してください。</t>
         </is>
       </c>
       <c r="E113" s="22" t="inlineStr">
@@ -6351,13 +6351,13 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -6365,7 +6365,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc - 3cd2 - 45bf - a707 - 6e9eab4bed32</t>
+          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6376,38 +6376,38 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>BCDR目的のためのプロファイルコンテナストレージレプリケーション要件と回復性を評価する</t>
+          <t>FSLogix で構成された最大プロファイル サイズを確認して確認する</t>
         </is>
       </c>
       <c r="D114" s="22" t="inlineStr">
         <is>
-          <t>AVDでは、FSLogixコンテナに存在するユーザーデータに複数のレプリケーションメカニズムと戦略を使用できます。プロファイル パターン #1: ネイティブの Azure ストレージ レプリケーション メカニズム (Azure Files Standard GRS レプリケーション、Azure NetApp Files クロスリージョン レプリケーション、VM ベースのファイル サーバー用の Azure Files Sync など) ですか?Azure Files には、Zone Replicated Storage (ZRS) または Geo Replicated Storage (GRS) を使用することをお勧めします。?ローカルのみの回復性を持つ LRS は、ゾーン/リージョンの保護が必要ない場合に使用できます。?注: Azure Files Share Standard は LRS/ZRS/GRS ですが、100 TB の大規模サポートを有効にすると、LRS/ZRS のみがサポートされます。?プロファイルパターン#2:FSLogixクラウドキャッシュは、異なる(最大4つの)ストレージアカウント間でコンテナを複製する自動メカニズムに組み込まれています。クラウドキャッシュは、次の場合にのみ使用する必要がありますか?ユーザー プロファイルまたは Office コンテナーのデータ可用性が必要 高可用性 SLA は重要であり、リージョンの障害に対する回復力が必要です。?選択されたストレージ・オプションは、BCDR 要件を満たすことができません。たとえば、Azure File Share Premium レベルや、Large File Support が有効になっている Azure File Share Standard では、GRS は使用できません。?異種ストレージ間のレプリケーションが必要な場合。?プロファイル パターン #3: ユーザー データ/プロファイル コンテナーではなく、アプリケーション データに対してのみ geo ディザスタリカバリを設定します。重要なアプリケーション データは、OneDrive などの個別のストレージや、独自の組み込み DR メカニズムを備えたその他の外部ストレージに格納します。</t>
+          <t>プロファイルコンテナのデフォルトの最大サイズは30GBです。大きなプロファイル コンテナーが予想され、お客様がそれらを小さく保とうとする場合は、OneDrive を使用して FSLogix プロファイルの外部で Office 365 ファイルをホストすることを検討してください。</t>
         </is>
       </c>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
+          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6426,22 +6426,22 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Azure NetApp Files DR 戦略の確認</t>
+          <t>FSLogix クラウド キャッシュを使用する場合は、キャッシュ ディレクトリを一時ドライブに移動します。</t>
         </is>
       </c>
       <c r="D115" s="22" t="inlineStr">
         <is>
-          <t>地理的なディザスター リカバリ: Azure NetApp Files は基本的に LRS (ローカルにレプリケートされたストレージ) であるため、リージョン間のレプリケーションが必要な場合は、さらに何かを設計する必要があります。現時点でのクロスリージョンの推奨事項は、別の Azure リージョン (および NetApp ボリューム) にレプリケートする NetApp Cloud Sync です。バックアップ: バックアップはスナップショットによって処理されますが、自動ではなく、ポリシーを使用してスケジュールする必要があります。https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots。ボリュームあたりのスナップショットの最大数 (255) は、https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits で説明されています。</t>
+          <t>Cloud Cache はローカル ディスクをキャッシュとして使用するため、VM ディスクに大きな負荷がかかる可能性があります。可能であれば、VM SKU に基づいて、一時的な (およびローカルに接続された) VM ディスクの機能を活用することをお勧めします。</t>
         </is>
       </c>
       <c r="E115" s="22" t="inlineStr">
@@ -6451,20 +6451,20 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
+          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
+          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6475,22 +6475,22 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Azure Files DR 戦略を確認する</t>
+          <t>FSLogix リダイレクトの使用法を確認します。</t>
         </is>
       </c>
       <c r="D116" s="22" t="inlineStr">
         <is>
-          <t>地理的なディザスター リカバリー: GRS for Azure Files は、標準の SKU でのみ使用でき、大規模な共有サポートは提供されないため、ほとんどのお客様のシナリオでは適していません。geo レプリケーションが必要な場合は、Azure File Share Premium を使用する場合、FSLogix Cloud Cache を使用したレプリケーションを評価するか、"リージョン内" アベイラビリティー ゾーン (AZ) のみの回復性を考慮する必要があります。バックアップ: Azure Backup は、Azure ファイル共有のすべての SKU を完全にサポートしており、プロファイル コンテナーを保護するために推奨されるソリューションです。OneDrive またはその他の外部ストレージを使用している場合は、ユーザー プロファイルや Office コンテナーのデータを保存する必要がない場合があります。</t>
+          <t>リダイレクト.XMLファイルは、プロファイルコンテナからC:ドライブにリダイレクトされるフォルダを制御するために使用されます。除外は例外であるべきであり、除外を構成するユーザーが特定の除外を完全に理解しない限り、決して使用しないでください。除外は、実装が意図されている環境で常に完全にテストする必要があります。除外を構成すると、機能、安定性、パフォーマンスに影響を与える可能性があります。</t>
         </is>
       </c>
       <c r="E116" s="22" t="inlineStr">
@@ -6500,20 +6500,20 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
+          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6524,45 +6524,45 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>依存 関係</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>ゴールデン イメージの地域間での可用性を計画する</t>
+          <t>Azure ネットアップ ファイル ストレージを使用する場合は、AD 接続の AD サイト名の設定を確認してください。</t>
         </is>
       </c>
       <c r="D117" s="22" t="inlineStr">
         <is>
-          <t>カスタム イメージを使用して AVD ホスト プール VM を展開する場合は、大規模な障害が発生した場合でも、それらの成果物がすべてのリージョンで使用できるようにすることが重要です。Azure コンピューティング ギャラリー サービスを使用すると、ホスト プールがデプロイされているすべてのリージョンに、冗長ストレージと複数のコピーでイメージをレプリケートできます。</t>
+          <t>ANF サブネットが作成される Azure 仮想ネットワーク環境用に Active Directory サイトを作成し、リファレンス記事で説明されているように、参加手順を実行するときにそのサイト名を ANF 接続プロパティで指定する必要があります。</t>
         </is>
       </c>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
+          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
+          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6573,22 +6573,22 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>依存 関係</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>インフラストラクチャとアプリケーションの依存関係を評価する</t>
+          <t>Premium ファイル共有を使用して FSLogix プロファイル コンテナーをホストする場合は、SMB マルチチャネルを有効にします。</t>
         </is>
       </c>
       <c r="D118" s="22" t="inlineStr">
         <is>
-          <t>AVD インフラストラクチャのユーザーがオンプレミスのリソース アクセスを必要とする場合、接続に必要なネットワーク インフラストラクチャの高可用性も重要であり、考慮する必要があります。認証インフラストラクチャの回復性を評価し、評価する必要があります。依存アプリケーションおよびその他のリソースの BCDR の側面は、セカンダリ DR ロケーションでの可用性を確保するために考慮する必要があります。</t>
+          <t>SMB マルチチャネルを使用すると、クライアントは複数のネットワーク接続を使用して、所有コストを削減しながらパフォーマンスを向上させることができます。パフォーマンスの向上は、複数の NIC に帯域幅を集約し、NIC の受信側スケーリング (RSS) サポートを利用して複数の CPU に IO 負荷を分散することで実現されます。</t>
         </is>
       </c>
       <c r="E118" s="22" t="inlineStr">
@@ -6598,13 +6598,13 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/en-us/azure/storage/files/storage-files-smb-multichannel-performance</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6612,7 +6612,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
+          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6623,41 +6623,45 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>セッション ホスト</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
-        </is>
-      </c>
-      <c r="D119" s="22" t="n"/>
+          <t>セッション・ホストに使用する管理対象ディスクのタイプを決定する</t>
+        </is>
+      </c>
+      <c r="D119" s="22" t="inlineStr">
+        <is>
+          <t>標準HDD、標準SSD、またはプレミアムSSD、エフェメラルディスクはサポートされておらず、ウルトラディスクは推奨されません。ユーザー密度が低くない場合、およびクラウドキャッシュを使用する場合は、OSディスクのプレミアムを評価することをお勧めします。</t>
+        </is>
+      </c>
       <c r="E119" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6678,7 +6682,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6695,7 +6699,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6703,7 +6707,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6714,17 +6718,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6741,19 +6745,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6789,13 +6789,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6816,7 +6824,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6831,21 +6839,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6895,7 +6895,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6933,19 +6933,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6983,19 +6983,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -7033,19 +7033,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7083,19 +7083,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7116,13 +7116,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7133,14 +7133,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7161,13 +7166,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7178,14 +7183,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7206,7 +7211,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7223,14 +7228,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7251,7 +7256,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7268,14 +7273,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7296,7 +7301,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7313,14 +7318,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7341,7 +7346,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7358,14 +7363,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7386,7 +7391,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7403,14 +7408,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7431,7 +7436,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7448,14 +7453,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7476,7 +7481,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7493,14 +7498,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7521,7 +7526,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7538,14 +7543,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7566,7 +7571,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7583,14 +7588,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7601,23 +7606,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7628,14 +7633,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7646,17 +7651,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7673,14 +7678,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7701,13 +7706,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7718,14 +7723,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7746,7 +7751,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7763,14 +7768,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7791,7 +7796,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7815,7 +7820,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7836,7 +7841,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7860,7 +7865,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7881,7 +7886,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7905,7 +7910,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7926,7 +7931,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7943,14 +7948,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7971,7 +7976,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7995,7 +8000,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -8033,14 +8038,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8061,7 +8066,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8085,7 +8090,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8106,7 +8111,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8123,14 +8128,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8146,18 +8151,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8168,14 +8173,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8191,12 +8196,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8213,14 +8218,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8241,13 +8246,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8265,7 +8270,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8286,7 +8291,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8303,14 +8308,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8331,7 +8336,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8355,7 +8360,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8376,13 +8381,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8400,7 +8405,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8421,7 +8426,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8445,7 +8450,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8466,13 +8471,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8490,7 +8495,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8511,7 +8516,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8535,7 +8540,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8556,7 +8561,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8573,14 +8578,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8601,7 +8606,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8618,14 +8623,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8641,12 +8646,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8663,14 +8668,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8686,12 +8691,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8708,14 +8713,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8736,7 +8741,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8753,14 +8758,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8781,7 +8786,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8798,14 +8803,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8826,7 +8831,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8843,14 +8848,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8871,7 +8876,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8888,14 +8893,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8916,7 +8921,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8933,14 +8938,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8961,7 +8966,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8985,7 +8990,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -9006,7 +9011,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -9023,14 +9028,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -9039,360 +9044,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10950,7 +11675,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11034,7 +11759,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11090,26 +11815,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F120" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11195,7 +11938,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -11220,7 +11963,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ見ていません</t>
+          <t>このチェックはまだ確認されていません</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -11294,7 +12037,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それに関連付けられたアクションアイテムはこれ以上ありません。</t>
+          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11326,7 +12069,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解しているが、現在の要件では必要ではない</t>
+          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -11358,7 +12101,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>現在の設計には適用されません</t>
+          <t>現在のデザインには適用できません</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">

--- a/spreadsheet/avd_checklist.ja.xlsx
+++ b/spreadsheet/avd_checklist.ja.xlsx
@@ -1095,22 +1095,22 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>どの Azure リージョンに AVD ホスト プールを展開するかを決定する</t>
+          <t>AVD を通じて公開されたアプリケーション/デスクトップの予想される高可用性 SLA を決定する</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t>AVDは非リージョンサービスであり、ホストプールはどのリージョンでも作成でき、最も近いフロントエンドからの自動リダイレクトが自動的に行われます。</t>
+          <t>AVD 制御プランでは、返金制度のあるサービス レベル アグリーメントは提供されません。Windows 仮想デスクトップ サービス URL の可用性を 99.9% 以上確保するよう努めています。サブスクリプション内のセッション ホスト仮想マシンの可用性は、仮想マシン SLA の対象となります。グローバルな高可用性要件を適切に満たすには、依存するリソース/サービスとインフラストラクチャの可用性も考慮する必要があります。</t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
@@ -1120,13 +1120,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
+          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
+          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1145,22 +1145,22 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>オンプレミス環境への接続にハイブリッド接続が必要かどうかを判断する</t>
+          <t>AVD ホストプールの geo ディザスタリカバリリージョンの評価</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t>オンプレミス環境に接続する必要がある場合は、現在の接続オプションを評価するか、必要な接続を計画します。</t>
+          <t>アクティブ-アクティブ」モデルは、異なるリージョンにある複数のホスト プールで実現できます。異なるリージョンの VM を含む単一のホスト プールは推奨されません。同じユーザーに対して複数のプールを使用する場合は、ユーザー プロファイルを同期/レプリケートする方法の問題を解決する必要があります。FSLogix Cloud Cache を使用することもできますが、慎重に確認して計画する必要があります。または、同期/レプリケートをまったく行わないことをお客様が決定できます。"アクティブ/パッシブ" は、Azure Site Recovery (ASR) または自動化されたメカニズムを使用したオンデマンド プール デプロイを使用して実現できます。</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
@@ -1170,13 +1170,13 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
+          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1195,38 +1195,38 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>ユーザーの場所と Azure AVD インフラストラクチャの間の待機時間を評価しましたか。</t>
+          <t>重要なアプリケーションを異なる AVD ホストプールに分離</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t>「Windows 仮想デスクトップ エクスペリエンス推定ツール」ツールを実行して、ホスト プールをデプロイするのに最適な Azure リージョンを選択します。待機時間が 150 ミリ秒を超えると、ユーザー エクスペリエンスが最適でない可能性があります。</t>
+          <t>Windows 仮想デスクトップ BCDR の計画と設計に取り組む前に、AVD を介して使用されるアプリケーションを最初に検討することが重要です。重要でないアプリから分離し、異なるディザスター リカバリーのアプローチと機能を備えた別のホスト プールを使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
+          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1245,38 +1245,38 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>AVD サービスのメタデータの場所を決定する</t>
+          <t>AVD ホストプール展開に最適な復元力オプションを計画する</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>AVDは、特定の地理的な場所でサービスを実行するためだけにメタデータを保存し、お客様の要件に基づいて、現在利用可能なもの、および適切かどうかを判断します。</t>
+          <t>?ホスト プール VM に適切な回復性レベルを選択しましたか (可用性セットと可用性ゾーン)??AS または AZ に伴う HA SLA とスケーラビリティの制限への影響を認識していますか? ?現在、可用性セットなしで Windows 仮想デスクトップ ARM テンプレートのデプロイごとに 399 台の VM をデプロイすることも、可用性セットごとに 200 台の VM をデプロイすることもできます。デプロイあたりの VM の数を増やすには、ARM テンプレートまたは Azure portal ホスト プールの登録で可用性セットをオフにします。AZのデプロイが可能になり、現時点では一度に1つのAZで、目的のAZごとにVMの一部を手動で作成する必要があります。</t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
+          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1295,38 +1295,38 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>選択したリージョンの特定の VM サイズに関する Azure クォータと可用性を確認する</t>
+          <t>AVD セッションホストをバックアップする要件を評価する</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t>特定の VM SKU (特に GPU または高スペック SKU が必要な場合) を確認し、最終的には Azure NetApp Files の可用性を確認します。</t>
+          <t>Azure Backup はホスト プール VM を保護するためにも使用できますが、ホスト プール VM をステートレスにする必要がある場合でも、この方法はサポートされます。このオプションは、個人用ホスト プールで検討できます。</t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
+          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1345,38 +1345,38 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>依存 関係</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>選択したリージョンのアベイラビリティーゾーン (AZ) の可用性を確認する</t>
+          <t>ゴールデン イメージのリージョン間の可用性を計画する</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>詳細については、BCDR セクションを参照してください。</t>
+          <t>カスタムイメージを使用して AVD ホストプール VM を展開する場合は、大規模な災害が発生した場合でも、それらのアーティファクトがすべてのリージョンで使用可能であることを確認することが重要です。Azure コンピューティング ギャラリー サービスを使用すると、ホスト プールがデプロイされているすべてのリージョンで、冗長ストレージと複数のコピーでイメージをレプリケートできます。</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1384,7 +1384,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
+          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1395,22 +1395,22 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>依存 関係</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>AVD に接続するユーザーの数と、どのリージョンから接続するかを評価する</t>
+          <t>インフラストラクチャとアプリケーションの依存関係を評価する</t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t>適切な計画と展開を行うには、最大ユーザー数と平均同時セッション数を評価することが重要です。</t>
+          <t>AVD インフラストラクチャのユーザがオンプレミスのリソースアクセスを必要とする場合、接続に必要なネットワークインフラストラクチャの高可用性も重要であり、考慮する必要があります。認証インフラストラクチャの回復性を評価および評価する必要があります。依存アプリケーションやその他のリソースの BCDR の側面は、セカンダリ DR の場所の可用性を確保するために考慮する必要があります。</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
@@ -1420,13 +1420,13 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
+          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1445,22 +1445,22 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>すべてのユーザーが同じアプリケーション・セット、異なるホスト・プール構成、OSイメージ(あるいはその両方)を持つかどうかを判断する</t>
+          <t>プロファイルコンテナとオフィスコンテナ内で保護する必要があるデータを評価します</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t>Mutipleホストプールは、さまざまなユーザーセットをサポートするために必要かもしれませんが、必要な数を見積もることをお勧めします。</t>
+          <t>FSLogix ユーザー プロファイル内のすべてのデータが、障害から保護する必要があるわけではありません。さらに、OneDrive やファイル サーバー/共有などの外部ストレージが使用されている場合、FSLogix プロファイルに残っているものは最小限であり、極端な状況では失われる可能性があります。また、プロファイル内のデータを他のストレージ (キャッシュ モードの Outlook 受信トレイなど) から再構築できる場合もあります。</t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1470,13 +1470,13 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://learn.microsoft.com/fslogix/manage-profile-content-cncpt</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
+          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1495,38 +1495,38 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>各ホストプールの外部依存関係を評価する</t>
+          <t>プロファイルコンテナとオフィスコンテナのバックアップ保護戦略を構築する</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>AVD プールの外部リソース (Active Directory、外部ファイル共有またはその他のストレージ、オンプレミスのサービスとリソース、VPN や Express Route などのネットワーク インフラストラクチャ コンポーネント、外部サービス、サード パーティのコンポーネントなど) に対する依存関係を評価して確認する必要があります。これらすべてのリソースについて、AVD ホスト プールからの待機時間を評価し、接続性を考慮する必要があります。さらに、BCDR に関する考慮事項をこれらの依存関係にも適用する必要があります。</t>
+          <t>重要なユーザーデータのデータ損失を防ぐことは重要であり、最初のステップは、どのデータを保存して保護する必要があるかを評価することです。OneDriveまたはその他の外部ストレージを使用している場合は、ユーザープロファイルやOfficeコンテナのデータを保存する必要がない場合があります。重要なユーザー データを保護するには、適切なメカニズムを検討する必要があります。Azure Backup サービスは、Azure Files Standard レベルと Premium レベルに格納されているときに、プロファイルとオフィス コンテナーのデータを保護するために使用できます。Azure NetApp Files Snapshots と Policies は、Azure NetApp Files (すべての層) に使用できます。</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1545,22 +1545,22 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>使用されているクライアント OS と AVD クライアントの種類を確認する</t>
+          <t>BCDRを目的としたプロファイルコンテナストレージレプリケーションの要件と回復性を評価する</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>各クライアントの制限を確認し、可能な場合は複数のオプションを比較します。</t>
+          <t>AVD では、FSLogix コンテナに存在するユーザーデータに複数のレプリケーションメカニズムと戦略を使用できます。プロファイル パターン #1: ネイティブの Azure ストレージ レプリケーション メカニズム (Azure Files Standard GRS レプリケーション、Azure NetApp Files クロスリージョン レプリケーション、VM ベースのファイル サーバー用の Azure Files Sync など)Azure Files にゾーン レプリケート ストレージ (ZRS) または geo レプリケート ストレージ (GRS) を使用することをお勧めします。ローカルのみの回復性を持つ LRS は、ゾーン/リージョンの保護が必要ない場合に使用できます。注: Azure ファイル共有標準は LRS/ZRS/GRS ですが、100 TB の大容量サポートが有効になっている場合は LRS/ZRS のみがサポートされます。?プロファイル パターン #2: FSLogix Cloud Cache は、異なる (最大 4 つの) ストレージ アカウント間でコンテナーをレプリケートするための自動メカニズムで構築されています。クラウドキャッシュは、次の場合にのみ使用する必要があります。ユーザー プロファイルまたは Office コンテナーのデータ可用性が必要 高可用性 SLA は重要であり、リージョンの障害に対する回復性が必要です。選択したストレージ オプションは、BCDR 要件を満たすことができません。たとえば、Azure ファイル共有 Premium レベル、または大きなファイルのサポートが有効になっている Azure ファイル共有標準では、GRS は使用できません。異種ストレージ間のレプリケーションが必要な場合。プロファイル パターン #3: ユーザー データ/プロファイル コンテナーではなく、アプリケーション データに対してのみ geo ディザスター リカバリーを設定する: 重要なアプリケーション データを、OneDrive や独自の組み込み DR メカニズムを備えたその他の外部ストレージなどの個別のストレージに格納します。</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1570,13 +1570,13 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
+          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1595,38 +1595,38 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>ライセンス要件を確認する</t>
+          <t>Azure ネットアップ ファイルの DR 戦略を確認する</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Windows仮想デスクトップワークロードを実行するための適切なライセンスを取得したお客様は、セッションホスト仮想マシンにWindowsライセンスを適用し、別のライセンスを支払うことなくそれらを実行する資格があります。</t>
+          <t>geo ディザスター リカバリー: Azure NetApp Files は基本的に LRS (ローカルにレプリケートされたストレージ) であるため、リージョン間のレプリケーションが必要な場合は、さらに何かを設計する必要があります。現時点でのクロスリージョンの推奨事項は、別の Azure リージョン(およびネットアップボリューム)にレプリケートするネットアップクラウド同期です。バックアップ:バックアップはスナップショットによって処理されますが、自動ではなく、ポリシーを使用してスケジュールする必要があります。https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots。ここに記載されているように、ボリュームあたりのスナップショットの上限(255)があります:https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits。</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
+          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1645,38 +1645,38 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>PoC を実行してエンドツーエンドのユーザー エクスペリエンスをテストし、ネットワーク待機時間による影響を検証します。</t>
+          <t>Azure Files DR 戦略を確認する</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t>ユーザーの場所と AVD リージョンの展開によっては、ユーザーのエクスペリエンスが最適でない場合があるため、小規模な PoC 環境でできるだけ早くテストすることが重要です。</t>
+          <t>geo ディザスター リカバリー: Azure Files の GRS は、Standard SKU でのみ使用でき、大規模な共有のサポートはないため、ほとんどのお客様のシナリオには適していません。geo レプリケーションが必要な場合は、Azure ファイル共有プレミアムを使用するときに、FSLogix クラウド キャッシュを使用したレプリケーションを評価するか、"リージョン内" 可用性ゾーン (AZ) のみの回復性を考慮する必要があります。バックアップ: Azure Backup は、すべての SKU で Azure ファイル共有を完全にサポートしており、プロファイル コンテナーを保護するために推奨されるソリューションです。OneDriveまたはその他の外部ストレージを使用している場合は、ユーザープロファイルやOfficeコンテナのデータを保存する必要がない場合があります。</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-afs</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
+          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1695,38 +1695,38 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>ユーザーがフルデスクトップやリモートアプリケーションを使用してAVDにアクセスするかどうかを判断する</t>
+          <t>アプリケーションを AVD ホストプールに展開する方法を決定する</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t>ユーザーにフルデスクトップやリモートアプリケーショングループを提供するかどうかを決定します。</t>
+          <t>アプリケーションは、ゴールデン イメージにプレインストールすることも、MSIX &amp; AppAttach 機能を使用してアタッチすることも、従来の SW 配布方法を使用してプールのデプロイ後にホストに配布することもできます。</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
+          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1745,38 +1745,38 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>すべてのユーザーが同じ RDP 設定を持ちますか?</t>
+          <t>必要なゴールデン画像の数を見積もる</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>RDP 設定は現在、ホスト プール レベルでのみ構成でき、ユーザー/グループごとでは構成できません。</t>
+          <t>彼らは、単一のイメージ、または異なるアプリケーションが組み込まれた複数のイメージに役立つfslogixアプリケーションマスキングを使用しますか?</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
+          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1795,22 +1795,22 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>管理された内部ネットワークから接続するクライアントの RDP ショートパスを評価する</t>
+          <t>ホスト プールの展開に使用する OS イメージを決定する</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>マネージド ネットワークの RDP ショートパスは、リモート デスクトップ クライアントとセッション ホスト間の直接 UDP ベースのトランスポートを確立する Azure 仮想デスクトップの機能です。余分なリレーを削除すると、ラウンドトリップ時間が短縮され、レイテンシの影響を受けやすいアプリケーションや入力メソッドでのユーザーエクスペリエンスが向上します。RDP ショートパスをサポートするには、Azure 仮想デスクトップ クライアントはセッション ホストへの直接の見通し線を必要とし、Windows 10 または Windows 7 を実行していて、Windows デスクトップ クライアントがインストールされている必要があります。</t>
+          <t>各ホスト プールの展開に使用するゲスト OS を決定します: Windows 10 と Windows Server、マーケットプレースとカスタム イメージ</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -1820,13 +1820,13 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1834,7 +1834,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
+          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1845,38 +1845,38 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>使用するホスト・プール・タイプを決定する</t>
+          <t>カスタム イメージを使用する場合は、自動ビルド プロセスがあるかどうかを判断しますか。</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>共有/プールまたは専用/個人</t>
+          <t>何も存在しない場合は、Azure Image Builder を使用してビルド プロセスを自動化することを検討してください。</t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/image-builder-overview</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1884,7 +1884,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8468c55a-775c-46e-a5b8-6ad88844ce3b2</t>
+          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1895,38 +1895,38 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>[個人用ホスト プールの種類] で、割り当ての種類を決定します。</t>
+          <t>カスタム イメージを使用する場合、イメージのライフサイクルを整理および管理する計画はありますか?</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>自動割り当てと直接割り当ての違いがよく理解されており、選択したオプションが問題のシナリオに適していることを確認します。</t>
+          <t>Azure コンピューティング ギャラリーを評価します。</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1934,7 +1934,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
+          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1945,22 +1945,22 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>「プールされたホスト・プール・タイプ」で、ロード・バランシング方式を決定します。</t>
+          <t>カスタムイメージを使用する場合は、マスターイメージの構築方法に関する AVD の推奨ベストプラクティスを確認してください。</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t>使用するオプションと使用可能なオプションを確認し、自動スケールを使用する場合は、幅優先に設定されることに注意してください。</t>
+          <t>ゴールデンイメージのカスタマイズに関するいくつかの既知のベストプラクティスと推奨事項がありますので、参照されている記事を確認してください。</t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
@@ -1970,13 +1970,13 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
+          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1995,38 +1995,38 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>展開するさまざまなホスト・プールの数を見積もる</t>
+          <t>仮想デスクトップ最適化ツールの使用状況を評価する</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>選択基準に基づいて、必要なホスト・プールの数はいくつですか。あなたは複数のものを持つことを検討する必要があります:?複数のOSイメージ?複数の地域?異なるハードウェアが必要ですか?異なるホストプールタイプ(共有と個人)?異なるユーザー要件とSLA(トップユーザー、エグゼクティブ、オフィスワーカー対開発者など)?異なるRDP設定(ホストプールレベルで適用)は、「https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties」を参照してください。ホスト プール内の必要な数の VM が最大機能を超えています</t>
+          <t>このツールセットは、ホワイト ペーパー「仮想デスクトップ インフラストラクチャ (VDI) ロールのための Windows 10 バージョン 2004 の最適化」で参照されている設定を自動的に適用するために作成されました https://learn.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004。ホワイトペーパーに記載されているツールの使用および/または最適化を検討する必要があります。</t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
+          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2045,45 +2045,45 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>ワークロード パフォーマンス テストを実行して、使用する最適な Azure VM SKU とサイズを決定します (プールあたりのホスト数を決定します)。</t>
+          <t>AVD セッションホスト設定管理戦略の計画/評価</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>提供されたリンクを使用して SKU 決定の開始点を設定し、パフォーマンス テストを使用して検証します。セッション・ホストごとに本番用に最低4つのコアが選択されていることを確認します(マルチセッション)</t>
+          <t>初期展開後にホスト プール VM の構成を管理するための構成管理ツールが既に導入されているかどうかを確認します (SCCM、MEM/Intune、GPO、3 番目のパーティのソリューションなど)。</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
+          <t>https://learn.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
+          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2094,45 +2094,45 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>環境のAVDスケーラビリティ制限の確認</t>
+          <t>Microsoft OneDrive が AVD 展開の一部になるかどうかを判断する</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t>参照記事で報告されたAVD容量と制限を確認することが重要です。</t>
+          <t>提供されている記事を確認し、「既知のフォルダーリダイレクト」と「ファイルオンデマンド」を確認します OneDrive 機能を検討し、最終的に採用する必要があります。</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
+          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2143,22 +2143,22 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>セッションホストがGPUを必要とするかどうかを判断する</t>
+          <t>Microsoft Teams が AVD 展開の一部になるかどうかを判断する</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t>GPUを搭載したホストプールには特別な設定が必要ですので、必ず参照記事を確認してください。</t>
+          <t>この記事を確認し、最新バージョンを使用し、Teams の除外を確認して評価し、プロファイルのサイズを小さくしてください。</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -2168,20 +2168,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
+          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2192,45 +2192,45 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>キャパシティ・プランニング</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Azure の高速ネットワーク機能を利用できる VM SKU を使用することをお勧めします。</t>
+          <t>プロファイル/Office コンテナーと同じストレージ アカウント/共有を使用しないでください</t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>可能な限り、高速ネットワーク機能を備えた VM SKU を活用することをお勧めします。今日、pnlyのWindows Server OSがサポートされています(記事のリストを参照)、将来のWindowsクライアントOSも含まれるかもしれません。</t>
+          <t>MSIX パッケージを格納するには、個別のストレージ アカウント/共有を使用することを強くお勧めします。必要に応じて、ストレージは個別にスケールアウトでき、プロファイル I/O アクティビティの影響を受けません。Azure には、MISX アプリのアタッチに使用できる複数のストレージ オプションが用意されています。Azure Files または Azure NetApp Files は、コストと管理オーバーヘッドの間で最適な価値を提供するため、これらのオプションを使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
+          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2241,22 +2241,22 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory テナントは、少なくとも 1 つのサブスクリプションがリンクされている状態で利用可能である必要があります。</t>
+          <t>MSIX のパフォーマンスに関する考慮事項を確認する</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>Azure サブスクリプションは、Windows Server Active Directory インスタンスまたは Azure AD DS インスタンスを含む、または接続されている仮想ネットワークを含む、同じ Azure AD テナントの親である必要があります。</t>
+          <t>参照記事では、AVD コンテキストでの MSIX の使用に関するパフォーマンスに関する考慮事項はほとんどありませんが、慎重に確認してください。</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2266,20 +2266,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
+          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2290,38 +2290,38 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Windows Server Active Directory フォレスト/ドメインが Azure Active Directory と同期している</t>
+          <t>MSIX 共有の適切なセッション ホストのアクセス許可を確認する</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>これは、Azure AD Connect (ハイブリッド組織の場合) または Azure AD ドメイン サービス (ハイブリッド組織またはクラウド組織の場合) を使用して構成できます。</t>
+          <t>MSIX アプリのアタッチには、ファイル共有にアクセスするための読み取り専用アクセス許可が必要です。MSIX アプリケーションを Azure Files に格納する場合は、セッション ホストに対して、すべてのセッション ホスト VM に、共有に対するストレージ アカウント ロールベースのアクセス制御 (RBAC) とファイル共有の新技術ファイル システム (NTFS) アクセス許可の両方を割り当てる必要があります。</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
+          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2340,22 +2340,22 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Windows 仮想デスクトップに接続するためのユーザー アカウントの要件を確認する</t>
+          <t>3番目のパーティ製アプリケーション用の MSIX パッケージ</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>(1) ユーザーは、Azure AD に接続されているのと同じ Active Directory から取得する必要があります。Windows Virtual Desktop は、B2B または MSA アカウントをサポートしていません。(2) Windows 仮想デスクトップのサブスクライブに使用する UPN は、VM が参加している Active Directory ドメインに存在する必要があります。</t>
+          <t>3番目のパーティのソフトウェアベンダーは、MIXパッケージを提供する必要があります、それは顧客アプリケーションの所有者からの適切なサポートなしで変換手順を試みることはお勧めしません。</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -2365,13 +2365,13 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2379,7 +2379,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
+          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2390,38 +2390,38 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>作成されるAVDセッションホストのVM要件を確認する</t>
+          <t>MSIX パッケージの自動更新を無効にする</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>VM は、標準ドメインに参加しているか、ハイブリッド AD に参加している必要があります。仮想マシンを Azure AD に参加させることはできません。</t>
+          <t>MSIX アプリのアタッチでは、MSIX アプリケーションの自動更新がサポートされないため、無効にする必要があります。</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>EA962A15-9394-46da-A7CC-3923266B2258</t>
+          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2440,38 +2440,38 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory Domain Services (AAD-DS) を AVD に使用する前に、必ず制限事項を確認してください。</t>
+          <t>オペレーティング システムのサポートを確認する</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>自己管理型の Active Directory Domain Services、Azure Active Directory、およびマネージド Azure Active Directory Domain Services の比較</t>
+          <t>MSIX &amp; App Attach を利用するには、AVD ホスト プールのゲスト OS イメージが Windows 10 Enterprise または Windows 10 Enterprise Multi-session バージョン 2004 以降である必要があります。</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2479,7 +2479,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
+          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2490,22 +2490,22 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>セッション ホスト</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>AVD ホスト プールの近くに Azure VNET 環境に少なくとも 2 つのアクティブ ディレクトリ ドメイン コントローラー (DC) を作成する</t>
+          <t>ホスト プールの展開のための Gen2 VM の使用状況を評価する</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t>Azure の AD DC は、AVD セッション ホストにログインするユーザーの待機時間を短縮し、最終的には Azure NetApp Files と AD 統合の待機時間を短縮することをお勧めします。ADC は、すべての子ドメインの DC と通信できる必要があります。別の方法として、オンプレミス接続を使用して AD DC に到達する必要があります。</t>
+          <t>ホスト プールのデプロイに使用する VM SKU を選択したら、セキュリティを強化し、機能を向上させるために、Gen2 タイプの SKU を使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -2515,13 +2515,13 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/generation-2</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2529,7 +2529,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
+          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2540,38 +2540,38 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>各ホスト プールの Active Directory に特定の OU を作成する</t>
+          <t>使用するホスト・プール・タイプの決定</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t>ホスト プールごとに個別の OU を別の OU 階層の下に作成することをお勧めします。これらの OU には、AVD セッション ホストのコンピューター アカウントが含まれます。</t>
+          <t>共有/プールまたは専用/個人</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2579,7 +2579,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2590,22 +2590,22 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>OU に適用され、ホスト プール VM の機能に影響を与えるドメイン GPO を確認する</t>
+          <t>パーソナルホストプールタイプで、割り当てタイプを決定します</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>慎重に確認し、最終的には AVD ホスト プールを含む OU への GPO の継承をブロック/フィルター処理します。</t>
+          <t>自動割り当てと直接割り当ての違いがよく理解されており、選択したオプションが問題のシナリオに適していることを確認します。</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2615,13 +2615,13 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2629,7 +2629,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>7126504b-b47a-4393-a080-327294798b15</t>
+          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2640,22 +2640,22 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>VM をドメインに参加させるアクセス許可のみを持つ専用のユーザー アカウントを作成する</t>
+          <t>プールされたホストプールタイプで、負荷分散方法を決定します</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t>特定のアクセス許可を持つ特定の専用アカウントを持ち、既定の 10 参加制限なしで使用することをお勧めします。</t>
+          <t>使用するものと使用可能なオプションを確認し、自動スケーリングを使用する場合は幅優先に設定されることに注意してください。</t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
@@ -2665,13 +2665,13 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2679,7 +2679,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
+          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2690,38 +2690,38 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>各ホスト プール アプリケーション グループ (DAG または RAG) へのアクセスを許可するユーザー セットごとにドメイン ユーザー グループを作成します。</t>
+          <t>展開するさまざまなホスト プールの数を見積もる</t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t>ユーザーごとにアクセス権を付与するのではなく、AD グループを使用し、Azure AD の ADC を使用してレプリケートします。</t>
+          <t>選択基準に基づいて、必要なホストプールの数はいくつですか。次の場合は、複数のものを持つことを検討する必要があります。複数のOSイメージ?複数の地域?別のハードウェアが必要ですか?異なるホストプールタイプ(共有と個人)?異なるユーザー要件とSLA(トップユーザー、エグゼクティブ、オフィスワーカー対開発者など)?さまざまな RDP 設定 (ホスト プール レベルで適用) については、「https://learn.microsoft.com/azure/virtual-desktop/customize-rdp-properties」を参照してください。ホスト プール内の必要な数の VM が最大機能を超えています</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2729,7 +2729,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
+          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2740,38 +2740,38 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Azure Files AD 統合で使用されるアカウントの組織のパスワード有効期限ポリシーを確認する</t>
+          <t>ワークロード パフォーマンス テストを実行して、使用する最適な Azure VM SKU とサイズを決定します (プールあたりのホスト数を決定します)</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>Azure ファイル共有と Active Directory 認証を統合する手順の一部として、ストレージ アカウント (ファイル共有) を表す AD アカウントが作成されます。コンピューター アカウントまたはサービス ログオン アカウントとして登録することを選択できます。詳細については、「FAQ」を参照してください。コンピューター アカウントの場合、AD で 30 日に設定された既定のパスワード有効期限があります。同様に、サービス ログオン アカウントには、AD ドメインまたは組織単位 (OU) で既定のパスワードの有効期限が設定されている場合があります。どちらのアカウントの種類でも、AD 環境で構成されているパスワードの有効期限を確認し、パスワードの最大有効期間に達する前に、AD アカウントのストレージ アカウント ID のパスワードを更新することを計画することをお勧めします。AD に新しい AD 組織単位 (OU) を作成し、それに応じてコンピューター アカウントまたはサービス ログオン アカウントのパスワード有効期限ポリシーを無効にすることを検討できます。</t>
+          <t>提供されているリンクを使用して SKU 決定の開始点を設定し、パフォーマンス テストを使用して検証します。セッション ホストごとに少なくとも 4 つのコアが本番用に選択されていることを確認します (マルチセッション)</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
+          <t>https://learn.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2779,7 +2779,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
+          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2790,38 +2790,38 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>オンプレミス環境のハイブリッド接続アーキテクチャの確認</t>
+          <t>環境の AVD スケーラビリティの制限を確認する</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド接続の種類エクスプレスルート、VPN、NVAは?</t>
+          <t>参照記事で報告されている AVD の容量と制限を確認することが重要です。</t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2829,7 +2829,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
+          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2840,22 +2840,22 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>ユーザーが AVD ホスト プールからオンプレミスにアクセスする必要があるリソースを評価する</t>
+          <t>セッション ホストに GPU が必要かどうかを判断する</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>帯域幅の要件を評価し、VPN/ER 帯域幅が十分であり、待機時間が許容可能であることを確認します。</t>
+          <t>GPU を搭載したホスト プールには特別な構成が必要ですので、参照先の記事を必ず確認してください。</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
@@ -2865,13 +2865,13 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2879,7 +2879,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
+          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2890,38 +2890,38 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>AVD サービスのランディング ゾーン ネットワーク トポロジを確認する</t>
+          <t>Azure の高速ネットワーク機能を利用できる VM SKU を使用することをお勧めします。</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>CAF に基づく AVD ホスト プールを配置する新しいプールを確認または推奨します (vWAN vs. Hub &amp; Spoke)</t>
+          <t>可能な限り、高速ネットワーク機能を備えた VM SKU を活用することをお勧めします。現在、Windows Server OSがサポートされており(記事のリストを参照)、将来的にはWindowsクライアントOSも含まれる可能性があります。</t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2929,7 +2929,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
+          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2940,22 +2940,22 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>複数のホスト・プールのVNETとサブネットの配置を評価する</t>
+          <t>AVD に接続するユーザーの数と、どのリージョンから接続するかを評価する</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t>各サブネットに、AVD ホスト プールをスケーリングするのに十分な領域があることを確認します。ホストプールごとに、可能であれば別々のサブネットを使用することをお勧めします。</t>
+          <t>適切な計画と展開を行うには、最大ユーザー数と平均同時セッション数を評価することが重要です。</t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
@@ -2965,20 +2965,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
+          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2989,22 +2989,22 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>AVDホストのインターネットアウトバウンドトラフィックを制御/制限する必要がありますか?</t>
+          <t>すべてのユーザーが同じアプリケーション・セットを持つか、異なるホスト・プール構成やOSイメージを使用するかを決定する</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>いくつかのオプションが利用可能です。Azure ファイアウォールまたは NVA ファイアウォール、NSG および/またはプロキシを使用できます。NSG は URL によってのみ有効/無効にすることはできません。ただし、ポートとプロトコルのみです。プロキシは、ユーザーブラウザの明示的な設定としてのみ使用してください。AVD で Azure Firewall Premium を使用する方法の詳細については、https://aka.ms/AVDfirewall と https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop を参照してください。AVD URL アクセスの要件の完全なリストを必ず確認してください。</t>
+          <t>異なるユーザー セットをサポートするために複数のホスト プールが必要になる可能性がある場合は、必要な数を見積もることをお勧めします。</t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
@@ -3014,13 +3014,13 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://aka.ms/AVDfirewall</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
+          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3039,38 +3039,38 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>AVDホスト上のユーザーに対してのみインターネット送信トラフィックを制御/制限する必要がありますか?</t>
+          <t>各ホスト プールの外部依存関係を評価する</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender エンドポイントを使用してユーザーの Web ナビゲーションを制御する方法を検討してください。詳細については、「セキュリティ」セクションを参照してください。</t>
+          <t>AVD プールの外部のリソース(Active Directory、外部ファイル共有またはその他のストレージ、オンプレミスのサービスとリソース、VPN や Express Route などのネットワーク インフラストラクチャ コンポーネント、外部サービス、サードパーティ コンポーネントなど)への依存関係を評価および確認する必要があります。これらすべてのリソースについて、AVD ホストプールからの遅延を評価し、接続を考慮する必要があります。さらに、BCDR に関する考慮事項をこれらの依存関係にも適用する必要があります。</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -3078,7 +3078,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
+          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3089,45 +3089,45 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>UDR で AVD ホスト プール サブネットを確認する</t>
+          <t>使用されているクライアント OS と AVD クライアントタイプを確認する</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t>カスタム UDR は、AVD ホスト プール サブネットに適用できます (たとえば、Azure ファイアウォールまたは NVA にリダイレクトする場合など)。この場合、AVD コントロール プレーンへのアウトバウンド トラフィックの最適なパスが使用されていることを確認するために、慎重に確認することをお勧めします。サービス タグを UDR で使用できるようになりました。これにより、AVD 管理プレーンのトラフィックを簡単にホワイトリストに登録できます。https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop</t>
+          <t>各クライアントの制限事項を確認し、可能な場合は複数のオプションを比較します。</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
+          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3138,45 +3138,45 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>AVDコントロールプレーンエンドポイントがアクセス可能であることを確認する</t>
+          <t>ライセンス要件を確認する</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>セッション ホストによる AVD コントロール プレーン アクセスに必要な URL については、https://docs.microsoft.com/azure/virtual-desktop/safe-url-list を参照してください。チェックツールは、セッションホストからの接続を確認するために使用できます:https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool。</t>
+          <t>Windows Virtual Desktop ワークロードを実行するための適切なライセンスを持つお客様は、セッション ホスト仮想マシンに Windows ライセンスを適用し、別のライセンスを支払うことなく実行できます。</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
+          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
+          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3187,38 +3187,38 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>各ユーザーに必要なネットワーク帯域幅と、VM SKU の合計を確認します。</t>
+          <t>PoC を実行してエンドツーエンドのユーザー エクスペリエンスをテストし、ネットワーク遅延による影響を検証する</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t>特定のワークロードの種類に基づいて、ユーザーのネットワーク帯域幅の要件を評価および確認することをお勧めします。参照先の記事は一般的な見積もりと推奨事項を提供しますが、適切なサイズ設定を行うには特定の手段が必要です。</t>
+          <t>ユーザーの場所と AVD リージョンの展開によっては、ユーザーのエクスペリエンスが最適でない場合があるため、小規模な PoC 環境でできるだけ早くテストすることが重要です。</t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3226,7 +3226,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
+          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3237,38 +3237,38 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>セッションホスト</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>ホスト プール展開のための Gen2 VM の使用状況を評価する</t>
+          <t>ユーザーがフルデスクトップやリモートアプリケーションを使用して AVD にアクセスするかどうかを決定する</t>
         </is>
       </c>
       <c r="D51" s="22" t="inlineStr">
         <is>
-          <t>ホスト プールの展開に使用する VM SKU を選択したら、セキュリティの強化と機能強化のために Gen2 タイプの SKU を使用することをお勧めします。</t>
+          <t>ユーザーにフルデスクトップまたはリモートアプリケーショングループを提供するかどうかを決定します。</t>
         </is>
       </c>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3276,7 +3276,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
+          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3287,38 +3287,38 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>AVD ホスト プールへのアプリケーションの展開方法を決定する</t>
+          <t>すべてのユーザーの RDP 設定は同じですか?</t>
         </is>
       </c>
       <c r="D52" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションは、ゴールデンイメージにプレインストールすることも、MSIX &amp; AppAttach 機能を使用してアタッチすることも、従来の SW 配布方法を使用してプールの展開後にホストに配布することもできます。</t>
+          <t>RDP 設定は、現在、ユーザー/グループごとではなく、ホスト プール レベルでのみ構成できます。</t>
         </is>
       </c>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3326,7 +3326,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
+          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3337,22 +3337,22 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>必要なゴールデン画像の数を見積もる</t>
+          <t>管理された内部ネットワークから接続するクライアントの RDP ShortPath を評価する</t>
         </is>
       </c>
       <c r="D53" s="22" t="inlineStr">
         <is>
-          <t>彼らは単一のイメージに役立つfslogixアプリケーションマスキングを使用するのか、それとも異なるアプリケーションがベイクインされた複数のイメージを使用するのか:複数のイメージを使用する必要があるのは何か?</t>
+          <t>マネージド ネットワークの RDP ショートパスは、リモート デスクトップ クライアントとセッション ホスト間の直接 UDP ベースのトランスポートを確立する Azure 仮想デスクトップの機能です。余分なリレーを削除すると、ラウンドトリップ時間が短縮され、遅延の影響を受けやすいアプリケーションや入力方式のユーザーエクスペリエンスが向上します。RDP ショートパスをサポートするには、Azure 仮想デスクトップ クライアントがセッション ホストへの直接の通信経路を必要とし、Windows 10 または Windows 7 のいずれかを実行し、Windows デスクトップ クライアントがインストールされている必要があります。</t>
         </is>
       </c>
       <c r="E53" s="22" t="inlineStr">
@@ -3362,20 +3362,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/shortpath</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
+          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3386,38 +3386,38 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>ホスト プールの展開に使用する OS イメージを決定する</t>
+          <t>どの Azure リージョンにデプロイされるかを決定します。</t>
         </is>
       </c>
       <c r="D54" s="22" t="inlineStr">
         <is>
-          <t>各ホスト プールの展開に使用するゲスト OS を決定します (Windows 10 と Windows Server、マーケットプレースとカスタム イメージ)。</t>
+          <t>AVDは非地域サービスであり、ホストプールは任意のリージョンで作成でき、最も近いフロントエンドからの自動リダイレクトが自動的に行われます。</t>
         </is>
       </c>
       <c r="E54" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3425,7 +3425,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
+          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3436,45 +3436,45 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>カスタム イメージを使用する場合は、自動ビルド プロセスがあるかどうかを判断しますか。</t>
+          <t>オンプレミス環境への接続にハイブリッド接続が必要かどうかを判断する</t>
         </is>
       </c>
       <c r="D55" s="22" t="inlineStr">
         <is>
-          <t>何も存在しない場合は、Azure Image Builder を使用してビルド プロセスを自動化することを検討してください。</t>
+          <t>オンプレミス環境に接続する必要がある場合は、現在の接続オプションを評価するか、必要な接続を計画します。</t>
         </is>
       </c>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
+          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3485,45 +3485,45 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>カスタム イメージを使用する場合、イメージのライフサイクルを整理および管理する計画はありますか。</t>
+          <t>ユーザーの場所と Azure AVD インフラストラクチャの間の待機時間を評価しましたか?</t>
         </is>
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Azure コンピューティング ギャラリーを評価します。</t>
+          <t>"Windows 仮想デスクトップ エクスペリエンス推定ツール" ツールを実行して、ホスト プールをデプロイするのに最適な Azure リージョンを選択します。150 ミリ秒を超える待機時間を超えると、ユーザー エクスペリエンスが最適でなくなる可能性があります。</t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
+          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3534,22 +3534,22 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>カスタムイメージを使用する場合は、マスターイメージの構築方法に関するAVDの推奨ベストプラクティスを確認してください。</t>
+          <t>AVD サービスのメタデータの場所を決定する</t>
         </is>
       </c>
       <c r="D57" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージのカスタマイズに関する既知のベストプラクティスと推奨事項がいくつかありますので、参照されている記事を必ず確認してください。</t>
+          <t>AVD は、特定の地理的な場所でサービスを実行するためにのみメタデータを保存し、顧客の要件に基づいて、現在利用可能なものと適切なものを決定します。</t>
         </is>
       </c>
       <c r="E57" s="22" t="inlineStr">
@@ -3559,20 +3559,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/data-locations</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
+          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3583,45 +3583,45 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>仮想デスクトップ最適化ツールの使用状況を評価する</t>
+          <t>選択したリージョンの特定の VM サイズの Azure クォータと可用性を確認する</t>
         </is>
       </c>
       <c r="D58" s="22" t="inlineStr">
         <is>
-          <t>このツールセットは、ホワイトペーパー「仮想デスクトップインフラストラクチャ (VDI) ロール用の Windows 10 バージョン 2004 の最適化」で参照されている設定を自動的に適用するために作成されまし https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004。ホワイトペーパーに記載されているツールの使用および/または最適化を考慮する必要があります。</t>
+          <t>特定の VM SKU を確認し (特に GPU またはハイスペックの SKU が必要な場合は)、最終的には Azure NetApp Files の可用性 (使用されている場合) を確認します。</t>
         </is>
       </c>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
+          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3632,45 +3632,45 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>AVDセッション・ホスト構成管理戦略の計画/評価</t>
+          <t>選択したリージョンのアベイラビリティーゾーン (AZ) の可用性を確認する</t>
         </is>
       </c>
       <c r="D59" s="22" t="inlineStr">
         <is>
-          <t>初期展開後にホスト プール VM 構成を管理するための構成管理ツール (SCCM、MEM/Intune、GPO、サード パーティ製ソリューションなど) が既に用意されているかどうかを確認します。</t>
+          <t>詳細については、「BCDR 」セクションを参照してください。</t>
         </is>
       </c>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
+          <t>https://learn.microsoft.com/azure/availability-zones/az-region</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
+          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3681,22 +3681,22 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Microsoft OneDrive が AVD 展開の一部になるかどうかを判断する</t>
+          <t>AVD ホスト プールに近い Azure VNET 環境に少なくとも 2 つのアクティブ ディレクトリ ドメイン コントローラー (DC) を作成します。</t>
         </is>
       </c>
       <c r="D60" s="22" t="inlineStr">
         <is>
-          <t>提供された記事を確認し、「既知のフォルダリダイレクト」と「ファイルオンデマンド」OneDriveの機能を検討し、最終的に採用する必要があります。</t>
+          <t>Azure の AD DC は、AVD セッションホストにログインするユーザーのレイテンシーを短縮し、最終的には Azure NetApp Files と AD 統合のレイテンシーを削減するために推奨されます。ADCは、すべての子ドメインのDCと通信できる必要があります。別の方法として、オンプレミス接続を使用して AD DC に到達する必要があります。</t>
         </is>
       </c>
       <c r="E60" s="22" t="inlineStr">
@@ -3706,20 +3706,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
+          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3730,45 +3730,45 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ/秒</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Microsoft TeamsがAVD展開の一部になるかどうかを判断する</t>
+          <t>ホスト プールごとにアクティブ ディレクトリに特定の OU を作成する</t>
         </is>
       </c>
       <c r="D61" s="22" t="inlineStr">
         <is>
-          <t>この記事を確認し、最新バージョンを使用し、Teams の除外を確認して評価し、プロファイルのサイズを縮小してください。</t>
+          <t>別の OU 階層の下にホスト プールごとに個別の OU を作成することをお勧めします。これらの OU には、AVD セッションホストのマシンアカウントが含まれます。</t>
         </is>
       </c>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3779,45 +3779,45 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>プロファイル/Office コンテナーと同じストレージ アカウント/共有を使用しないでください。</t>
+          <t>OU に適用され、ホスト プール VM の機能に影響を与えるドメイン GPO を確認する</t>
         </is>
       </c>
       <c r="D62" s="22" t="inlineStr">
         <is>
-          <t>MSIX パッケージを格納するために、個別のストレージ アカウント/共有を使用することを強くお勧めします。必要に応じて、ストレージは独立してスケールアウトでき、プロファイルI/Oアクティビティの影響を受けません。Azure には、MISX アプリの接続に使用できる複数のストレージ オプションが用意されています。Azure Files または Azure NetApp Files は、コストと管理のオーバーヘッドの間で最適な価値を提供するため、これらのオプションを使用することをお勧めします。</t>
+          <t>慎重に確認し、最終的に AVD ホストプールを含む OU への GPO の継承をブロック/フィルタリングします。</t>
         </is>
       </c>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
+          <t>7126504b-b47a-4393-a080-327294798b15</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3828,38 +3828,38 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>MSIX のパフォーマンスに関する考慮事項の確認</t>
+          <t>VM をドメインに参加させるためのアクセス許可のみを持つ専用ユーザー アカウントを作成する</t>
         </is>
       </c>
       <c r="D63" s="22" t="inlineStr">
         <is>
-          <t>参照された記事では、AVDコンテキストでのMSIXの使用に関する重要なパフォーマンス上の考慮事項はほとんど報告されていませんが、慎重に確認してください。</t>
+          <t>特定のアクセス許可を持つ特定の専用アカウントを持ち、既定の 10 回の参加制限がないことをお勧めします。</t>
         </is>
       </c>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3867,7 +3867,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
+          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3878,22 +3878,22 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>MSIX 共有の適切なセッション ホストのアクセス許可を確認する</t>
+          <t>各ホスト プール アプリケーション グループ (DAG または RAG) へのアクセスが許可されるユーザーのセットごとにドメイン ユーザー グループを作成します。</t>
         </is>
       </c>
       <c r="D64" s="22" t="inlineStr">
         <is>
-          <t>MSIX アプリの添付には、ファイル共有にアクセスするための読み取り専用のアクセス許可が必要です。MSIX アプリケーションを Azure Files に格納している場合は、セッション ホストに対して、すべてのセッション ホスト VM に、ストレージ アカウントの役割ベースのアクセス制御 (RBAC) とファイル共有の新しいテクノロジ ファイル システム (NTFS) の両方のアクセス許可を共有に割り当てる必要があります。</t>
+          <t>ユーザーごとにアクセスを許可するのではなく、AD グループを使用し、Azure AD の ADC を使用してレプリケートします。</t>
         </is>
       </c>
       <c r="E64" s="22" t="inlineStr">
@@ -3903,13 +3903,13 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3917,7 +3917,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
+          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3928,38 +3928,38 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>サードパーティ製アプリケーション用の MSIX パッケージ</t>
+          <t>Azure Files AD 統合で使用されるアカウントの組織のパスワード有効期限ポリシーを確認する</t>
         </is>
       </c>
       <c r="D65" s="22" t="inlineStr">
         <is>
-          <t>サードパーティのソフトウェアベンダーはMSIXパッケージを提供する必要がありますが、アプリケーション所有者からの適切なサポートなしに変換手順を試みることはお勧めしません。</t>
+          <t>Azure ファイル共有と Active Directory 認証を統合する手順の一環として、ストレージ アカウント (ファイル共有) を表す AD アカウントが作成されます。コンピューター アカウントまたはサービス ログオン アカウントとして登録することを選択できます (詳細については、FAQ を参照してください)。コンピューター アカウントの場合、AD には既定のパスワードの有効期限が 30 日に設定されています。同様に、サービス ログオン アカウントには、AD ドメインまたは組織単位 (OU) に既定のパスワード有効期限が設定されている場合があります。どちらのアカウントの種類でも、AD 環境で構成されているパスワードの有効期限を確認し、パスワードの最大有効期間の前に AD アカウントのストレージ アカウント ID のパスワードを更新することを計画することをお勧めします。AD に新しい AD 組織単位 (OU) を作成し、それに応じてコンピューター アカウントまたはサービス ログオン アカウントのパスワード有効期限ポリシーを無効にすることを検討できます。</t>
         </is>
       </c>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3967,7 +3967,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
+          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3978,45 +3978,45 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>MSIX パッケージの自動更新を無効にする</t>
+          <t>Azure Active Directory テナントは、少なくとも 1 つのサブスクリプションがリンクされている状態で使用可能である必要があります</t>
         </is>
       </c>
       <c r="D66" s="22" t="inlineStr">
         <is>
-          <t>MSIX アプリ接続は MSIX アプリケーションの自動更新をサポートしていないため、無効にする必要があります。</t>
+          <t>Azure サブスクリプションは、Windows Server Active Directory または Azure AD DS インスタンスを含む、または Azure AD DS インスタンスに接続されている仮想ネットワークを含む、同じ Azure AD テナントの親である必要があります。</t>
         </is>
       </c>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -4027,38 +4027,38 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>オペレーティング・システムのサポートの確認</t>
+          <t>Windows Server Active Directory フォレスト/ドメインが Azure Active Directory と同期している</t>
         </is>
       </c>
       <c r="D67" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; App Attach を活用するには、AVD ホスト プールのゲスト OS イメージが Windows 10 Enterprise または Windows 10 Enterprise マルチセッション バージョン 2004 以降である必要があります。</t>
+          <t>これは、Azure AD Connect (ハイブリッド組織の場合) または Azure AD ドメイン サービス (ハイブリッド組織またはクラウド組織の場合) を使用して構成できます。</t>
         </is>
       </c>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -4066,7 +4066,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
+          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4077,22 +4077,22 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>セッションホスト</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>セッション・ホストに使用する管理対象ディスクのタイプを決定する</t>
+          <t>Windows 仮想デスクトップに接続するためのユーザー アカウント要件を確認する</t>
         </is>
       </c>
       <c r="D68" s="22" t="inlineStr">
         <is>
-          <t>標準HDD、標準SSD、またはプレミアムSSD、エフェメラルディスクはサポートされていません、ウルトラディスクは推奨されません。ユーザー密度が低くない場合、およびクラウドキャッシュを使用する場合は、OSディスクのプレミアムを評価することをお勧めします。</t>
+          <t>(1) ユーザーは、Azure AD に接続されているのと同じ Active Directory から取得する必要があります。 Windows 仮想デスクトップは、B2B または MSA アカウントをサポートしていません。(2) Windows 仮想デスクトップのサブスクライブに使用する UPN は、VM が参加しているアクティブ ディレクトリ ドメインに存在する必要があります。</t>
         </is>
       </c>
       <c r="E68" s="22" t="inlineStr">
@@ -4102,13 +4102,13 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4127,38 +4127,38 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>FSLogixプロファイルとOfficeコンテナに使用するストレージバックエンドソリューションを決定する</t>
+          <t>作成される AVD セッションホストの VM 要件を確認する</t>
         </is>
       </c>
       <c r="D69" s="22" t="inlineStr">
         <is>
-          <t>Azure NetApp Files, Azure Files, VM based File Server.ファイルサーバーは推奨されません。Azure Files Premium は、通常、出発点として適しています。NetAppは通常、大規模/高パフォーマンスの環境にのみ必要です。</t>
+          <t>VM は、Standard ドメイン参加済みまたはハイブリッド AD 参加済みである必要があります。仮想マシンを Azure AD に参加させることはできません。</t>
         </is>
       </c>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -4166,7 +4166,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4177,22 +4177,22 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>プロファイル コンテナーを Office コンテナーから分離する可能性を評価する</t>
+          <t>AVD に Azure Active Directory ドメイン サービス (AAD-DS) を使用する前に、制限事項を確認してください。</t>
         </is>
       </c>
       <c r="D70" s="22" t="inlineStr">
         <is>
-          <t>Windows 仮想デスクトップでは、以下の「障害復旧」セクションで説明するように、特定のビジネス継続性と障害復旧 (BCDR) シナリオを計画していない限り、Office コンテナーなしでプロファイル コンテナーを使用することをお勧めします。https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>セルフマネージド Active Directory Domain Services、Azure Active Directory、および管理された Azure Active Directory Domain Services の比較</t>
         </is>
       </c>
       <c r="E70" s="22" t="inlineStr">
@@ -4202,13 +4202,13 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4216,7 +4216,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4227,38 +4227,38 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>ホスト・プール要件をサポートするためのストレージの拡張性の制限を確認</t>
+          <t>ホスト プールの自動スケーリング機能の要件を評価する</t>
         </is>
       </c>
       <c r="D71" s="22" t="inlineStr">
         <is>
-          <t>プロファイル コンテナーのストレージ パフォーマンス要件を見積もるための出発点として、定常状態ではユーザーあたり 10 IOPS、サインイン/サインアウト中はユーザーあたり 50 IOPS を想定することをお勧めします。</t>
+          <t>スケーリング ツールは、セッション ホスト VM のコストを最適化したいお客様向けに、低コストの自動化オプションを提供します。スケーリング ツールを使用して、ピーク時とオフピーク時の営業時間に基づいて VM を起動および停止するようにスケジュールしたり、CPU コアあたりのセッション数に基づいて VM をスケールアウトしたり、オフピーク時に VM をスケールインしたりして、セッション ホスト VM の最小数を実行したままにすることができます。パーソナルホストプールタイプではまだ使用できないため、ホストプールごとに個別に設定することをお勧めします。</t>
         </is>
       </c>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4266,7 +4266,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4277,38 +4277,38 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>NetApp ファイル ストレージを使用している場合は、特定のリージョンのストレージ サービスの可用性を確認します。</t>
+          <t>AVD に関する Azure アドバイザーの推奨事項を定期的に確認する</t>
         </is>
       </c>
       <c r="D72" s="22" t="inlineStr">
         <is>
-          <t>DRの目的で2番目のリージョンが必要な場合は、NetAppの可用性も確認します。</t>
+          <t>Azure Advisor は、構成とテレメトリを分析して、一般的な問題を解決するためのパーソナライズされた推奨事項を提供します。これらの推奨事項を使用すると、信頼性、セキュリティ、オペレーショナル エクセレンス、パフォーマンス、コストに関して Azure リソースを最適化できます。</t>
         </is>
       </c>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/azure-advisor</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4316,7 +4316,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4327,38 +4327,38 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>最適なパフォーマンスを得るには、ストレージ ソリューションと FSLogix プロファイル コンテナーを同じデータ センターの場所に配置する必要があります。</t>
+          <t>ゴールデンイメージ更新管理戦略を計画する</t>
         </is>
       </c>
       <c r="D73" s="22" t="inlineStr">
         <is>
-          <t>可能な限り、リージョン間のネットワーク トラフィックに関連する追加の待機時間とコストの発生を避けます。</t>
+          <t>ゴールデン イメージの更新を管理するための戦略を準備します (たとえば、セキュリティ修正プログラムの適用やイメージ内にインストールされているアプリケーションの更新など)。Azure Image Builder サービスは、VM のビルドとカスタマイズを自動化するためのファースト パーティのソリューションです。 ARM テンプレートを使用して新しいホストを作成し、古いホストを使用停止にすることができます。 https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool 推奨されるアプローチは、新しいプールをサイドバイサイドで作成し、ロールバックしやすく、専用プールに使用できないARMテンプレートを使用してVMを再デプロイして数を増やすことも実行可能なオプションです。また、既存のソフトウェア配布方法を使用して、SCCM などを使用して再展開せずにイメージを更新することもできます。</t>
         </is>
       </c>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4366,7 +4366,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4377,22 +4377,22 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>FSLogix の推奨ウイルス対策除外を構成します (接続時に VHD(x) ファイルをスキャンしないことを含みます)。</t>
+          <t>セッションホストのパッチ適用と更新戦略を計画する</t>
         </is>
       </c>
       <c r="D74" s="22" t="inlineStr">
         <is>
-          <t>参照記事に記載されているように、FSLogixプロファイルコンテナ仮想ハードドライブに対して次のウイルス対策除外を設定してください。</t>
+          <t>お客様にはいくつかのオプションがあります。- Microsoft エンドポイント構成マネージャー、この記事では、Windows 10 エンタープライズ マルチセッションを実行している Windows 仮想デスクトップ ホストに更新プログラムを自動的に適用するように Microsoft エンドポイント構成マネージャーを構成する方法について説明します。 https://learn.microsoft.com/azure/virtual-desktop/configure-automatic-updates- マイクロソフト Intune : https://learn.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)- OS をサポートする第三者 - Azure Update Management (Azure Automation)、現在はクライアント OS ではサポートされていません: https://learn.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt 修正プログラムの適用戦略から離れ、可能であればイメージ再作成戦略に移行することをお勧めします。</t>
         </is>
       </c>
       <c r="E74" s="22" t="inlineStr">
@@ -4402,13 +4402,13 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4416,7 +4416,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4427,38 +4427,38 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>FSLogix レジストリ キーを確認し、適用するレジストリ キーを決定します。</t>
+          <t>AVD テストカナリア環境の要件を評価する</t>
         </is>
       </c>
       <c r="D75" s="22" t="inlineStr">
         <is>
-          <t>デフォルトの基本設定と推奨設定はこちらです: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises 基本セットについてはこちらを参照してください: 完全な参照についてはこちらを https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee してください: https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>ホスト プールは、Windows 仮想デスクトップ環境内の 1 つ以上の同一の仮想マシンのコレクションです。サービス更新プログラムが最初に適用される検証ホスト プールを作成することを強くお勧めします。これにより、サービスの更新を標準環境または非検証環境に適用する前に監視できます。</t>
         </is>
       </c>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4466,7 +4466,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4477,38 +4477,38 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>同じプロファイルへの同時接続または複数接続の使用状況の確認</t>
+          <t>ホスト プールの展開戦略を決定する</t>
         </is>
       </c>
       <c r="D76" s="22" t="inlineStr">
         <is>
-          <t>同時接続または複数接続は、Windows 仮想デスクトップでは推奨されません。ベスト プラクティスは、セッションごとに異なるプロファイルの場所を (ホスト プールとして) 作成することです。</t>
+          <t>AVD ホスト プールは、Azure ポータル、ARM テンプレート、Azure CLI ツール、Powershell、登録トークンを使用した手動 VM 作成、Terraform など、いくつかの方法でデプロイできます。自動化および CI/CD ツールによる自動デプロイをサポートするために、適切な方法を採用することが重要です。</t>
         </is>
       </c>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4516,7 +4516,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4527,38 +4527,38 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>ストレージ・サイジングに関するベスト・プラクティスと主な考慮事項を確認する</t>
+          <t>トークンの更新のために 90 日ごとに VM を定期的にオンにする</t>
         </is>
       </c>
       <c r="D77" s="22" t="inlineStr">
         <is>
-          <t>テスト環境で検証するには、ワークロードに応じて、各ユーザーに対して 5 ~ 15 IOPS を最初に考慮する必要があります。Azure ファイル: 1 株あたり最大 100,000 IOPS (最大 100 TB)、3 ミリ秒の待機時間で最大 5 Gbps のプレミアム。Azure Files のプロビジョニング方法、つまり IOPS がプロビジョニングされた SIZE と厳密に結びついていることに注意してください。場合によってはバースト サイジング機能。十分な IOPS を確保するために、必要以上のスペースを UPFRONT でプロビジョニングしてください。注: Azure Premium は、トランザクションを支払わないため、Standard よりも安い場合がありますが、重要な詳細を念頭に置いておく必要があります。Azure NetApp ファイル: 最大 1000 個の IP が接続され、その場で IOPS を調整でき、プロビジョニングされた最小 4 TB の容量を覚えておいてください。</t>
+          <t>Windows 仮想デスクトップ サービス内のホスト プールに VM を登録すると、VM がアクティブになるたびに、エージェントによって VM のトークンが定期的に更新されます。登録トークンの証明書は 90 日間有効です。この 90 日間の制限のため、マシンがトークンを更新し、エージェントとサイド バイ サイド スタック コンポーネントを更新できるように、VM を 90 日ごとに 20 分間オンラインにすることをお勧めします。</t>
         </is>
       </c>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
+          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4577,38 +4577,38 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Azure Files のベスト プラクティスを確認する (使用されている場合)</t>
+          <t>AVD の Azure モニタリングを有効にする</t>
         </is>
       </c>
       <c r="D78" s="22" t="inlineStr">
         <is>
-          <t>参照先の記事に記載されているベスト プラクティスと推奨事項の一覧を必ず確認してください。</t>
+          <t>Azure Monitor for Windows Virtual Desktop は、Azure Monitor ブック上に構築されたダッシュボードであり、IT プロフェッショナルが Windows 仮想デスクトップ環境を理解するのに役立ちます。Windows 仮想デスクトップ環境を監視するように Windows 仮想デスクトップ用 Azure Monitor を設定する方法については、参照先の記事をお読みください。</t>
         </is>
       </c>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/azure-monitor</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4616,7 +4616,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4627,22 +4627,22 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>NetAppファイルのベスト・プラクティスを確認する(使用されている場合)</t>
+          <t>ワークスペース、ホスト プール、アプリケーション グループ、ホスト VM の診断設定を有効にして Log Analytics ワークスペースにリダイレクトする</t>
         </is>
       </c>
       <c r="D79" s="22" t="inlineStr">
         <is>
-          <t>参照先の記事に記載されているベスト プラクティスと推奨事項の一覧を必ず確認してください。</t>
+          <t>Windows Virtual Desktop では、他の多くの Azure サービスと同様に、監視とアラートに Azure Monitor と Log Analytics を使用します。これにより、管理者は単一のインターフェイスから問題を特定できます。このサービスは、ユーザー操作と管理者操作の両方のアクティビティ ログを作成します。 各アクティビティ ログは、管理、フィード、接続、ホスト登録、エラー、チェックポイントのカテゴリに分類されます。</t>
         </is>
       </c>
       <c r="E79" s="22" t="inlineStr">
@@ -4652,13 +4652,13 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4666,7 +4666,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
+          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4677,38 +4677,38 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>FSLogixで設定された最大プロファイルサイズを確認して確認する</t>
+          <t>プロファイルストレージにアラートを作成して、使用率とスロットリングが高い場合にアラートを受け取る</t>
         </is>
       </c>
       <c r="D80" s="22" t="inlineStr">
         <is>
-          <t>プロファイルコンテナのデフォルトの最大サイズは30GBです。大規模なプロファイル コンテナーが予想され、お客様がそれらを小さく保ちたい場合は、OneDrive を使用して FSLogix プロファイルの外部で Office 365 ファイルをホストすることを検討してください。</t>
+          <t>参照されている記事と、ストレージの適切な監視とアラートを設定するには、次の追加の記事を参照してください。 https://learn.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance。</t>
         </is>
       </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4716,7 +4716,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4727,22 +4727,22 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>FSLogixクラウドキャッシュを使用している場合は、キャッシュディレクトリを一時ドライブに移動します。</t>
+          <t>AVD アラートの Azure サービス正常性を構成する</t>
         </is>
       </c>
       <c r="D81" s="22" t="inlineStr">
         <is>
-          <t>Cloud Cache はローカルディスクをキャッシュとして使用し、VM ディスクに多くの負荷をかける可能性があります。可能であれば、VM SKU に基づいて、一時 (およびローカルに接続された) VM ディスクの電力を利用することをお勧めします。</t>
+          <t>Azure サービス正常性を使用して、Windows 仮想デスクトップのサービスの問題と正常性アドバイザリを監視できます。Azure Service Health では、さまざまな種類のアラート (電子メールや SMS など) で通知し、問題の影響を理解し、問題の解決時に最新情報を入手できます。</t>
         </is>
       </c>
       <c r="E81" s="22" t="inlineStr">
@@ -4752,13 +4752,13 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4766,7 +4766,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4777,22 +4777,22 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>FSLogix リダイレクトの使用状況を確認します。</t>
+          <t>オンプレミス環境のハイブリッド接続アーキテクチャを確認する</t>
         </is>
       </c>
       <c r="D82" s="22" t="inlineStr">
         <is>
-          <t>リダイレクト.XMLファイルは、プロファイルコンテナからC:ドライブにリダイレクトされるフォルダを制御するために使用されます。除外は例外であるべきであり、特定の除外が除外を構成する人によって完全に理解されない限り、決して使用しないでください。除外は、実装が意図されている環境で常に完全にテストする必要があります。除外を構成すると、機能、安定性、およびパフォーマンスに影響を与える可能性があります。</t>
+          <t>どのタイプのハイブリッド接続ですか?エクスプレスルート、VPN、NVA?</t>
         </is>
       </c>
       <c r="E82" s="22" t="inlineStr">
@@ -4802,13 +4802,13 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4816,7 +4816,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4827,38 +4827,38 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Azure NetApp ファイル ストレージが使用されている場合は、AD 接続の AD サイト名設定を確認します。</t>
+          <t>ユーザーが AVD ホストプールからオンプレミスにアクセスする必要があるリソースを評価する</t>
         </is>
       </c>
       <c r="D83" s="22" t="inlineStr">
         <is>
-          <t>ANF サブネットが作成される Azure 仮想ネットワーク環境用に Active Directory サイトを作成し、そのサイト名は、リファレンス記事で説明されているように、結合手順を実行するときに ANF 接続プロパティで指定する必要があります。</t>
+          <t>帯域幅の要件を評価し、VPN/ER 帯域幅が十分であり、待機時間が許容できることを確認します。</t>
         </is>
       </c>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4866,7 +4866,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4877,38 +4877,38 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>AVDユーザーがAVDホストに対するローカル管理者権限を持っていないことを確認します。</t>
+          <t>AVD サービスのランディングゾーンネットワーキングトポロジの確認</t>
         </is>
       </c>
       <c r="D84" s="22" t="inlineStr">
         <is>
-          <t>ユーザーに仮想デスクトップへの管理者アクセス権を付与しないことをお勧めします。ソフトウェア パッケージが必要な場合は、Microsoft エンドポイント マネージャーなどの構成管理ユーティリティを使用して使用できるようにすることをお勧めします。マルチセッション環境では、ユーザーがソフトウェアを直接インストールできないようにすることをお勧めします。</t>
+          <t>CAF に基づいて AVD ホストプールを配置する場所をレビューまたは推奨する(vWAN vs. ハブ&amp;スポーク)</t>
         </is>
       </c>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4916,7 +4916,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
+          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4927,38 +4927,38 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>ウイルス対策およびマルウェア対策ソリューションが使用されていることを確認する</t>
+          <t>複数のホスト プールの VNET とサブネットの配置を評価する</t>
         </is>
       </c>
       <c r="D85" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Endpoint が Windows Virtual Desktop for Windows 10 Enterprise マルチセッションをサポートするようになりました。非永続仮想デスクトップインフラストラクチャ(VDI)デバイスのオンボーディングに関する記事を確認する: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t>各サブネットに AVD ホストプールをスケーリングするのに十分なスペースがあることを確認します。ホスト プールが異なる場合は、可能であれば個別のサブネットを使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
+          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4977,38 +4977,38 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>適切なAV除外が設定されていることを確認する</t>
+          <t>AVD ホストのインターネットアウトバウンドトラフィックを制御/制限する必要がありますか?</t>
         </is>
       </c>
       <c r="D86" s="22" t="inlineStr">
         <is>
-          <t>次の除外が設定されていることを確認してください: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions 。</t>
+          <t>いくつかのオプションを使用できます。Azure Firewall または NVA ファイアウォール、NSG、プロキシを使用できます。NSG では、URL による有効化/無効化はできず、ポートとプロトコルのみが可能です。プロキシは、ユーザーブラウザの明示的な設定としてのみ使用する必要があります。AVD での Azure Firewall Premium の使用の詳細については、こちら https://aka.ms/AVDfirewall と こちら https://learn.microsoft.com/azure/firewall/protect-windows-virtual-desktop を参照してください。AVD URL アクセスの要件の完全なリストを確認してください。</t>
         </is>
       </c>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://aka.ms/AVDfirewall</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -5016,7 +5016,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
+          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -5027,38 +5027,38 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>AVDホストのディスク暗号化要件の評価</t>
+          <t>AVD ホスト上のユーザに対してのみインターネットアウトバウンドトラフィックを制御/制限する必要がありますか?</t>
         </is>
       </c>
       <c r="D87" s="22" t="inlineStr">
         <is>
-          <t>Azure 内のディスクは、既定で Microsoft マネージド キーを使用して保存時に既に暗号化されています。ホスト VM OS ディスクの暗号化は、ADE と DES を使用して可能でサポートされています: 賢明で永続的なユーザー データは、セッション ホスト ディスクに格納してはならず、コンプライアンス上の理由から厳密に必要な場合にのみ使用してください。Azure Files を使用した FSLogix ストレージの暗号化は、Azure Storage 上の SSE を使用して実行できます。OneDrive 暗号化については、この記事「https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services」を参照してください。</t>
+          <t>Azure Defender エンドポイントを使用してユーザーの Web ナビゲーションを制御することを検討してください。詳細については、「セキュリティ」セクションを参照してください。</t>
         </is>
       </c>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
+          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5077,38 +5077,38 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>AVDセッションホストからのユーザーのインターネットナビゲーションを制御/制限する必要がありますか?</t>
+          <t>AVD ホストプールサブネットの UDR の確認</t>
         </is>
       </c>
       <c r="D88" s="22" t="inlineStr">
         <is>
-          <t>ユーザーの Web ナビゲーションを制御するための Azure Defender エンドポイントの使用を検討してください。</t>
+          <t>カスタム UDR は、たとえば Azure ファイアウォールや NVA にリダイレクトするために、AVD ホスト プール サブネットに適用できます。この場合、AVD コントロールプレーンへのアウトバウンドトラフィックの最適なパスが使用されていることを慎重に確認することをお勧めします。サービスタグを UDR で使用できるようになり、AVD 管理プレーントラフィックを簡単にホワイトリストに登録できるようになりました。https://learn.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://learn.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -5116,7 +5116,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
+          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5127,38 +5127,38 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>AVD セッション ホストの Azure セキュリティ センター (ASC) の使用状況を評価する</t>
+          <t>AVD コントロールプレーンエンドポイントにアクセスできることを確認する</t>
         </is>
       </c>
       <c r="D89" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション、仮想マシン、キー コンテナー、およびストレージ アカウントに対して Azure Security Center Standard を有効にすることをお勧めします。Azure Security Center Standard を使用すると、脆弱性の評価と管理、PCI などの一般的なフレームワークへの準拠の評価、AVD 環境の全体的なセキュリティの強化が可能になります。</t>
+          <t>セッションホストによる AVD コントロールプレーンアクセスに必要な URL については、次の https://learn.microsoft.com/azure/virtual-desktop/safe-url-list を参照してください。セッション ホストからの接続を確認するためのチェック ツールを使用できます。 https://learn.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
         </is>
       </c>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/safe-url-list</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -5166,7 +5166,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
+          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5177,38 +5177,38 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ GPO を確認して RDP セッションをセキュリティで保護する</t>
+          <t>VM SKU の各ユーザーおよび合計に必要なネットワーク帯域幅を確認する</t>
         </is>
       </c>
       <c r="D90" s="22" t="inlineStr">
         <is>
-          <t>たとえば、デスクトップのロックアウトやアイドル状態のセッションの終了を強制するために使用する必要があります。オンプレミス環境に適用されている既存の GPO を確認し、最終的には AVD ホストもセキュリティで保護するために適用する必要があります。</t>
+          <t>特定のワークロードの種類に基づいて、ユーザーのネットワーク帯域幅要件を評価および確認することをお勧めします。参照されている記事は一般的な見積もりと推奨事項を提供しますが、適切なサイズ設定には特定の手段が必要です。</t>
         </is>
       </c>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -5216,7 +5216,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
+          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5232,33 +5232,33 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>AVD ユーザーの MFA の使用状況を評価する</t>
+          <t>AVD ユーザーが AVD ホストのローカル管理者権限を持たないようにします。</t>
         </is>
       </c>
       <c r="D91" s="22" t="inlineStr">
         <is>
-          <t>その他の詳細と洞察については、次の記事を参照してください: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
+          <t>仮想デスクトップへの管理者アクセス権をユーザーに付与しないことをお勧めします。ソフトウェア パッケージが必要な場合は、Microsoft エンドポイント マネージャーなどの構成管理ユーティリティを使用して使用できるようにすることをお勧めします。マルチセッション環境では、ユーザーがソフトウェアを直接インストールできないようにすることをお勧めします。</t>
         </is>
       </c>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -5266,7 +5266,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
+          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5282,33 +5282,33 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>ユーザーの条件付きアクセスの使用を評価する</t>
+          <t>ウイルス対策およびマルウェア対策ソリューションが使用されていることを確認します</t>
         </is>
       </c>
       <c r="D92" s="22" t="inlineStr">
         <is>
-          <t>条件付きアクセスを有効にすると、Windows 仮想デスクトップ環境へのアクセス権をユーザーに付与する前にリスクを管理できます。アクセスを許可するユーザーを決定するときは、ユーザーが誰であるか、サインインする方法、使用しているデバイスも考慮することをお勧めします。</t>
+          <t>Microsoft Defender for Endpoint は、Windows Virtual Desktop for Windows 10 Enterprise Multi-session をサポートするようになりました。非永続的な仮想デスクトップ インフラストラクチャ (VDI) デバイスのオンボードに関する記事を確認する: https://learn.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5316,7 +5316,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
+          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5332,33 +5332,33 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>中央の Log Analytics ワークスペースへの診断ログと監査ログを有効にする</t>
+          <t>適切なAV除外が実施されていることを確認する</t>
         </is>
       </c>
       <c r="D93" s="22" t="inlineStr">
         <is>
-          <t>監査ログの収集を有効にすると、Windows仮想デスクトップに関連するユーザーと管理者のアクティビティを表示できます。これはまた、AVD監視ツールをアンブルして使用するための要件です。有効にすることを強くお勧めします。</t>
+          <t>次の除外が設定されていることを確認してください: https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions 。</t>
         </is>
       </c>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
+          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>AVD 管理にカスタム RBAC ロールを使用する要件を評価する</t>
+          <t>AVD ホストのディスク暗号化要件を評価する</t>
         </is>
       </c>
       <c r="D94" s="22" t="inlineStr">
         <is>
-          <t>AVD は、Azure ロールベースのアクセス制御 (RBAC) を使用して、ユーザーと管理者にロールを割り当てます。これらのロールは、管理者に特定のタスクを実行する権限を付与します。職務の分離が必要な場合、Windows 仮想デスクトップには、ホスト プール、アプリ グループ、およびワークスペースの管理役割を分離できる追加の役割があります。この分離により、管理タスクをより細かく制御できます。これらのロールは、Azure の標準ロールと最小特権の方法論に準拠して名前が付けられています。</t>
+          <t>Azure のディスクは、既定では Microsoft マネージド キーを使用して保存時に既に暗号化されています。ホスト VM OS ディスクの暗号化は、ADE と DES を使用して可能であり、サポートされています: 賢明で永続的なユーザー データはセッション ホスト ディスクに格納せず、コンプライアンス上の理由で厳密に必要な場合にのみ使用する必要があります。Azure Files を使用した FSLogix ストレージの暗号化は、Azure Storage 上の SSE を使用して実行できます。OneDrive の暗号化については、この記事を参照してください: https://learn.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
         </is>
       </c>
       <c r="E94" s="22" t="inlineStr">
@@ -5402,13 +5402,13 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5416,7 +5416,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
+          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>AVD環境のすべてのセキュリティのベスト・プラクティスを確認する</t>
+          <t>AVD セッションホストからのユーザーのインターネットナビゲーションを制御/制限する必要がありますか?</t>
         </is>
       </c>
       <c r="D95" s="22" t="inlineStr">
         <is>
-          <t>セキュリティのベスト プラクティスと推奨事項の包括的なセットは、参照先の記事に含まれているので、確認することをお勧めします。</t>
+          <t>Azure Defender エンドポイントを使用してユーザーの Web ナビゲーションを制御することを検討してください。</t>
         </is>
       </c>
       <c r="E95" s="22" t="inlineStr">
@@ -5452,13 +5452,13 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5466,7 +5466,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
+          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5477,38 +5477,38 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>AVD の Azure Monitoring を有効にする</t>
+          <t>AVD セッションホストに対する Azure セキュリティ センター(ASC)の使用状況を評価する</t>
         </is>
       </c>
       <c r="D96" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor for Windows Virtual Desktop は、Azure Monitor ブック上に構築されたダッシュボードで、IT プロフェッショナルが Windows Virtual Desktop 環境を理解するのに役立ちます。Windows 仮想デスクトップ環境を監視するように Azure Monitor for Windows Virtual Desktop をセットアップする方法については、参照記事を参照してください。</t>
+          <t>サブスクリプション、仮想マシン、キー コンテナー、ストレージ アカウントに対して Azure セキュリティ センター Standard を有効にすることをお勧めします。Azure Security Center Standard を使用すると、脆弱性の評価と管理、PCI などの一般的なフレームワークへの準拠の評価、AVD 環境の全体的なセキュリティの強化が可能になります。</t>
         </is>
       </c>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5516,7 +5516,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
+          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5527,22 +5527,22 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>ワークスペース、ホスト プール、アプリケーション グループ、およびホスト VM の診断設定を有効にして、Analytics ワークスペースのログにリダイレクトする</t>
+          <t>アクティブ ディレクトリ GPO を確認して RDP セッションをセキュリティで保護する</t>
         </is>
       </c>
       <c r="D97" s="22" t="inlineStr">
         <is>
-          <t>Windows Virtual Desktop は、他の多くの Azure サービスと同様に、Azure Monitor と Log Analytics を使用して監視とアラートを行います。これにより、管理者は 1 つのインターフェイスから問題を特定できます。このサービスは、ユーザー操作と管理操作の両方のアクティビティ ログを作成します。 各アクティビティ ログは、管理、フィード、接続、ホスト登録、エラー、チェックポイントに分類されます。</t>
+          <t>たとえば、デスクトップのロックアウトやアイドル状態のセッション終了を課すために使用する必要があります。オンプレミス環境に適用されている既存の GPO を確認し、最終的には AVD ホストもセキュリティで保護するために適用する必要があります。</t>
         </is>
       </c>
       <c r="E97" s="22" t="inlineStr">
@@ -5552,13 +5552,13 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5566,7 +5566,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
+          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5577,38 +5577,38 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>プロファイルストレージにアラートを作成し、使用率と調整が高い場合にアラートを発する</t>
+          <t>AVD ユーザーの MFA の使用を評価する</t>
         </is>
       </c>
       <c r="D98" s="22" t="inlineStr">
         <is>
-          <t>参照記事と、ストレージの適切な監視とアラートを設定するための追加記事を参照してください: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance。</t>
+          <t>詳細と分析情報については、次の記事を参照してください。 https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
         </is>
       </c>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5616,7 +5616,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
+          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5627,38 +5627,38 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>AVD アラートの Azure サービス正常性を構成する</t>
+          <t>ユーザーの条件付きアクセスの使用状況を評価する</t>
         </is>
       </c>
       <c r="D99" s="22" t="inlineStr">
         <is>
-          <t>Azure サービスの正常性を使用して、Windows 仮想デスクトップのサービスの問題と正常性勧告を監視できます。Azure Service Health では、さまざまな種類のアラート (電子メールや SMS など) で通知し、問題の影響を理解し、問題が解決したときに最新の状態に保つことができます。</t>
+          <t>条件付きアクセスを有効にすると、Windows 仮想デスクトップ環境へのアクセス権をユーザーに付与する前にリスクを管理できます。アクセスを許可するユーザーを決定するときは、ユーザーが誰であるか、サインインする方法、使用しているデバイスも考慮することをお勧めします。</t>
         </is>
       </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5666,7 +5666,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
+          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5677,38 +5677,38 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>ホスト・プールの自動スケーリング機能の要件を評価する</t>
+          <t>中央の Log Analytics ワークスペースへの診断ログと監査ログを有効にする</t>
         </is>
       </c>
       <c r="D100" s="22" t="inlineStr">
         <is>
-          <t>スケーリング ツールは、セッション ホスト VM のコストを最適化したいお客様に、低コストの自動化オプションを提供します。スケーリング ツールを使用して、ピーク時とオフピーク時の営業時間に基づいて VM を開始および停止するようにスケジュールしたり、CPU コアあたりのセッション数に基づいて VM をスケール アウトしたり、オフピーク時に VM をスケールインして、セッション ホスト VM の最小数を実行したままにしたりできます。パーソナル・ホスト・プール・タイプではまだ利用できません。ホスト・プールごとに個別のセットアップを行うことをお勧めします。</t>
+          <t>監査ログの収集を有効にすると、Windows 仮想デスクトップに関連するユーザーと管理者のアクティビティを表示できます。これは、AVD 監視ツールを有効にして使用するための要件でもあります。有効にすることを強くお勧めします。</t>
         </is>
       </c>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5716,7 +5716,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
+          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5727,22 +5727,22 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Azure アドバイザーによる AVD に関する推奨事項を定期的に確認する</t>
+          <t>AVD 管理にカスタム RBAC ロールを使用する要件を評価する</t>
         </is>
       </c>
       <c r="D101" s="22" t="inlineStr">
         <is>
-          <t>Azure Advisor は、構成とテレメトリを分析して、一般的な問題を解決するためのパーソナライズされた推奨事項を提供します。これらの推奨事項を使用すると、信頼性、セキュリティ、運用の卓越性、パフォーマンス、およびコストのために Azure リソースを最適化できます。</t>
+          <t>AVD は、Azure ロールベースのアクセス制御(RBAC)を使用して、ユーザーと管理者にロールを割り当てます。これらのロールは、管理者に特定のタスクを実行する権限を付与します。職務の分離が必要な場合、Windows Virtual Desktop には、ホスト プール、アプリ グループ、およびワークスペースの管理役割を分離できる追加の役割があります。この分離により、管理タスクをよりきめ細かく制御できます。これらのロールには、Azure の標準ロールと最小特権の方法論に準拠した名前が付けられています。</t>
         </is>
       </c>
       <c r="E101" s="22" t="inlineStr">
@@ -5752,13 +5752,13 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/rbac</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5766,7 +5766,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>611ddd68c-5a4b-4252-8e44-a59a9c2399c4</t>
+          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5777,22 +5777,22 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>ゴールデンイメージの更新管理戦略を計画する</t>
+          <t>AVD 環境に関するすべてのセキュリティのベストプラクティスを確認する</t>
         </is>
       </c>
       <c r="D102" s="22" t="inlineStr">
         <is>
-          <t>ゴールデン イメージの更新を管理するための戦略を準備します (たとえば、セキュリティ修正プログラムの適用や、イメージ内にインストールされているアプリケーションの更新など)。Azure Image Builder Service は、VM のビルドとカスタマイズを自動化するためのファースト パーティのソリューションです。ARM テンプレートを使用して新しいホストを作成し、古いホストを使用停止にすることができます。https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool 推奨されるアプローチは、新しいプールを並べて作成し、ロールバックが容易で、専用のプールでは使用できない ARM テンプレートを使用して VM の数を再デプロイして増やすことも実行可能なオプションです。お客様は、SCCMなどを使用したexampelのために、既存のソフトウェア配布方法を使用して、再展開せずにイメージを更新することもできます。</t>
+          <t>セキュリティのベストプラクティスと推奨事項の包括的なセットは、参照記事に含まれているため、確認することをお勧めします。</t>
         </is>
       </c>
       <c r="E102" s="22" t="inlineStr">
@@ -5802,13 +5802,13 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5816,7 +5816,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
+          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5827,38 +5827,38 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>セッションホストのパッチ適用と更新戦略を計画する</t>
+          <t>FSLogix プロファイルおよびオフィス コンテナーに使用するストレージ バックエンド ソリューションを決定する</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
         <is>
-          <t>お客様にはいくつかのオプションがあります: - Microsoft エンドポイント構成マネージャー、この記事では、Windows 10 Enterprise マルチセッションを実行している Windows Virtual Desktop ホストに更新プログラムを自動的に適用するように Microsoft エンドポイント構成マネージャーを構成する方法について説明します: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)- OS をサポートするサード パーティ - Azure Update Management (Azure Automation) は、現在クライアント OS ではサポートされていません。パッチ適用戦略から移行し、可能であればイメージ再作成戦略に移行することを推奨 https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt ます。</t>
+          <t>Azure NetApp Files、Azure Files、VM ベースのファイル サーバー。ファイルサーバーは推奨されません。通常、Azure Files Premium は出発点として適しています。ネットアップは通常、大規模で高パフォーマンスの環境にのみ必要です。</t>
         </is>
       </c>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5866,7 +5866,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
+          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5877,22 +5877,22 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>AVDテストカナリア環境の要件を評価する</t>
+          <t>プロファイルコンテナをオフィスコンテナから分離する可能性を評価する</t>
         </is>
       </c>
       <c r="D104" s="22" t="inlineStr">
         <is>
-          <t>ホスト プールは、Windows 仮想デスクトップ環境内の 1 つ以上の同一の仮想マシンのコレクションです。サービスの更新が最初に適用される検証ホスト プールを作成することを強くお勧めします。これにより、サービスが標準環境または非検証環境に適用する前に、サービスの更新を監視できます。</t>
+          <t>Windows Virtual Desktop では、以下の「ディザスター リカバリー」セクションで説明するように、特定のビジネス継続性とディザスター リカバリー (BCDR) シナリオを計画していない限り、Office コンテナーなしでプロファイル コンテナーを使用することをお勧めします。https://learn.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
         </is>
       </c>
       <c r="E104" s="22" t="inlineStr">
@@ -5902,13 +5902,13 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
+          <t>https://learn.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5916,7 +5916,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
+          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5927,38 +5927,38 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>ホストプールの展開戦略を決定する</t>
+          <t>ホスト プールの要件をサポートするための記憶域のスケーラビリティの制限を確認する</t>
         </is>
       </c>
       <c r="D105" s="22" t="inlineStr">
         <is>
-          <t>AVD ホスト プールは、Azure Portal、ARM テンプレート、Azure CLI ツール、Powershell、登録トークンを使用した手動 VM 作成、Terraform など、いくつかの方法でデプロイできます。自動化および CI/CD ツールによる自動デプロイメントをサポートするために、適切な方式を採用することが重要です。</t>
+          <t>プロファイル コンテナーのストレージ要件を見積もるための開始点として、定常状態ではユーザーあたり 10 IOPS、サインイン/サインアウト時にはユーザーあたり 50 IOPS を想定することをお勧めします。</t>
         </is>
       </c>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5966,7 +5966,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
+          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5977,22 +5977,22 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>トークンの更新のために90日ごとにVMを定期的にオンにする</t>
+          <t>NetApp Files ストレージを使用している場合は、特定のリージョンのストレージサービスの可用性を確認してください。</t>
         </is>
       </c>
       <c r="D106" s="22" t="inlineStr">
         <is>
-          <t>VM を Windows 仮想デスクトップ サービス内のホスト プールに登録すると、エージェントは VM がアクティブになるたびに VM のトークンを定期的に更新します。登録トークンの証明書は 90 日間有効です。この 90 日間の制限のため、コンピューターがトークンを更新し、エージェントとサイド バイ サイドのスタック コンポーネントを更新できるように、VM を 90 日ごとに 20 分間オンラインにすることをお勧めします。</t>
+          <t>DRの目的で2番目のリージョンが必要な場合は、そこでネットアップの可用性も確認します。</t>
         </is>
       </c>
       <c r="E106" s="22" t="inlineStr">
@@ -6002,13 +6002,13 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -6016,7 +6016,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
+          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -6027,22 +6027,22 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>AVD を通じて公開されたアプリケーション/デスクトップに期待される高可用性 SLA を決定する</t>
+          <t>最適なパフォーマンスを得るには、ストレージ ソリューションと FSLogix プロファイル コンテナーを同じデータ センターの場所に配置する必要があります。</t>
         </is>
       </c>
       <c r="D107" s="22" t="inlineStr">
         <is>
-          <t>AVD 管理プランでは、財政的に裏付けられたサービス レベル アグリーメントは提供されません。マイクロソフトは、Windows 仮想デスクトップ サービス URL の可用性を少なくとも 99.9% にするよう努めています。サブスクリプション内のセッション ホスト仮想マシンの可用性は、仮想マシン SLA の対象となります。依存するリソース/サービスおよびインフラストラクチャの可用性も、グローバルな高可用性要件を適切に満たすために考慮する必要があります。</t>
+          <t>可能な限り、リージョン間のネットワーク トラフィックに関連する追加の待機時間とコストを発生させないようにします。</t>
         </is>
       </c>
       <c r="E107" s="22" t="inlineStr">
@@ -6052,13 +6052,13 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -6066,7 +6066,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
+          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6077,22 +6077,22 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>AVD ホスト プールの geo ディザスタ リカバリ領域の評価</t>
+          <t>FSLogix の推奨されるウイルス対策除外を構成します (接続時に VHD(x) ファイルをスキャンしないことを含む)。</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
         <is>
-          <t>アクティブ-アクティブ'モデルは、異なるリージョンの複数のホストプールで実現できます。異なるリージョンの VM を含む単一のホスト プールはお勧めしません。同じユーザーに対して複数のプールを使用する場合は、ユーザー・プロファイルの同期/複製方法の問題を解決する必要があります。FSLogixクラウドキャッシュを使用することもできますが、慎重にレビューして計画する必要があります。そうしないと、お客様は同期/レプリケーションをまったく行わないことを決定できます。「アクティブ/パッシブ」は、Azure Site Recovery (ASR) または自動化されたメカニズムを備えたオンデマンド プール デプロイを使用して実現できます。</t>
+          <t>参照記事に記載されているように、FSLogix プロファイル コンテナーの仮想ハード ドライブに対して次のウイルス対策の除外を構成してください。</t>
         </is>
       </c>
       <c r="E108" s="22" t="inlineStr">
@@ -6102,13 +6102,13 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -6116,7 +6116,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
+          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6127,38 +6127,38 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>重要なアプリケーションを異なるAVDホストプールに分離</t>
+          <t>FSLogix レジストリ キーを確認し、適用するレジストリ キーを決定する</t>
         </is>
       </c>
       <c r="D109" s="22" t="inlineStr">
         <is>
-          <t>Windows 仮想デスクトップ BCDR の計画と設計に取り組む前に、AVD によって消費されるアプリケーションが重要であることを最初に検討することが重要です。重要でないアプリから分離し、別の障害復旧アプローチと機能を持つ別のホスト プールを使用することもできます。</t>
+          <t>デフォルトの基本設定と推奨設定は次のとおりです。 https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises 基本セットについてはこちらをご覧ください。 完全な参考のためにここに https://learn.microsoft.com/fslogix/configure-profile-container-tutorialSee: https://learn.microsoft.com/fslogix/profile-container-configuration-reference</t>
         </is>
       </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -6166,7 +6166,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
+          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6177,22 +6177,22 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>AVD ホスト プールの展開に最適な回復性オプションを計画する</t>
+          <t>同じプロファイルへの同時接続または複数の接続の使用状況を確認する</t>
         </is>
       </c>
       <c r="D110" s="22" t="inlineStr">
         <is>
-          <t>?ホストプール VM に適切な回復性レベルを選択しましたか (可用性セットと可用性ゾーン)??HA SLA と AS または AZ に付随するスケーラビリティの制限への影響をご存知ですか?現在、可用性セットなしで Windows 仮想デスクトップ ARM テンプレート展開ごとに 399 の VM を展開でき、可用性セットごとに 200 の VM を展開できます。展開ごとの VM の数を増やすには、ARM テンプレートまたは Azure portal ホスト プールの登録で可用性セットをオフにします。AZ のデプロイが可能になり、現時点では一度に 1 つの AZ が、必要な各 AZ に VM の一部を手動で作成する必要があります。</t>
+          <t>同時接続または複数接続は、Windows 仮想デスクトップでは推奨されません。ベスト プラクティスは、セッションごとに異なるプロファイルの場所を (ホスト プールとして) 作成することです。</t>
         </is>
       </c>
       <c r="E110" s="22" t="inlineStr">
@@ -6202,13 +6202,13 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
+          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6227,45 +6227,45 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>AVDセッション・ホストのバックアップ要件の評価</t>
+          <t>ストレージのサイズ設定に関するベスト プラクティスと主な考慮事項を確認する</t>
         </is>
       </c>
       <c r="D111" s="22" t="inlineStr">
         <is>
-          <t>Azure Backup はホスト プール VM の保護にも使用できますが、ホスト プール VM をステートレスにする必要がある場合でも、このプラクティスはサポートされています。このオプションは、個人用ホストプールで検討できます。</t>
+          <t>一般的な見積もりとして、テスト環境で検証するには、ワークロードに応じて、ユーザーごとに 5 から 15 IOPS を最初に検討する必要があります。Azure ファイル: プレミアム シェアあたり最大 100k IOPS (最大 100 TB)、および 3 ミリ秒の待機時間で最大 5 Gbps。Azure Files のプロビジョニング方法、つまり IOPS は厳密にプロビジョニングされた SIZE に関連付けられていることに注意してください。場合によってはバーストサイジング機能。十分な IOPS を確保するために、必要以上の領域を事前にプロビジョニングしてください。注: Azure Premium は、トランザクションを支払わないため、標準よりも安くなる可能性がありますが、覚えておくべき重要な詳細。Azure NetApp Files: 最大 1000 個の IP が接続され、その場で IOPS を調整でき、最小 4 TB のプロビジョニング容量を記憶してください。</t>
         </is>
       </c>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
+          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6276,22 +6276,22 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>プロファイル コンテナーと Office コンテナー内で保護する必要があるデータを評価する</t>
+          <t>Azure ファイルのベスト プラクティスを確認する (使用する場合)</t>
         </is>
       </c>
       <c r="D112" s="22" t="inlineStr">
         <is>
-          <t>FSLogixユーザープロファイル内のすべてのデータが災害からの保護に値するとは限りません。さらに、OneDrive やファイル サーバー/共有などの外部ストレージが使用されている場合、FSLogix プロファイルに残っているものは最小限であり、極端な状況で失われる可能性があります。また、プロファイル内のデータを他のストレージ (キャッシュ モードの Outlook 受信トレイなど) から再構築することもできます。</t>
+          <t>参照記事で説明されているベストプラクティスと推奨事項のリストを必ず確認してください。</t>
         </is>
       </c>
       <c r="E112" s="22" t="inlineStr">
@@ -6301,13 +6301,13 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -6315,7 +6315,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
+          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6326,22 +6326,22 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>プロファイル コンテナーと Office コンテナーのバックアップ保護戦略の構築</t>
+          <t>ネットアップファイルのベストプラクティスを確認する(使用している場合)</t>
         </is>
       </c>
       <c r="D113" s="22" t="inlineStr">
         <is>
-          <t>重要なユーザーデータのデータ損失を防ぐことは重要であり、最初のステップは、保存して保護する必要があるデータを評価することです。OneDrive またはその他の外部ストレージを使用している場合は、ユーザー プロファイルや Office コンテナーのデータを保存する必要がない場合があります。重要なユーザー データの保護を提供するには、適切なメカニズムを考慮する必要があります。Azure Backup サービスを使用すると、Azure Files Standard レベルと Premium レベルに格納されているときに、プロファイル コンテナーと Office コンテナーのデータを保護することができます。Azure NetApp Files Snapshots and Policies は、Azure NetApp Files (すべての層) に使用できます。</t>
+          <t>参照記事で説明されているベストプラクティスと推奨事項のリストを必ず確認してください。</t>
         </is>
       </c>
       <c r="E113" s="22" t="inlineStr">
@@ -6351,13 +6351,13 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -6365,7 +6365,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc - 3cd2 - 45bf - a707 - 6e9eab4bed32</t>
+          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6376,38 +6376,38 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>BCDR目的のためのプロファイルコンテナストレージレプリケーション要件と回復性を評価する</t>
+          <t>FSLogix で構成された最大プロファイル サイズを確認して確認する</t>
         </is>
       </c>
       <c r="D114" s="22" t="inlineStr">
         <is>
-          <t>AVDでは、FSLogixコンテナに存在するユーザーデータに複数のレプリケーションメカニズムと戦略を使用できます。プロファイル パターン #1: ネイティブの Azure ストレージ レプリケーション メカニズム (Azure Files Standard GRS レプリケーション、Azure NetApp Files クロスリージョン レプリケーション、VM ベースのファイル サーバー用の Azure Files Sync など) ですか?Azure Files には、Zone Replicated Storage (ZRS) または Geo Replicated Storage (GRS) を使用することをお勧めします。?ローカルのみの回復性を持つ LRS は、ゾーン/リージョンの保護が必要ない場合に使用できます。?注: Azure Files Share Standard は LRS/ZRS/GRS ですが、100 TB の大規模サポートを有効にすると、LRS/ZRS のみがサポートされます。?プロファイルパターン#2:FSLogixクラウドキャッシュは、異なる(最大4つの)ストレージアカウント間でコンテナを複製する自動メカニズムに組み込まれています。クラウドキャッシュは、次の場合にのみ使用する必要がありますか?ユーザー プロファイルまたは Office コンテナーのデータ可用性が必要 高可用性 SLA は重要であり、リージョンの障害に対する回復力が必要です。?選択されたストレージ・オプションは、BCDR 要件を満たすことができません。たとえば、Azure File Share Premium レベルや、Large File Support が有効になっている Azure File Share Standard では、GRS は使用できません。?異種ストレージ間のレプリケーションが必要な場合。?プロファイル パターン #3: ユーザー データ/プロファイル コンテナーではなく、アプリケーション データに対してのみ geo ディザスタリカバリを設定します。重要なアプリケーション データは、OneDrive などの個別のストレージや、独自の組み込み DR メカニズムを備えたその他の外部ストレージに格納します。</t>
+          <t>プロファイルコンテナのデフォルトの最大サイズは30GBです。大きなプロファイル コンテナーが予想され、お客様がそれらを小さく保とうとする場合は、OneDrive を使用して FSLogix プロファイルの外部で Office 365 ファイルをホストすることを検討してください。</t>
         </is>
       </c>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/fslogix/profile-container-configuration-reference</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
+          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6426,22 +6426,22 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Azure NetApp Files DR 戦略の確認</t>
+          <t>FSLogix クラウド キャッシュを使用する場合は、キャッシュ ディレクトリを一時ドライブに移動します。</t>
         </is>
       </c>
       <c r="D115" s="22" t="inlineStr">
         <is>
-          <t>地理的なディザスター リカバリ: Azure NetApp Files は基本的に LRS (ローカルにレプリケートされたストレージ) であるため、リージョン間のレプリケーションが必要な場合は、さらに何かを設計する必要があります。現時点でのクロスリージョンの推奨事項は、別の Azure リージョン (および NetApp ボリューム) にレプリケートする NetApp Cloud Sync です。バックアップ: バックアップはスナップショットによって処理されますが、自動ではなく、ポリシーを使用してスケジュールする必要があります。https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots。ボリュームあたりのスナップショットの最大数 (255) は、https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits で説明されています。</t>
+          <t>Cloud Cache はローカル ディスクをキャッシュとして使用するため、VM ディスクに大きな負荷がかかる可能性があります。可能であれば、VM SKU に基づいて、一時的な (およびローカルに接続された) VM ディスクの機能を活用することをお勧めします。</t>
         </is>
       </c>
       <c r="E115" s="22" t="inlineStr">
@@ -6451,20 +6451,20 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
+          <t>https://learn.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
+          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6475,22 +6475,22 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Azure Files DR 戦略を確認する</t>
+          <t>FSLogix リダイレクトの使用法を確認します。</t>
         </is>
       </c>
       <c r="D116" s="22" t="inlineStr">
         <is>
-          <t>地理的なディザスター リカバリー: GRS for Azure Files は、標準の SKU でのみ使用でき、大規模な共有サポートは提供されないため、ほとんどのお客様のシナリオでは適していません。geo レプリケーションが必要な場合は、Azure File Share Premium を使用する場合、FSLogix Cloud Cache を使用したレプリケーションを評価するか、"リージョン内" アベイラビリティー ゾーン (AZ) のみの回復性を考慮する必要があります。バックアップ: Azure Backup は、Azure ファイル共有のすべての SKU を完全にサポートしており、プロファイル コンテナーを保護するために推奨されるソリューションです。OneDrive またはその他の外部ストレージを使用している場合は、ユーザー プロファイルや Office コンテナーのデータを保存する必要がない場合があります。</t>
+          <t>リダイレクト.XMLファイルは、プロファイルコンテナからC:ドライブにリダイレクトされるフォルダを制御するために使用されます。除外は例外であるべきであり、除外を構成するユーザーが特定の除外を完全に理解しない限り、決して使用しないでください。除外は、実装が意図されている環境で常に完全にテストする必要があります。除外を構成すると、機能、安定性、パフォーマンスに影響を与える可能性があります。</t>
         </is>
       </c>
       <c r="E116" s="22" t="inlineStr">
@@ -6500,20 +6500,20 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
+          <t>https://learn.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
+          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6524,45 +6524,45 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>依存 関係</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>ゴールデン イメージの地域間での可用性を計画する</t>
+          <t>Azure ネットアップ ファイル ストレージを使用する場合は、AD 接続の AD サイト名の設定を確認してください。</t>
         </is>
       </c>
       <c r="D117" s="22" t="inlineStr">
         <is>
-          <t>カスタム イメージを使用して AVD ホスト プール VM を展開する場合は、大規模な障害が発生した場合でも、それらの成果物がすべてのリージョンで使用できるようにすることが重要です。Azure コンピューティング ギャラリー サービスを使用すると、ホスト プールがデプロイされているすべてのリージョンに、冗長ストレージと複数のコピーでイメージをレプリケートできます。</t>
+          <t>ANF サブネットが作成される Azure 仮想ネットワーク環境用に Active Directory サイトを作成し、リファレンス記事で説明されているように、参加手順を実行するときにそのサイト名を ANF 接続プロパティで指定する必要があります。</t>
         </is>
       </c>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/create-active-directory-connections</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
+          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6573,22 +6573,22 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>依存 関係</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>インフラストラクチャとアプリケーションの依存関係を評価する</t>
+          <t>Premium ファイル共有を使用して FSLogix プロファイル コンテナーをホストする場合は、SMB マルチチャネルを有効にします。</t>
         </is>
       </c>
       <c r="D118" s="22" t="inlineStr">
         <is>
-          <t>AVD インフラストラクチャのユーザーがオンプレミスのリソース アクセスを必要とする場合、接続に必要なネットワーク インフラストラクチャの高可用性も重要であり、考慮する必要があります。認証インフラストラクチャの回復性を評価し、評価する必要があります。依存アプリケーションおよびその他のリソースの BCDR の側面は、セカンダリ DR ロケーションでの可用性を確保するために考慮する必要があります。</t>
+          <t>SMB マルチチャネルを使用すると、クライアントは複数のネットワーク接続を使用して、所有コストを削減しながらパフォーマンスを向上させることができます。パフォーマンスの向上は、複数の NIC に帯域幅を集約し、NIC の受信側スケーリング (RSS) サポートを利用して複数の CPU に IO 負荷を分散することで実現されます。</t>
         </is>
       </c>
       <c r="E118" s="22" t="inlineStr">
@@ -6598,13 +6598,13 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-smb-multichannel-performance</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6612,7 +6612,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
+          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6623,41 +6623,45 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>セッション ホスト</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
-        </is>
-      </c>
-      <c r="D119" s="22" t="n"/>
+          <t>セッション・ホストに使用する管理対象ディスクのタイプを決定する</t>
+        </is>
+      </c>
+      <c r="D119" s="22" t="inlineStr">
+        <is>
+          <t>標準HDD、標準SSD、またはプレミアムSSD、エフェメラルディスクはサポートされておらず、ウルトラディスクは推奨されません。ユーザー密度が低くない場合、およびクラウドキャッシュを使用する場合は、OSディスクのプレミアムを評価することをお勧めします。</t>
+        </is>
+      </c>
       <c r="E119" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6678,7 +6682,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6695,7 +6699,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6703,7 +6707,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6714,17 +6718,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6741,19 +6745,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6789,13 +6789,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6816,7 +6824,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6831,21 +6839,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6895,7 +6895,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6933,19 +6933,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6983,19 +6983,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -7033,19 +7033,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7083,19 +7083,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7116,13 +7116,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7133,14 +7133,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7161,13 +7166,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7178,14 +7183,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7206,7 +7211,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7223,14 +7228,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7251,7 +7256,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7268,14 +7273,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7296,7 +7301,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7313,14 +7318,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7341,7 +7346,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7358,14 +7363,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7386,7 +7391,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7403,14 +7408,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7431,7 +7436,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7448,14 +7453,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7476,7 +7481,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7493,14 +7498,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7521,7 +7526,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7538,14 +7543,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7566,7 +7571,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7583,14 +7588,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7601,23 +7606,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7628,14 +7633,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7646,17 +7651,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7673,14 +7678,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7701,13 +7706,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7718,14 +7723,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7746,7 +7751,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7763,14 +7768,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7791,7 +7796,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7815,7 +7820,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7836,7 +7841,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7860,7 +7865,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7881,7 +7886,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7905,7 +7910,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7926,7 +7931,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7943,14 +7948,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7971,7 +7976,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7995,7 +8000,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -8033,14 +8038,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8061,7 +8066,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8085,7 +8090,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8106,7 +8111,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8123,14 +8128,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8146,18 +8151,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8168,14 +8173,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8191,12 +8196,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8213,14 +8218,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8241,13 +8246,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8265,7 +8270,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8286,7 +8291,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8303,14 +8308,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8331,7 +8336,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8355,7 +8360,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8376,13 +8381,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8400,7 +8405,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8421,7 +8426,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8445,7 +8450,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8466,13 +8471,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8490,7 +8495,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8511,7 +8516,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8535,7 +8540,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8556,7 +8561,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8573,14 +8578,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8601,7 +8606,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8618,14 +8623,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8641,12 +8646,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8663,14 +8668,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8686,12 +8691,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8708,14 +8713,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8736,7 +8741,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8753,14 +8758,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8781,7 +8786,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8798,14 +8803,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8826,7 +8831,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8843,14 +8848,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8871,7 +8876,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8888,14 +8893,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8916,7 +8921,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8933,14 +8938,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8961,7 +8966,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8985,7 +8990,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -9006,7 +9011,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -9023,14 +9028,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -9039,360 +9044,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10950,7 +11675,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11034,7 +11759,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11090,26 +11815,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F120" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11195,7 +11938,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -11220,7 +11963,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ見ていません</t>
+          <t>このチェックはまだ確認されていません</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -11294,7 +12037,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それに関連付けられたアクションアイテムはこれ以上ありません。</t>
+          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11326,7 +12069,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解しているが、現在の要件では必要ではない</t>
+          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -11358,7 +12101,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>現在の設計には適用されません</t>
+          <t>現在のデザインには適用できません</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
